--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -40,12 +40,6 @@
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>Trần Thị B</t>
   </si>
   <si>
     <t>Khảo sát A</t>
@@ -73,6 +67,52 @@
   </si>
   <si>
     <t>Đề tài: Web quản lý bán hàng online</t>
+  </si>
+  <si>
+    <t>Trần Văn Tuấn</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Đức</t>
+  </si>
+  <si>
+    <t>7/102019</t>
+  </si>
+  <si>
+    <t>Khảo sát website bán hàng tiki.vn
+Ưu điểm: 
++ tốc độ load trang nhanh.
++ Dễ dàng tìm kiếm sản phẩm.
++ Có responsive web phù hợp trên mọi thiết bị.
++ Có phần tải app cho mobile trên trang.
++ Có hỗ trợ các phương thức thanh toán online qua nhiều loại thẻ tín dụng ATM.
++ Có cổng kết nối với các kênh youtube, facebook, zalo.
+Có hỗ trợ các phương thước login với tài khoản xã hội tin cậy facebook, zalo, google.
++ Dễ tìm kiếm sản phầm theo mức giá theo yêu cầu của người dùng.
++ Hỗ trợ dịch vụ đối với điện thoại.
++ Thanh tìm kiếm có hộ trợ từ khóa tìm kiếm nhanh.
+Nhược điểm:
++ Không hỗ trợ chat trược tuyến trên web.
++ nhiều thông tin trên một trang quá.
++ Dàn trải loyout trên trang quá nhiều, gây rỗi.</t>
+  </si>
+  <si>
+    <t>Khảo sát website bán hàng lazada.vn
+Ưu điểm: 
+ + Có hỗ trợ đa ngôn ngữ
+ + Cho phép tìm kiếm theo các từ khóa được tìm nhiều nhất.
+Nhược điểm:
+ + Thiết kế cực kì rườm rà không thích mắt.
+ + Không hiểu thị các tìm kiếm cũ.
+ + không hỗ trợ giữ chế độ đăng nhập.</t>
+  </si>
+  <si>
+    <t>kháo sát website bán hàng fptshop.com.vn
+Ưu điểm:
+ + Thiết kế phù hợp với thời đại.
+ + Sản phẩm được phân vùng hiển thị hợp lý.
+Nhước điểm:
+ + Trang không cho phép đăng nhập hay tạo tài khoản nên khi reload trình duyệt sẽ mất các sản phẩm dự định mua trong giỏ.
+ + Trang cũng không hỗ trợ chatbot hay hỗ trợ trực tuyến.</t>
   </si>
 </sst>
 </file>
@@ -230,6 +270,142 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1238250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="21755"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="2847975"/>
+          <a:ext cx="2695575" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>207804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1285875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981199" y="8046879"/>
+          <a:ext cx="2686051" cy="1078071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>231182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1247775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990724" y="11003957"/>
+          <a:ext cx="2790826" cy="1016593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1001"/>
+  <dimension ref="A1:W1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -547,7 +723,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -574,7 +750,7 @@
     </row>
     <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -607,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -642,7 +818,7 @@
     </row>
     <row r="4" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -669,10 +845,10 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7">
@@ -701,11 +877,11 @@
     </row>
     <row r="6" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7">
         <v>43713</v>
@@ -733,11 +909,11 @@
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7">
         <v>43722</v>
@@ -765,10 +941,10 @@
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="7">
@@ -795,17 +971,26 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>16</v>
+    <row r="9" spans="1:23" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="E9" s="7">
+        <v>43745</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43745</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43745</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -822,24 +1007,26 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="16" customFormat="1" ht="231" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="7">
-        <v>43728</v>
+        <v>43747</v>
       </c>
       <c r="F10" s="7">
-        <v>43738</v>
+        <v>43747</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7">
+        <v>43747</v>
+      </c>
+      <c r="H10" s="7">
+        <v>43747</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -856,18 +1043,26 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="16" customFormat="1" ht="247.5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="7">
+        <v>43747</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43747</v>
+      </c>
+      <c r="G11" s="7">
+        <v>43747</v>
+      </c>
+      <c r="H11" s="7">
+        <v>43747</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -885,13 +1080,12 @@
       <c r="W11" s="8"/>
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -913,11 +1107,21 @@
       <c r="W12" s="8"/>
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7">
+        <v>43728</v>
+      </c>
+      <c r="F13" s="7">
+        <v>43738</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -937,8 +1141,12 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -961,9 +1169,13 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1248,67 +1460,79 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" spans="2:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-    </row>
-    <row r="28" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-    </row>
-    <row r="29" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-    </row>
-    <row r="30" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+    </row>
+    <row r="28" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+    </row>
+    <row r="29" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+    </row>
+    <row r="30" spans="2:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1335,7 +1559,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="14"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -20748,6 +20972,66 @@
       <c r="R1001" s="13"/>
       <c r="S1001" s="13"/>
     </row>
+    <row r="1002" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="11"/>
+      <c r="D1002" s="11"/>
+      <c r="E1002" s="12"/>
+      <c r="F1002" s="12"/>
+      <c r="G1002" s="12"/>
+      <c r="H1002" s="12"/>
+      <c r="I1002" s="13"/>
+      <c r="J1002" s="13"/>
+      <c r="K1002" s="13"/>
+      <c r="L1002" s="13"/>
+      <c r="M1002" s="13"/>
+      <c r="N1002" s="13"/>
+      <c r="O1002" s="13"/>
+      <c r="P1002" s="13"/>
+      <c r="Q1002" s="13"/>
+      <c r="R1002" s="13"/>
+      <c r="S1002" s="13"/>
+    </row>
+    <row r="1003" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="11"/>
+      <c r="D1003" s="11"/>
+      <c r="E1003" s="12"/>
+      <c r="F1003" s="12"/>
+      <c r="G1003" s="12"/>
+      <c r="H1003" s="12"/>
+      <c r="I1003" s="13"/>
+      <c r="J1003" s="13"/>
+      <c r="K1003" s="13"/>
+      <c r="L1003" s="13"/>
+      <c r="M1003" s="13"/>
+      <c r="N1003" s="13"/>
+      <c r="O1003" s="13"/>
+      <c r="P1003" s="13"/>
+      <c r="Q1003" s="13"/>
+      <c r="R1003" s="13"/>
+      <c r="S1003" s="13"/>
+    </row>
+    <row r="1004" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="11"/>
+      <c r="D1004" s="11"/>
+      <c r="E1004" s="12"/>
+      <c r="F1004" s="12"/>
+      <c r="G1004" s="12"/>
+      <c r="H1004" s="12"/>
+      <c r="I1004" s="13"/>
+      <c r="J1004" s="13"/>
+      <c r="K1004" s="13"/>
+      <c r="L1004" s="13"/>
+      <c r="M1004" s="13"/>
+      <c r="N1004" s="13"/>
+      <c r="O1004" s="13"/>
+      <c r="P1004" s="13"/>
+      <c r="Q1004" s="13"/>
+      <c r="R1004" s="13"/>
+      <c r="S1004" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
@@ -20755,5 +21039,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam3\DOAN1_2\DOAN1_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUCDOAN\Desktop\DOAN1\DOAN1_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F18A0-073A-49F4-A439-8AF80ADB1C0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -114,11 +115,56 @@
  + Trang không cho phép đăng nhập hay tạo tài khoản nên khi reload trình duyệt sẽ mất các sản phẩm dự định mua trong giỏ.
  + Trang cũng không hỗ trợ chatbot hay hỗ trợ trực tuyến.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Khảo sát trang Web BIGC.Com
+Ưu điểm : 
++Thiết kế đơn giản , dễ nhìn,dễ tìm kiếm
++Không có quảng cáo 
++Hỗ trợ đa ngôn ngữ
++ Có hỗ trợ dịch vụ trên điện thoại bằng cách tải APP,hỗ trợ tìm vị trí
++Không bỏ lỡ các khuyến mại hiện có 
++ Có hỗ trợ thanh toán qua thẻ tín dụng
++ Đăng kí toàn khoản nhanh và bảo mật
+Nhược điểm :
++Trang không hỗ trợ đăng nhập bằng tải khoản tin cậy khác
++ Rất ít thông tin đối với sản phẩm
++Không hỗ trợ phản hồi trực tuyến
+</t>
+  </si>
+  <si>
+    <t>Khảo sát trang Web linhkienquocthai.com.
+Ưu điểm :
++Thiết kế  đơn giản
++Dễ dàng tìm kiếm linh kiện điện tử
+Nhược điểm:
++Không hỗ trợ đa ngôn ngữ
++ Chỉ có thể thanh toán trực tiếp
++Giao diện không được đẹp
++không hỗ trợ đổi trả hay phản hồi
++Thông tin sản phẩm quá ít</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khảo sát trang Web Laptopxachtay.com
+Ưu điểm:
++Thanh tìm kiếm đơn giản,dễ dàng tìm kiếm sản phẩm theo nhu cầu của người dùng
++Không có quảng cáo ngoài
++Thông tin sản phẩm chi tiết
++Hỗ trợ phản hồi trực tuyến
+Nhược điểm:
++không hỗ trợ đăng kí bằng tài khoản tin cậy sãn có
++Không liên kết với bất cứ trang web nào khác
++Không có thông tin của người mua trước
++Đăng kí thông tin không cần xác thực dẫn đến nhiều tài khoản rác
+</t>
+  </si>
+  <si>
+    <t>15/10/2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
@@ -255,7 +301,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Kế Hoạch-style" pivot="0" count="3">
+    <tableStyle name="Kế Hoạch-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -289,7 +335,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -320,19 +372,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>207804</xdr:rowOff>
+      <xdr:rowOff>703104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:colOff>2876550</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1285875</xdr:rowOff>
+      <xdr:rowOff>1781175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -351,7 +409,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1981199" y="8046879"/>
+          <a:off x="2133599" y="8513604"/>
           <a:ext cx="2686051" cy="1078071"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -364,19 +422,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
+      <xdr:colOff>145595</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>231182</xdr:rowOff>
+      <xdr:rowOff>865275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:colOff>2936421</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1247775</xdr:rowOff>
+      <xdr:rowOff>1881868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -395,12 +459,171 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1990724" y="11003957"/>
+          <a:off x="2088695" y="11666625"/>
           <a:ext cx="2790826" cy="1016593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2826328</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1690255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44EC8CE4-9E23-4646-9EB6-7308A1C5F637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2078182" y="14865927"/>
+          <a:ext cx="2687782" cy="1080655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89562</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>736022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2874326</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2079912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F26D3B-C6FD-4AF0-90E4-051A549C7965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2032662" y="20147972"/>
+          <a:ext cx="2784764" cy="1343890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50222</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>370609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2807277</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1575955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E69A72-1778-445A-AAB7-730F35D519B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1993322" y="23916409"/>
+          <a:ext cx="2757055" cy="1205346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -704,24 +927,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1004"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="15" customWidth="1"/>
-    <col min="9" max="23" width="8.7109375" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="14.42578125" style="2"/>
+    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="14.6640625" style="15" customWidth="1"/>
+    <col min="9" max="23" width="8.6640625" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
@@ -748,7 +971,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
@@ -775,7 +998,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -816,7 +1039,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
@@ -843,7 +1066,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -875,7 +1098,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -907,7 +1130,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
@@ -939,7 +1162,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
@@ -971,7 +1194,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="16" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1007,7 +1230,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:23" s="16" customFormat="1" ht="231" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="16" customFormat="1" ht="327" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1266,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:23" s="16" customFormat="1" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="16" customFormat="1" ht="363.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1079,17 +1302,26 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>14</v>
+    <row r="12" spans="1:23" s="16" customFormat="1" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>22</v>
       </c>
-      <c r="B12" s="9"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1106,24 +1338,26 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="16" customFormat="1" ht="352.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="7">
-        <v>43728</v>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="F13" s="7">
-        <v>43738</v>
+      <c r="F13" s="7" t="s">
+        <v>25</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1140,18 +1374,26 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="16" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1168,14 +1410,13 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>6</v>
+    <row r="15" spans="1:23" s="16" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>14</v>
       </c>
+      <c r="B15" s="9"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1196,12 +1437,22 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+    <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7">
+        <v>43728</v>
+      </c>
+      <c r="F16" s="7">
+        <v>43738</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
@@ -1220,9 +1471,13 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
+    <row r="17" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1244,10 +1499,14 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+    <row r="18" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1268,7 +1527,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1292,7 +1551,7 @@
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1316,7 +1575,7 @@
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1340,7 +1599,7 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1364,7 +1623,7 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1388,7 +1647,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1412,7 +1671,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1436,7 +1695,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1460,7 +1719,7 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1484,7 +1743,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1508,7 +1767,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1532,67 +1791,79 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="2:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-    </row>
-    <row r="31" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-    </row>
-    <row r="32" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-    </row>
-    <row r="33" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+    </row>
+    <row r="31" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+    </row>
+    <row r="32" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+    </row>
+    <row r="33" spans="2:19" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1612,14 +1883,14 @@
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -1632,7 +1903,7 @@
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
     </row>
-    <row r="35" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1652,7 +1923,7 @@
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
     </row>
-    <row r="36" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1672,7 +1943,7 @@
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
     </row>
-    <row r="37" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1692,7 +1963,7 @@
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
     </row>
-    <row r="38" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1712,7 +1983,7 @@
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
     </row>
-    <row r="39" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -1732,7 +2003,7 @@
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
     </row>
-    <row r="40" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -1752,7 +2023,7 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
     </row>
-    <row r="41" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -1772,7 +2043,7 @@
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
     </row>
-    <row r="42" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1792,7 +2063,7 @@
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
     </row>
-    <row r="43" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1812,7 +2083,7 @@
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
     </row>
-    <row r="44" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -1832,7 +2103,7 @@
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
     </row>
-    <row r="45" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1852,7 +2123,7 @@
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
     </row>
-    <row r="46" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -1872,7 +2143,7 @@
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
     </row>
-    <row r="47" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -1892,7 +2163,7 @@
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
     </row>
-    <row r="48" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -1912,7 +2183,7 @@
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
     </row>
-    <row r="49" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -1932,7 +2203,7 @@
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
     </row>
-    <row r="50" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -1952,7 +2223,7 @@
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
     </row>
-    <row r="51" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -1972,7 +2243,7 @@
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
     </row>
-    <row r="52" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -1992,7 +2263,7 @@
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
     </row>
-    <row r="53" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2012,7 +2283,7 @@
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
     </row>
-    <row r="54" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2032,7 +2303,7 @@
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
     </row>
-    <row r="55" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2052,7 +2323,7 @@
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
     </row>
-    <row r="56" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2072,7 +2343,7 @@
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
     </row>
-    <row r="57" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2092,7 +2363,7 @@
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
     </row>
-    <row r="58" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2112,7 +2383,7 @@
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
     </row>
-    <row r="59" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2132,7 +2403,7 @@
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
     </row>
-    <row r="60" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2152,7 +2423,7 @@
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
     </row>
-    <row r="61" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2172,7 +2443,7 @@
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
     </row>
-    <row r="62" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2192,7 +2463,7 @@
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
     </row>
-    <row r="63" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2212,7 +2483,7 @@
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
     </row>
-    <row r="64" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -2232,7 +2503,7 @@
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
     </row>
-    <row r="65" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -2252,7 +2523,7 @@
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
     </row>
-    <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -2272,7 +2543,7 @@
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
     </row>
-    <row r="67" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -2292,7 +2563,7 @@
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -2312,7 +2583,7 @@
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -2332,7 +2603,7 @@
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
     </row>
-    <row r="70" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -2352,7 +2623,7 @@
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -2372,7 +2643,7 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
     </row>
-    <row r="72" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -2392,7 +2663,7 @@
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
     </row>
-    <row r="73" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -2412,7 +2683,7 @@
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
     </row>
-    <row r="74" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -2432,7 +2703,7 @@
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
     </row>
-    <row r="75" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -2452,7 +2723,7 @@
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
     </row>
-    <row r="76" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -2472,7 +2743,7 @@
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
     </row>
-    <row r="77" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2492,7 +2763,7 @@
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
     </row>
-    <row r="78" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2512,7 +2783,7 @@
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2532,7 +2803,7 @@
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
     </row>
-    <row r="80" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2552,7 +2823,7 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
     </row>
-    <row r="81" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2572,7 +2843,7 @@
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
     </row>
-    <row r="82" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2592,7 +2863,7 @@
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
     </row>
-    <row r="83" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2612,7 +2883,7 @@
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
     </row>
-    <row r="84" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2632,7 +2903,7 @@
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
     </row>
-    <row r="85" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2652,7 +2923,7 @@
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
     </row>
-    <row r="86" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2672,7 +2943,7 @@
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
     </row>
-    <row r="87" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2692,7 +2963,7 @@
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
     </row>
-    <row r="88" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2712,7 +2983,7 @@
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
     </row>
-    <row r="89" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -2732,7 +3003,7 @@
       <c r="R89" s="13"/>
       <c r="S89" s="13"/>
     </row>
-    <row r="90" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2752,7 +3023,7 @@
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
     </row>
-    <row r="91" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2772,7 +3043,7 @@
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
     </row>
-    <row r="92" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2792,7 +3063,7 @@
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2812,7 +3083,7 @@
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
     </row>
-    <row r="94" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -2832,7 +3103,7 @@
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
     </row>
-    <row r="95" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -2852,7 +3123,7 @@
       <c r="R95" s="13"/>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -2872,7 +3143,7 @@
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
     </row>
-    <row r="97" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -2892,7 +3163,7 @@
       <c r="R97" s="13"/>
       <c r="S97" s="13"/>
     </row>
-    <row r="98" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2912,7 +3183,7 @@
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
     </row>
-    <row r="99" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -2932,7 +3203,7 @@
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
     </row>
-    <row r="100" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2952,7 +3223,7 @@
       <c r="R100" s="13"/>
       <c r="S100" s="13"/>
     </row>
-    <row r="101" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -2972,7 +3243,7 @@
       <c r="R101" s="13"/>
       <c r="S101" s="13"/>
     </row>
-    <row r="102" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -2992,7 +3263,7 @@
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
     </row>
-    <row r="103" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -3012,7 +3283,7 @@
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
     </row>
-    <row r="104" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3032,7 +3303,7 @@
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
     </row>
-    <row r="105" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -3052,7 +3323,7 @@
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
     </row>
-    <row r="106" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -3072,7 +3343,7 @@
       <c r="R106" s="13"/>
       <c r="S106" s="13"/>
     </row>
-    <row r="107" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -3092,7 +3363,7 @@
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
     </row>
-    <row r="108" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -3112,7 +3383,7 @@
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
     </row>
-    <row r="109" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -3132,7 +3403,7 @@
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
     </row>
-    <row r="110" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -3152,7 +3423,7 @@
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
     </row>
-    <row r="111" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -3172,7 +3443,7 @@
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -3192,7 +3463,7 @@
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -3212,7 +3483,7 @@
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
     </row>
-    <row r="114" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -3232,7 +3503,7 @@
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -3252,7 +3523,7 @@
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -3272,7 +3543,7 @@
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -3292,7 +3563,7 @@
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -3312,7 +3583,7 @@
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -3332,7 +3603,7 @@
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -3352,7 +3623,7 @@
       <c r="R120" s="13"/>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -3372,7 +3643,7 @@
       <c r="R121" s="13"/>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -3392,7 +3663,7 @@
       <c r="R122" s="13"/>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -3412,7 +3683,7 @@
       <c r="R123" s="13"/>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -3432,7 +3703,7 @@
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -3452,7 +3723,7 @@
       <c r="R125" s="13"/>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -3472,7 +3743,7 @@
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -3492,7 +3763,7 @@
       <c r="R127" s="13"/>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -3512,7 +3783,7 @@
       <c r="R128" s="13"/>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -3532,7 +3803,7 @@
       <c r="R129" s="13"/>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -3552,7 +3823,7 @@
       <c r="R130" s="13"/>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -3572,7 +3843,7 @@
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -3592,7 +3863,7 @@
       <c r="R132" s="13"/>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -3612,7 +3883,7 @@
       <c r="R133" s="13"/>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -3632,7 +3903,7 @@
       <c r="R134" s="13"/>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -3652,7 +3923,7 @@
       <c r="R135" s="13"/>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -3672,7 +3943,7 @@
       <c r="R136" s="13"/>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -3692,7 +3963,7 @@
       <c r="R137" s="13"/>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -3712,7 +3983,7 @@
       <c r="R138" s="13"/>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -3732,7 +4003,7 @@
       <c r="R139" s="13"/>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -3752,7 +4023,7 @@
       <c r="R140" s="13"/>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -3772,7 +4043,7 @@
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -3792,7 +4063,7 @@
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -3812,7 +4083,7 @@
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -3832,7 +4103,7 @@
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -3852,7 +4123,7 @@
       <c r="R145" s="13"/>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -3872,7 +4143,7 @@
       <c r="R146" s="13"/>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -3892,7 +4163,7 @@
       <c r="R147" s="13"/>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -3912,7 +4183,7 @@
       <c r="R148" s="13"/>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -3932,7 +4203,7 @@
       <c r="R149" s="13"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -3952,7 +4223,7 @@
       <c r="R150" s="13"/>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -3972,7 +4243,7 @@
       <c r="R151" s="13"/>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -3992,7 +4263,7 @@
       <c r="R152" s="13"/>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -4012,7 +4283,7 @@
       <c r="R153" s="13"/>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -4032,7 +4303,7 @@
       <c r="R154" s="13"/>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -4052,7 +4323,7 @@
       <c r="R155" s="13"/>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -4072,7 +4343,7 @@
       <c r="R156" s="13"/>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -4092,7 +4363,7 @@
       <c r="R157" s="13"/>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -4112,7 +4383,7 @@
       <c r="R158" s="13"/>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -4132,7 +4403,7 @@
       <c r="R159" s="13"/>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -4152,7 +4423,7 @@
       <c r="R160" s="13"/>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -4172,7 +4443,7 @@
       <c r="R161" s="13"/>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -4192,7 +4463,7 @@
       <c r="R162" s="13"/>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -4212,7 +4483,7 @@
       <c r="R163" s="13"/>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -4232,7 +4503,7 @@
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="1"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -4252,7 +4523,7 @@
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -4272,7 +4543,7 @@
       <c r="R166" s="13"/>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -4292,7 +4563,7 @@
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -4312,7 +4583,7 @@
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -4332,7 +4603,7 @@
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -4352,7 +4623,7 @@
       <c r="R170" s="13"/>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -4372,7 +4643,7 @@
       <c r="R171" s="13"/>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -4392,7 +4663,7 @@
       <c r="R172" s="13"/>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -4412,7 +4683,7 @@
       <c r="R173" s="13"/>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -4432,7 +4703,7 @@
       <c r="R174" s="13"/>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -4452,7 +4723,7 @@
       <c r="R175" s="13"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -4472,7 +4743,7 @@
       <c r="R176" s="13"/>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -4492,7 +4763,7 @@
       <c r="R177" s="13"/>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -4512,7 +4783,7 @@
       <c r="R178" s="13"/>
       <c r="S178" s="13"/>
     </row>
-    <row r="179" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -4532,7 +4803,7 @@
       <c r="R179" s="13"/>
       <c r="S179" s="13"/>
     </row>
-    <row r="180" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -4552,7 +4823,7 @@
       <c r="R180" s="13"/>
       <c r="S180" s="13"/>
     </row>
-    <row r="181" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -4572,7 +4843,7 @@
       <c r="R181" s="13"/>
       <c r="S181" s="13"/>
     </row>
-    <row r="182" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -4592,7 +4863,7 @@
       <c r="R182" s="13"/>
       <c r="S182" s="13"/>
     </row>
-    <row r="183" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -4612,7 +4883,7 @@
       <c r="R183" s="13"/>
       <c r="S183" s="13"/>
     </row>
-    <row r="184" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -4632,7 +4903,7 @@
       <c r="R184" s="13"/>
       <c r="S184" s="13"/>
     </row>
-    <row r="185" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -4652,7 +4923,7 @@
       <c r="R185" s="13"/>
       <c r="S185" s="13"/>
     </row>
-    <row r="186" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -4672,7 +4943,7 @@
       <c r="R186" s="13"/>
       <c r="S186" s="13"/>
     </row>
-    <row r="187" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -4692,7 +4963,7 @@
       <c r="R187" s="13"/>
       <c r="S187" s="13"/>
     </row>
-    <row r="188" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -4712,7 +4983,7 @@
       <c r="R188" s="13"/>
       <c r="S188" s="13"/>
     </row>
-    <row r="189" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -4732,7 +5003,7 @@
       <c r="R189" s="13"/>
       <c r="S189" s="13"/>
     </row>
-    <row r="190" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="1"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -4752,7 +5023,7 @@
       <c r="R190" s="13"/>
       <c r="S190" s="13"/>
     </row>
-    <row r="191" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="1"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -4772,7 +5043,7 @@
       <c r="R191" s="13"/>
       <c r="S191" s="13"/>
     </row>
-    <row r="192" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="1"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -4792,7 +5063,7 @@
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="1"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -4812,7 +5083,7 @@
       <c r="R193" s="13"/>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="1"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -4832,7 +5103,7 @@
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="1"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -4852,7 +5123,7 @@
       <c r="R195" s="13"/>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -4872,7 +5143,7 @@
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="1"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -4892,7 +5163,7 @@
       <c r="R197" s="13"/>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="1"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -4912,7 +5183,7 @@
       <c r="R198" s="13"/>
       <c r="S198" s="13"/>
     </row>
-    <row r="199" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="1"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -4932,7 +5203,7 @@
       <c r="R199" s="13"/>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="1"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -4952,7 +5223,7 @@
       <c r="R200" s="13"/>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="1"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -4972,7 +5243,7 @@
       <c r="R201" s="13"/>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="1"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -4992,7 +5263,7 @@
       <c r="R202" s="13"/>
       <c r="S202" s="13"/>
     </row>
-    <row r="203" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="1"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -5012,7 +5283,7 @@
       <c r="R203" s="13"/>
       <c r="S203" s="13"/>
     </row>
-    <row r="204" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="1"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -5032,7 +5303,7 @@
       <c r="R204" s="13"/>
       <c r="S204" s="13"/>
     </row>
-    <row r="205" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="1"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
@@ -5052,7 +5323,7 @@
       <c r="R205" s="13"/>
       <c r="S205" s="13"/>
     </row>
-    <row r="206" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="1"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -5072,7 +5343,7 @@
       <c r="R206" s="13"/>
       <c r="S206" s="13"/>
     </row>
-    <row r="207" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="1"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
@@ -5092,7 +5363,7 @@
       <c r="R207" s="13"/>
       <c r="S207" s="13"/>
     </row>
-    <row r="208" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="1"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -5112,7 +5383,7 @@
       <c r="R208" s="13"/>
       <c r="S208" s="13"/>
     </row>
-    <row r="209" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="1"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -5132,7 +5403,7 @@
       <c r="R209" s="13"/>
       <c r="S209" s="13"/>
     </row>
-    <row r="210" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="1"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
@@ -5152,7 +5423,7 @@
       <c r="R210" s="13"/>
       <c r="S210" s="13"/>
     </row>
-    <row r="211" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="1"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
@@ -5172,7 +5443,7 @@
       <c r="R211" s="13"/>
       <c r="S211" s="13"/>
     </row>
-    <row r="212" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="1"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -5192,7 +5463,7 @@
       <c r="R212" s="13"/>
       <c r="S212" s="13"/>
     </row>
-    <row r="213" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="1"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -5212,7 +5483,7 @@
       <c r="R213" s="13"/>
       <c r="S213" s="13"/>
     </row>
-    <row r="214" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="1"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -5232,7 +5503,7 @@
       <c r="R214" s="13"/>
       <c r="S214" s="13"/>
     </row>
-    <row r="215" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="1"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
@@ -5252,7 +5523,7 @@
       <c r="R215" s="13"/>
       <c r="S215" s="13"/>
     </row>
-    <row r="216" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="1"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -5272,7 +5543,7 @@
       <c r="R216" s="13"/>
       <c r="S216" s="13"/>
     </row>
-    <row r="217" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="1"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
@@ -5292,7 +5563,7 @@
       <c r="R217" s="13"/>
       <c r="S217" s="13"/>
     </row>
-    <row r="218" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -5312,7 +5583,7 @@
       <c r="R218" s="13"/>
       <c r="S218" s="13"/>
     </row>
-    <row r="219" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="1"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -5332,7 +5603,7 @@
       <c r="R219" s="13"/>
       <c r="S219" s="13"/>
     </row>
-    <row r="220" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="1"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -5352,7 +5623,7 @@
       <c r="R220" s="13"/>
       <c r="S220" s="13"/>
     </row>
-    <row r="221" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="1"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -5372,7 +5643,7 @@
       <c r="R221" s="13"/>
       <c r="S221" s="13"/>
     </row>
-    <row r="222" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="1"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
@@ -5392,7 +5663,7 @@
       <c r="R222" s="13"/>
       <c r="S222" s="13"/>
     </row>
-    <row r="223" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="1"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -5412,7 +5683,7 @@
       <c r="R223" s="13"/>
       <c r="S223" s="13"/>
     </row>
-    <row r="224" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="1"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
@@ -5432,7 +5703,7 @@
       <c r="R224" s="13"/>
       <c r="S224" s="13"/>
     </row>
-    <row r="225" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="1"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
@@ -5452,7 +5723,7 @@
       <c r="R225" s="13"/>
       <c r="S225" s="13"/>
     </row>
-    <row r="226" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="1"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
@@ -5472,7 +5743,7 @@
       <c r="R226" s="13"/>
       <c r="S226" s="13"/>
     </row>
-    <row r="227" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="1"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
@@ -5492,7 +5763,7 @@
       <c r="R227" s="13"/>
       <c r="S227" s="13"/>
     </row>
-    <row r="228" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="1"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
@@ -5512,7 +5783,7 @@
       <c r="R228" s="13"/>
       <c r="S228" s="13"/>
     </row>
-    <row r="229" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="1"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -5532,7 +5803,7 @@
       <c r="R229" s="13"/>
       <c r="S229" s="13"/>
     </row>
-    <row r="230" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="1"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -5552,7 +5823,7 @@
       <c r="R230" s="13"/>
       <c r="S230" s="13"/>
     </row>
-    <row r="231" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="1"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -5572,7 +5843,7 @@
       <c r="R231" s="13"/>
       <c r="S231" s="13"/>
     </row>
-    <row r="232" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="1"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
@@ -5592,7 +5863,7 @@
       <c r="R232" s="13"/>
       <c r="S232" s="13"/>
     </row>
-    <row r="233" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="1"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
@@ -5612,7 +5883,7 @@
       <c r="R233" s="13"/>
       <c r="S233" s="13"/>
     </row>
-    <row r="234" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="1"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
@@ -5632,7 +5903,7 @@
       <c r="R234" s="13"/>
       <c r="S234" s="13"/>
     </row>
-    <row r="235" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="1"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
@@ -5652,7 +5923,7 @@
       <c r="R235" s="13"/>
       <c r="S235" s="13"/>
     </row>
-    <row r="236" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="1"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -5672,7 +5943,7 @@
       <c r="R236" s="13"/>
       <c r="S236" s="13"/>
     </row>
-    <row r="237" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="1"/>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
@@ -5692,7 +5963,7 @@
       <c r="R237" s="13"/>
       <c r="S237" s="13"/>
     </row>
-    <row r="238" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="1"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
@@ -5712,7 +5983,7 @@
       <c r="R238" s="13"/>
       <c r="S238" s="13"/>
     </row>
-    <row r="239" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="1"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
@@ -5732,7 +6003,7 @@
       <c r="R239" s="13"/>
       <c r="S239" s="13"/>
     </row>
-    <row r="240" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
@@ -5752,7 +6023,7 @@
       <c r="R240" s="13"/>
       <c r="S240" s="13"/>
     </row>
-    <row r="241" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="1"/>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
@@ -5772,7 +6043,7 @@
       <c r="R241" s="13"/>
       <c r="S241" s="13"/>
     </row>
-    <row r="242" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="1"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -5792,7 +6063,7 @@
       <c r="R242" s="13"/>
       <c r="S242" s="13"/>
     </row>
-    <row r="243" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="1"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
@@ -5812,7 +6083,7 @@
       <c r="R243" s="13"/>
       <c r="S243" s="13"/>
     </row>
-    <row r="244" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="1"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
@@ -5832,7 +6103,7 @@
       <c r="R244" s="13"/>
       <c r="S244" s="13"/>
     </row>
-    <row r="245" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="1"/>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -5852,7 +6123,7 @@
       <c r="R245" s="13"/>
       <c r="S245" s="13"/>
     </row>
-    <row r="246" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="1"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
@@ -5872,7 +6143,7 @@
       <c r="R246" s="13"/>
       <c r="S246" s="13"/>
     </row>
-    <row r="247" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="1"/>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
@@ -5892,7 +6163,7 @@
       <c r="R247" s="13"/>
       <c r="S247" s="13"/>
     </row>
-    <row r="248" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="1"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
@@ -5912,7 +6183,7 @@
       <c r="R248" s="13"/>
       <c r="S248" s="13"/>
     </row>
-    <row r="249" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="1"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
@@ -5932,7 +6203,7 @@
       <c r="R249" s="13"/>
       <c r="S249" s="13"/>
     </row>
-    <row r="250" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="1"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
@@ -5952,7 +6223,7 @@
       <c r="R250" s="13"/>
       <c r="S250" s="13"/>
     </row>
-    <row r="251" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="1"/>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
@@ -5972,7 +6243,7 @@
       <c r="R251" s="13"/>
       <c r="S251" s="13"/>
     </row>
-    <row r="252" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="1"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
@@ -5992,7 +6263,7 @@
       <c r="R252" s="13"/>
       <c r="S252" s="13"/>
     </row>
-    <row r="253" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="1"/>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -6012,7 +6283,7 @@
       <c r="R253" s="13"/>
       <c r="S253" s="13"/>
     </row>
-    <row r="254" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="1"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
@@ -6032,7 +6303,7 @@
       <c r="R254" s="13"/>
       <c r="S254" s="13"/>
     </row>
-    <row r="255" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="1"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
@@ -6052,7 +6323,7 @@
       <c r="R255" s="13"/>
       <c r="S255" s="13"/>
     </row>
-    <row r="256" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="1"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
@@ -6072,7 +6343,7 @@
       <c r="R256" s="13"/>
       <c r="S256" s="13"/>
     </row>
-    <row r="257" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="1"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
@@ -6092,7 +6363,7 @@
       <c r="R257" s="13"/>
       <c r="S257" s="13"/>
     </row>
-    <row r="258" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="1"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
@@ -6112,7 +6383,7 @@
       <c r="R258" s="13"/>
       <c r="S258" s="13"/>
     </row>
-    <row r="259" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="1"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
@@ -6132,7 +6403,7 @@
       <c r="R259" s="13"/>
       <c r="S259" s="13"/>
     </row>
-    <row r="260" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="1"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -6152,7 +6423,7 @@
       <c r="R260" s="13"/>
       <c r="S260" s="13"/>
     </row>
-    <row r="261" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="1"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
@@ -6172,7 +6443,7 @@
       <c r="R261" s="13"/>
       <c r="S261" s="13"/>
     </row>
-    <row r="262" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -6192,7 +6463,7 @@
       <c r="R262" s="13"/>
       <c r="S262" s="13"/>
     </row>
-    <row r="263" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="1"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
@@ -6212,7 +6483,7 @@
       <c r="R263" s="13"/>
       <c r="S263" s="13"/>
     </row>
-    <row r="264" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="1"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
@@ -6232,7 +6503,7 @@
       <c r="R264" s="13"/>
       <c r="S264" s="13"/>
     </row>
-    <row r="265" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="1"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
@@ -6252,7 +6523,7 @@
       <c r="R265" s="13"/>
       <c r="S265" s="13"/>
     </row>
-    <row r="266" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="1"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -6272,7 +6543,7 @@
       <c r="R266" s="13"/>
       <c r="S266" s="13"/>
     </row>
-    <row r="267" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="1"/>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
@@ -6292,7 +6563,7 @@
       <c r="R267" s="13"/>
       <c r="S267" s="13"/>
     </row>
-    <row r="268" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="1"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
@@ -6312,7 +6583,7 @@
       <c r="R268" s="13"/>
       <c r="S268" s="13"/>
     </row>
-    <row r="269" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="1"/>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
@@ -6332,7 +6603,7 @@
       <c r="R269" s="13"/>
       <c r="S269" s="13"/>
     </row>
-    <row r="270" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="1"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
@@ -6352,7 +6623,7 @@
       <c r="R270" s="13"/>
       <c r="S270" s="13"/>
     </row>
-    <row r="271" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="1"/>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
@@ -6372,7 +6643,7 @@
       <c r="R271" s="13"/>
       <c r="S271" s="13"/>
     </row>
-    <row r="272" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="1"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
@@ -6392,7 +6663,7 @@
       <c r="R272" s="13"/>
       <c r="S272" s="13"/>
     </row>
-    <row r="273" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="1"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
@@ -6412,7 +6683,7 @@
       <c r="R273" s="13"/>
       <c r="S273" s="13"/>
     </row>
-    <row r="274" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="1"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
@@ -6432,7 +6703,7 @@
       <c r="R274" s="13"/>
       <c r="S274" s="13"/>
     </row>
-    <row r="275" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="1"/>
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
@@ -6452,7 +6723,7 @@
       <c r="R275" s="13"/>
       <c r="S275" s="13"/>
     </row>
-    <row r="276" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="1"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
@@ -6472,7 +6743,7 @@
       <c r="R276" s="13"/>
       <c r="S276" s="13"/>
     </row>
-    <row r="277" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="1"/>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
@@ -6492,7 +6763,7 @@
       <c r="R277" s="13"/>
       <c r="S277" s="13"/>
     </row>
-    <row r="278" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="1"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
@@ -6512,7 +6783,7 @@
       <c r="R278" s="13"/>
       <c r="S278" s="13"/>
     </row>
-    <row r="279" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="1"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
@@ -6532,7 +6803,7 @@
       <c r="R279" s="13"/>
       <c r="S279" s="13"/>
     </row>
-    <row r="280" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="1"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -6552,7 +6823,7 @@
       <c r="R280" s="13"/>
       <c r="S280" s="13"/>
     </row>
-    <row r="281" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="1"/>
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
@@ -6572,7 +6843,7 @@
       <c r="R281" s="13"/>
       <c r="S281" s="13"/>
     </row>
-    <row r="282" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="1"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
@@ -6592,7 +6863,7 @@
       <c r="R282" s="13"/>
       <c r="S282" s="13"/>
     </row>
-    <row r="283" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="1"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -6612,7 +6883,7 @@
       <c r="R283" s="13"/>
       <c r="S283" s="13"/>
     </row>
-    <row r="284" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
@@ -6632,7 +6903,7 @@
       <c r="R284" s="13"/>
       <c r="S284" s="13"/>
     </row>
-    <row r="285" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="1"/>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
@@ -6652,7 +6923,7 @@
       <c r="R285" s="13"/>
       <c r="S285" s="13"/>
     </row>
-    <row r="286" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="1"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
@@ -6672,7 +6943,7 @@
       <c r="R286" s="13"/>
       <c r="S286" s="13"/>
     </row>
-    <row r="287" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="1"/>
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
@@ -6692,7 +6963,7 @@
       <c r="R287" s="13"/>
       <c r="S287" s="13"/>
     </row>
-    <row r="288" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="1"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
@@ -6712,7 +6983,7 @@
       <c r="R288" s="13"/>
       <c r="S288" s="13"/>
     </row>
-    <row r="289" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="1"/>
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
@@ -6732,7 +7003,7 @@
       <c r="R289" s="13"/>
       <c r="S289" s="13"/>
     </row>
-    <row r="290" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="1"/>
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
@@ -6752,7 +7023,7 @@
       <c r="R290" s="13"/>
       <c r="S290" s="13"/>
     </row>
-    <row r="291" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="1"/>
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
@@ -6772,7 +7043,7 @@
       <c r="R291" s="13"/>
       <c r="S291" s="13"/>
     </row>
-    <row r="292" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="1"/>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
@@ -6792,7 +7063,7 @@
       <c r="R292" s="13"/>
       <c r="S292" s="13"/>
     </row>
-    <row r="293" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="1"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
@@ -6812,7 +7083,7 @@
       <c r="R293" s="13"/>
       <c r="S293" s="13"/>
     </row>
-    <row r="294" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="1"/>
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
@@ -6832,7 +7103,7 @@
       <c r="R294" s="13"/>
       <c r="S294" s="13"/>
     </row>
-    <row r="295" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="1"/>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
@@ -6852,7 +7123,7 @@
       <c r="R295" s="13"/>
       <c r="S295" s="13"/>
     </row>
-    <row r="296" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="1"/>
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
@@ -6872,7 +7143,7 @@
       <c r="R296" s="13"/>
       <c r="S296" s="13"/>
     </row>
-    <row r="297" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="1"/>
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
@@ -6892,7 +7163,7 @@
       <c r="R297" s="13"/>
       <c r="S297" s="13"/>
     </row>
-    <row r="298" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="1"/>
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
@@ -6912,7 +7183,7 @@
       <c r="R298" s="13"/>
       <c r="S298" s="13"/>
     </row>
-    <row r="299" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="1"/>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
@@ -6932,7 +7203,7 @@
       <c r="R299" s="13"/>
       <c r="S299" s="13"/>
     </row>
-    <row r="300" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="1"/>
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
@@ -6952,7 +7223,7 @@
       <c r="R300" s="13"/>
       <c r="S300" s="13"/>
     </row>
-    <row r="301" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="1"/>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
@@ -6972,7 +7243,7 @@
       <c r="R301" s="13"/>
       <c r="S301" s="13"/>
     </row>
-    <row r="302" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="1"/>
       <c r="C302" s="11"/>
       <c r="D302" s="11"/>
@@ -6992,7 +7263,7 @@
       <c r="R302" s="13"/>
       <c r="S302" s="13"/>
     </row>
-    <row r="303" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="1"/>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
@@ -7012,7 +7283,7 @@
       <c r="R303" s="13"/>
       <c r="S303" s="13"/>
     </row>
-    <row r="304" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="1"/>
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
@@ -7032,7 +7303,7 @@
       <c r="R304" s="13"/>
       <c r="S304" s="13"/>
     </row>
-    <row r="305" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="1"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
@@ -7052,7 +7323,7 @@
       <c r="R305" s="13"/>
       <c r="S305" s="13"/>
     </row>
-    <row r="306" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
@@ -7072,7 +7343,7 @@
       <c r="R306" s="13"/>
       <c r="S306" s="13"/>
     </row>
-    <row r="307" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="1"/>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
@@ -7092,7 +7363,7 @@
       <c r="R307" s="13"/>
       <c r="S307" s="13"/>
     </row>
-    <row r="308" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="1"/>
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
@@ -7112,7 +7383,7 @@
       <c r="R308" s="13"/>
       <c r="S308" s="13"/>
     </row>
-    <row r="309" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="1"/>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
@@ -7132,7 +7403,7 @@
       <c r="R309" s="13"/>
       <c r="S309" s="13"/>
     </row>
-    <row r="310" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="1"/>
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
@@ -7152,7 +7423,7 @@
       <c r="R310" s="13"/>
       <c r="S310" s="13"/>
     </row>
-    <row r="311" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="1"/>
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
@@ -7172,7 +7443,7 @@
       <c r="R311" s="13"/>
       <c r="S311" s="13"/>
     </row>
-    <row r="312" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="1"/>
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
@@ -7192,7 +7463,7 @@
       <c r="R312" s="13"/>
       <c r="S312" s="13"/>
     </row>
-    <row r="313" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="1"/>
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
@@ -7212,7 +7483,7 @@
       <c r="R313" s="13"/>
       <c r="S313" s="13"/>
     </row>
-    <row r="314" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="1"/>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
@@ -7232,7 +7503,7 @@
       <c r="R314" s="13"/>
       <c r="S314" s="13"/>
     </row>
-    <row r="315" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="1"/>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
@@ -7252,7 +7523,7 @@
       <c r="R315" s="13"/>
       <c r="S315" s="13"/>
     </row>
-    <row r="316" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="1"/>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -7272,7 +7543,7 @@
       <c r="R316" s="13"/>
       <c r="S316" s="13"/>
     </row>
-    <row r="317" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="1"/>
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
@@ -7292,7 +7563,7 @@
       <c r="R317" s="13"/>
       <c r="S317" s="13"/>
     </row>
-    <row r="318" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="1"/>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
@@ -7312,7 +7583,7 @@
       <c r="R318" s="13"/>
       <c r="S318" s="13"/>
     </row>
-    <row r="319" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="1"/>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
@@ -7332,7 +7603,7 @@
       <c r="R319" s="13"/>
       <c r="S319" s="13"/>
     </row>
-    <row r="320" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="1"/>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
@@ -7352,7 +7623,7 @@
       <c r="R320" s="13"/>
       <c r="S320" s="13"/>
     </row>
-    <row r="321" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="1"/>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
@@ -7372,7 +7643,7 @@
       <c r="R321" s="13"/>
       <c r="S321" s="13"/>
     </row>
-    <row r="322" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="1"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
@@ -7392,7 +7663,7 @@
       <c r="R322" s="13"/>
       <c r="S322" s="13"/>
     </row>
-    <row r="323" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="1"/>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
@@ -7412,7 +7683,7 @@
       <c r="R323" s="13"/>
       <c r="S323" s="13"/>
     </row>
-    <row r="324" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="1"/>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
@@ -7432,7 +7703,7 @@
       <c r="R324" s="13"/>
       <c r="S324" s="13"/>
     </row>
-    <row r="325" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="1"/>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
@@ -7452,7 +7723,7 @@
       <c r="R325" s="13"/>
       <c r="S325" s="13"/>
     </row>
-    <row r="326" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="1"/>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
@@ -7472,7 +7743,7 @@
       <c r="R326" s="13"/>
       <c r="S326" s="13"/>
     </row>
-    <row r="327" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="1"/>
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
@@ -7492,7 +7763,7 @@
       <c r="R327" s="13"/>
       <c r="S327" s="13"/>
     </row>
-    <row r="328" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1"/>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
@@ -7512,7 +7783,7 @@
       <c r="R328" s="13"/>
       <c r="S328" s="13"/>
     </row>
-    <row r="329" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="1"/>
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
@@ -7532,7 +7803,7 @@
       <c r="R329" s="13"/>
       <c r="S329" s="13"/>
     </row>
-    <row r="330" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="1"/>
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
@@ -7552,7 +7823,7 @@
       <c r="R330" s="13"/>
       <c r="S330" s="13"/>
     </row>
-    <row r="331" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="1"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
@@ -7572,7 +7843,7 @@
       <c r="R331" s="13"/>
       <c r="S331" s="13"/>
     </row>
-    <row r="332" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="1"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
@@ -7592,7 +7863,7 @@
       <c r="R332" s="13"/>
       <c r="S332" s="13"/>
     </row>
-    <row r="333" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="1"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
@@ -7612,7 +7883,7 @@
       <c r="R333" s="13"/>
       <c r="S333" s="13"/>
     </row>
-    <row r="334" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="1"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
@@ -7632,7 +7903,7 @@
       <c r="R334" s="13"/>
       <c r="S334" s="13"/>
     </row>
-    <row r="335" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="1"/>
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
@@ -7652,7 +7923,7 @@
       <c r="R335" s="13"/>
       <c r="S335" s="13"/>
     </row>
-    <row r="336" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B336" s="1"/>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -7672,7 +7943,7 @@
       <c r="R336" s="13"/>
       <c r="S336" s="13"/>
     </row>
-    <row r="337" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B337" s="1"/>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
@@ -7692,7 +7963,7 @@
       <c r="R337" s="13"/>
       <c r="S337" s="13"/>
     </row>
-    <row r="338" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B338" s="1"/>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
@@ -7712,7 +7983,7 @@
       <c r="R338" s="13"/>
       <c r="S338" s="13"/>
     </row>
-    <row r="339" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B339" s="1"/>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
@@ -7732,7 +8003,7 @@
       <c r="R339" s="13"/>
       <c r="S339" s="13"/>
     </row>
-    <row r="340" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B340" s="1"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
@@ -7752,7 +8023,7 @@
       <c r="R340" s="13"/>
       <c r="S340" s="13"/>
     </row>
-    <row r="341" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B341" s="1"/>
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
@@ -7772,7 +8043,7 @@
       <c r="R341" s="13"/>
       <c r="S341" s="13"/>
     </row>
-    <row r="342" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B342" s="1"/>
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
@@ -7792,7 +8063,7 @@
       <c r="R342" s="13"/>
       <c r="S342" s="13"/>
     </row>
-    <row r="343" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B343" s="1"/>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
@@ -7812,7 +8083,7 @@
       <c r="R343" s="13"/>
       <c r="S343" s="13"/>
     </row>
-    <row r="344" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B344" s="1"/>
       <c r="C344" s="11"/>
       <c r="D344" s="11"/>
@@ -7832,7 +8103,7 @@
       <c r="R344" s="13"/>
       <c r="S344" s="13"/>
     </row>
-    <row r="345" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B345" s="1"/>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
@@ -7852,7 +8123,7 @@
       <c r="R345" s="13"/>
       <c r="S345" s="13"/>
     </row>
-    <row r="346" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B346" s="1"/>
       <c r="C346" s="11"/>
       <c r="D346" s="11"/>
@@ -7872,7 +8143,7 @@
       <c r="R346" s="13"/>
       <c r="S346" s="13"/>
     </row>
-    <row r="347" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B347" s="1"/>
       <c r="C347" s="11"/>
       <c r="D347" s="11"/>
@@ -7892,7 +8163,7 @@
       <c r="R347" s="13"/>
       <c r="S347" s="13"/>
     </row>
-    <row r="348" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B348" s="1"/>
       <c r="C348" s="11"/>
       <c r="D348" s="11"/>
@@ -7912,7 +8183,7 @@
       <c r="R348" s="13"/>
       <c r="S348" s="13"/>
     </row>
-    <row r="349" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B349" s="1"/>
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
@@ -7932,7 +8203,7 @@
       <c r="R349" s="13"/>
       <c r="S349" s="13"/>
     </row>
-    <row r="350" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B350" s="1"/>
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
@@ -7952,7 +8223,7 @@
       <c r="R350" s="13"/>
       <c r="S350" s="13"/>
     </row>
-    <row r="351" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B351" s="1"/>
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
@@ -7972,7 +8243,7 @@
       <c r="R351" s="13"/>
       <c r="S351" s="13"/>
     </row>
-    <row r="352" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B352" s="1"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -7992,7 +8263,7 @@
       <c r="R352" s="13"/>
       <c r="S352" s="13"/>
     </row>
-    <row r="353" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B353" s="1"/>
       <c r="C353" s="11"/>
       <c r="D353" s="11"/>
@@ -8012,7 +8283,7 @@
       <c r="R353" s="13"/>
       <c r="S353" s="13"/>
     </row>
-    <row r="354" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="1"/>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
@@ -8032,7 +8303,7 @@
       <c r="R354" s="13"/>
       <c r="S354" s="13"/>
     </row>
-    <row r="355" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="1"/>
       <c r="C355" s="11"/>
       <c r="D355" s="11"/>
@@ -8052,7 +8323,7 @@
       <c r="R355" s="13"/>
       <c r="S355" s="13"/>
     </row>
-    <row r="356" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B356" s="1"/>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
@@ -8072,7 +8343,7 @@
       <c r="R356" s="13"/>
       <c r="S356" s="13"/>
     </row>
-    <row r="357" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B357" s="1"/>
       <c r="C357" s="11"/>
       <c r="D357" s="11"/>
@@ -8092,7 +8363,7 @@
       <c r="R357" s="13"/>
       <c r="S357" s="13"/>
     </row>
-    <row r="358" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B358" s="1"/>
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
@@ -8112,7 +8383,7 @@
       <c r="R358" s="13"/>
       <c r="S358" s="13"/>
     </row>
-    <row r="359" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B359" s="1"/>
       <c r="C359" s="11"/>
       <c r="D359" s="11"/>
@@ -8132,7 +8403,7 @@
       <c r="R359" s="13"/>
       <c r="S359" s="13"/>
     </row>
-    <row r="360" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B360" s="1"/>
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
@@ -8152,7 +8423,7 @@
       <c r="R360" s="13"/>
       <c r="S360" s="13"/>
     </row>
-    <row r="361" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B361" s="1"/>
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
@@ -8172,7 +8443,7 @@
       <c r="R361" s="13"/>
       <c r="S361" s="13"/>
     </row>
-    <row r="362" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B362" s="1"/>
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
@@ -8192,7 +8463,7 @@
       <c r="R362" s="13"/>
       <c r="S362" s="13"/>
     </row>
-    <row r="363" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B363" s="1"/>
       <c r="C363" s="11"/>
       <c r="D363" s="11"/>
@@ -8212,7 +8483,7 @@
       <c r="R363" s="13"/>
       <c r="S363" s="13"/>
     </row>
-    <row r="364" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B364" s="1"/>
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
@@ -8232,7 +8503,7 @@
       <c r="R364" s="13"/>
       <c r="S364" s="13"/>
     </row>
-    <row r="365" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B365" s="1"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
@@ -8252,7 +8523,7 @@
       <c r="R365" s="13"/>
       <c r="S365" s="13"/>
     </row>
-    <row r="366" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B366" s="1"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
@@ -8272,7 +8543,7 @@
       <c r="R366" s="13"/>
       <c r="S366" s="13"/>
     </row>
-    <row r="367" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B367" s="1"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
@@ -8292,7 +8563,7 @@
       <c r="R367" s="13"/>
       <c r="S367" s="13"/>
     </row>
-    <row r="368" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B368" s="1"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
@@ -8312,7 +8583,7 @@
       <c r="R368" s="13"/>
       <c r="S368" s="13"/>
     </row>
-    <row r="369" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B369" s="1"/>
       <c r="C369" s="11"/>
       <c r="D369" s="11"/>
@@ -8332,7 +8603,7 @@
       <c r="R369" s="13"/>
       <c r="S369" s="13"/>
     </row>
-    <row r="370" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B370" s="1"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
@@ -8352,7 +8623,7 @@
       <c r="R370" s="13"/>
       <c r="S370" s="13"/>
     </row>
-    <row r="371" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B371" s="1"/>
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
@@ -8372,7 +8643,7 @@
       <c r="R371" s="13"/>
       <c r="S371" s="13"/>
     </row>
-    <row r="372" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B372" s="1"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
@@ -8392,7 +8663,7 @@
       <c r="R372" s="13"/>
       <c r="S372" s="13"/>
     </row>
-    <row r="373" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B373" s="1"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
@@ -8412,7 +8683,7 @@
       <c r="R373" s="13"/>
       <c r="S373" s="13"/>
     </row>
-    <row r="374" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B374" s="1"/>
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
@@ -8432,7 +8703,7 @@
       <c r="R374" s="13"/>
       <c r="S374" s="13"/>
     </row>
-    <row r="375" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B375" s="1"/>
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
@@ -8452,7 +8723,7 @@
       <c r="R375" s="13"/>
       <c r="S375" s="13"/>
     </row>
-    <row r="376" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B376" s="1"/>
       <c r="C376" s="11"/>
       <c r="D376" s="11"/>
@@ -8472,7 +8743,7 @@
       <c r="R376" s="13"/>
       <c r="S376" s="13"/>
     </row>
-    <row r="377" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B377" s="1"/>
       <c r="C377" s="11"/>
       <c r="D377" s="11"/>
@@ -8492,7 +8763,7 @@
       <c r="R377" s="13"/>
       <c r="S377" s="13"/>
     </row>
-    <row r="378" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B378" s="1"/>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
@@ -8512,7 +8783,7 @@
       <c r="R378" s="13"/>
       <c r="S378" s="13"/>
     </row>
-    <row r="379" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B379" s="1"/>
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
@@ -8532,7 +8803,7 @@
       <c r="R379" s="13"/>
       <c r="S379" s="13"/>
     </row>
-    <row r="380" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B380" s="1"/>
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
@@ -8552,7 +8823,7 @@
       <c r="R380" s="13"/>
       <c r="S380" s="13"/>
     </row>
-    <row r="381" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B381" s="1"/>
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
@@ -8572,7 +8843,7 @@
       <c r="R381" s="13"/>
       <c r="S381" s="13"/>
     </row>
-    <row r="382" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B382" s="1"/>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
@@ -8592,7 +8863,7 @@
       <c r="R382" s="13"/>
       <c r="S382" s="13"/>
     </row>
-    <row r="383" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B383" s="1"/>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
@@ -8612,7 +8883,7 @@
       <c r="R383" s="13"/>
       <c r="S383" s="13"/>
     </row>
-    <row r="384" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B384" s="1"/>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
@@ -8632,7 +8903,7 @@
       <c r="R384" s="13"/>
       <c r="S384" s="13"/>
     </row>
-    <row r="385" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B385" s="1"/>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
@@ -8652,7 +8923,7 @@
       <c r="R385" s="13"/>
       <c r="S385" s="13"/>
     </row>
-    <row r="386" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B386" s="1"/>
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
@@ -8672,7 +8943,7 @@
       <c r="R386" s="13"/>
       <c r="S386" s="13"/>
     </row>
-    <row r="387" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B387" s="1"/>
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
@@ -8692,7 +8963,7 @@
       <c r="R387" s="13"/>
       <c r="S387" s="13"/>
     </row>
-    <row r="388" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B388" s="1"/>
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
@@ -8712,7 +8983,7 @@
       <c r="R388" s="13"/>
       <c r="S388" s="13"/>
     </row>
-    <row r="389" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B389" s="1"/>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
@@ -8732,7 +9003,7 @@
       <c r="R389" s="13"/>
       <c r="S389" s="13"/>
     </row>
-    <row r="390" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B390" s="1"/>
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
@@ -8752,7 +9023,7 @@
       <c r="R390" s="13"/>
       <c r="S390" s="13"/>
     </row>
-    <row r="391" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B391" s="1"/>
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
@@ -8772,7 +9043,7 @@
       <c r="R391" s="13"/>
       <c r="S391" s="13"/>
     </row>
-    <row r="392" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B392" s="1"/>
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
@@ -8792,7 +9063,7 @@
       <c r="R392" s="13"/>
       <c r="S392" s="13"/>
     </row>
-    <row r="393" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B393" s="1"/>
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
@@ -8812,7 +9083,7 @@
       <c r="R393" s="13"/>
       <c r="S393" s="13"/>
     </row>
-    <row r="394" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B394" s="1"/>
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
@@ -8832,7 +9103,7 @@
       <c r="R394" s="13"/>
       <c r="S394" s="13"/>
     </row>
-    <row r="395" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B395" s="1"/>
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
@@ -8852,7 +9123,7 @@
       <c r="R395" s="13"/>
       <c r="S395" s="13"/>
     </row>
-    <row r="396" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B396" s="1"/>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
@@ -8872,7 +9143,7 @@
       <c r="R396" s="13"/>
       <c r="S396" s="13"/>
     </row>
-    <row r="397" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B397" s="1"/>
       <c r="C397" s="11"/>
       <c r="D397" s="11"/>
@@ -8892,7 +9163,7 @@
       <c r="R397" s="13"/>
       <c r="S397" s="13"/>
     </row>
-    <row r="398" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B398" s="1"/>
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
@@ -8912,7 +9183,7 @@
       <c r="R398" s="13"/>
       <c r="S398" s="13"/>
     </row>
-    <row r="399" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B399" s="1"/>
       <c r="C399" s="11"/>
       <c r="D399" s="11"/>
@@ -8932,7 +9203,7 @@
       <c r="R399" s="13"/>
       <c r="S399" s="13"/>
     </row>
-    <row r="400" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="1"/>
       <c r="C400" s="11"/>
       <c r="D400" s="11"/>
@@ -8952,7 +9223,7 @@
       <c r="R400" s="13"/>
       <c r="S400" s="13"/>
     </row>
-    <row r="401" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="1"/>
       <c r="C401" s="11"/>
       <c r="D401" s="11"/>
@@ -8972,7 +9243,7 @@
       <c r="R401" s="13"/>
       <c r="S401" s="13"/>
     </row>
-    <row r="402" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B402" s="1"/>
       <c r="C402" s="11"/>
       <c r="D402" s="11"/>
@@ -8992,7 +9263,7 @@
       <c r="R402" s="13"/>
       <c r="S402" s="13"/>
     </row>
-    <row r="403" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B403" s="1"/>
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
@@ -9012,7 +9283,7 @@
       <c r="R403" s="13"/>
       <c r="S403" s="13"/>
     </row>
-    <row r="404" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B404" s="1"/>
       <c r="C404" s="11"/>
       <c r="D404" s="11"/>
@@ -9032,7 +9303,7 @@
       <c r="R404" s="13"/>
       <c r="S404" s="13"/>
     </row>
-    <row r="405" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B405" s="1"/>
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
@@ -9052,7 +9323,7 @@
       <c r="R405" s="13"/>
       <c r="S405" s="13"/>
     </row>
-    <row r="406" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B406" s="1"/>
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
@@ -9072,7 +9343,7 @@
       <c r="R406" s="13"/>
       <c r="S406" s="13"/>
     </row>
-    <row r="407" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B407" s="1"/>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
@@ -9092,7 +9363,7 @@
       <c r="R407" s="13"/>
       <c r="S407" s="13"/>
     </row>
-    <row r="408" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="1"/>
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
@@ -9112,7 +9383,7 @@
       <c r="R408" s="13"/>
       <c r="S408" s="13"/>
     </row>
-    <row r="409" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="1"/>
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
@@ -9132,7 +9403,7 @@
       <c r="R409" s="13"/>
       <c r="S409" s="13"/>
     </row>
-    <row r="410" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B410" s="1"/>
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
@@ -9152,7 +9423,7 @@
       <c r="R410" s="13"/>
       <c r="S410" s="13"/>
     </row>
-    <row r="411" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B411" s="1"/>
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
@@ -9172,7 +9443,7 @@
       <c r="R411" s="13"/>
       <c r="S411" s="13"/>
     </row>
-    <row r="412" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B412" s="1"/>
       <c r="C412" s="11"/>
       <c r="D412" s="11"/>
@@ -9192,7 +9463,7 @@
       <c r="R412" s="13"/>
       <c r="S412" s="13"/>
     </row>
-    <row r="413" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B413" s="1"/>
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
@@ -9212,7 +9483,7 @@
       <c r="R413" s="13"/>
       <c r="S413" s="13"/>
     </row>
-    <row r="414" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B414" s="1"/>
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
@@ -9232,7 +9503,7 @@
       <c r="R414" s="13"/>
       <c r="S414" s="13"/>
     </row>
-    <row r="415" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B415" s="1"/>
       <c r="C415" s="11"/>
       <c r="D415" s="11"/>
@@ -9252,7 +9523,7 @@
       <c r="R415" s="13"/>
       <c r="S415" s="13"/>
     </row>
-    <row r="416" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B416" s="1"/>
       <c r="C416" s="11"/>
       <c r="D416" s="11"/>
@@ -9272,7 +9543,7 @@
       <c r="R416" s="13"/>
       <c r="S416" s="13"/>
     </row>
-    <row r="417" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B417" s="1"/>
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
@@ -9292,7 +9563,7 @@
       <c r="R417" s="13"/>
       <c r="S417" s="13"/>
     </row>
-    <row r="418" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B418" s="1"/>
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
@@ -9312,7 +9583,7 @@
       <c r="R418" s="13"/>
       <c r="S418" s="13"/>
     </row>
-    <row r="419" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B419" s="1"/>
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
@@ -9332,7 +9603,7 @@
       <c r="R419" s="13"/>
       <c r="S419" s="13"/>
     </row>
-    <row r="420" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B420" s="1"/>
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
@@ -9352,7 +9623,7 @@
       <c r="R420" s="13"/>
       <c r="S420" s="13"/>
     </row>
-    <row r="421" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B421" s="1"/>
       <c r="C421" s="11"/>
       <c r="D421" s="11"/>
@@ -9372,7 +9643,7 @@
       <c r="R421" s="13"/>
       <c r="S421" s="13"/>
     </row>
-    <row r="422" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B422" s="1"/>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
@@ -9392,7 +9663,7 @@
       <c r="R422" s="13"/>
       <c r="S422" s="13"/>
     </row>
-    <row r="423" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B423" s="1"/>
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
@@ -9412,7 +9683,7 @@
       <c r="R423" s="13"/>
       <c r="S423" s="13"/>
     </row>
-    <row r="424" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B424" s="1"/>
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
@@ -9432,7 +9703,7 @@
       <c r="R424" s="13"/>
       <c r="S424" s="13"/>
     </row>
-    <row r="425" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B425" s="1"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
@@ -9452,7 +9723,7 @@
       <c r="R425" s="13"/>
       <c r="S425" s="13"/>
     </row>
-    <row r="426" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B426" s="1"/>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
@@ -9472,7 +9743,7 @@
       <c r="R426" s="13"/>
       <c r="S426" s="13"/>
     </row>
-    <row r="427" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B427" s="1"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
@@ -9492,7 +9763,7 @@
       <c r="R427" s="13"/>
       <c r="S427" s="13"/>
     </row>
-    <row r="428" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B428" s="1"/>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
@@ -9512,7 +9783,7 @@
       <c r="R428" s="13"/>
       <c r="S428" s="13"/>
     </row>
-    <row r="429" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B429" s="1"/>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
@@ -9532,7 +9803,7 @@
       <c r="R429" s="13"/>
       <c r="S429" s="13"/>
     </row>
-    <row r="430" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B430" s="1"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
@@ -9552,7 +9823,7 @@
       <c r="R430" s="13"/>
       <c r="S430" s="13"/>
     </row>
-    <row r="431" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B431" s="1"/>
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
@@ -9572,7 +9843,7 @@
       <c r="R431" s="13"/>
       <c r="S431" s="13"/>
     </row>
-    <row r="432" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B432" s="1"/>
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
@@ -9592,7 +9863,7 @@
       <c r="R432" s="13"/>
       <c r="S432" s="13"/>
     </row>
-    <row r="433" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B433" s="1"/>
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
@@ -9612,7 +9883,7 @@
       <c r="R433" s="13"/>
       <c r="S433" s="13"/>
     </row>
-    <row r="434" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B434" s="1"/>
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
@@ -9632,7 +9903,7 @@
       <c r="R434" s="13"/>
       <c r="S434" s="13"/>
     </row>
-    <row r="435" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B435" s="1"/>
       <c r="C435" s="11"/>
       <c r="D435" s="11"/>
@@ -9652,7 +9923,7 @@
       <c r="R435" s="13"/>
       <c r="S435" s="13"/>
     </row>
-    <row r="436" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B436" s="1"/>
       <c r="C436" s="11"/>
       <c r="D436" s="11"/>
@@ -9672,7 +9943,7 @@
       <c r="R436" s="13"/>
       <c r="S436" s="13"/>
     </row>
-    <row r="437" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B437" s="1"/>
       <c r="C437" s="11"/>
       <c r="D437" s="11"/>
@@ -9692,7 +9963,7 @@
       <c r="R437" s="13"/>
       <c r="S437" s="13"/>
     </row>
-    <row r="438" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B438" s="1"/>
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
@@ -9712,7 +9983,7 @@
       <c r="R438" s="13"/>
       <c r="S438" s="13"/>
     </row>
-    <row r="439" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B439" s="1"/>
       <c r="C439" s="11"/>
       <c r="D439" s="11"/>
@@ -9732,7 +10003,7 @@
       <c r="R439" s="13"/>
       <c r="S439" s="13"/>
     </row>
-    <row r="440" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B440" s="1"/>
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
@@ -9752,7 +10023,7 @@
       <c r="R440" s="13"/>
       <c r="S440" s="13"/>
     </row>
-    <row r="441" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B441" s="1"/>
       <c r="C441" s="11"/>
       <c r="D441" s="11"/>
@@ -9772,7 +10043,7 @@
       <c r="R441" s="13"/>
       <c r="S441" s="13"/>
     </row>
-    <row r="442" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B442" s="1"/>
       <c r="C442" s="11"/>
       <c r="D442" s="11"/>
@@ -9792,7 +10063,7 @@
       <c r="R442" s="13"/>
       <c r="S442" s="13"/>
     </row>
-    <row r="443" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B443" s="1"/>
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
@@ -9812,7 +10083,7 @@
       <c r="R443" s="13"/>
       <c r="S443" s="13"/>
     </row>
-    <row r="444" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B444" s="1"/>
       <c r="C444" s="11"/>
       <c r="D444" s="11"/>
@@ -9832,7 +10103,7 @@
       <c r="R444" s="13"/>
       <c r="S444" s="13"/>
     </row>
-    <row r="445" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B445" s="1"/>
       <c r="C445" s="11"/>
       <c r="D445" s="11"/>
@@ -9852,7 +10123,7 @@
       <c r="R445" s="13"/>
       <c r="S445" s="13"/>
     </row>
-    <row r="446" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B446" s="1"/>
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
@@ -9872,7 +10143,7 @@
       <c r="R446" s="13"/>
       <c r="S446" s="13"/>
     </row>
-    <row r="447" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B447" s="1"/>
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
@@ -9892,7 +10163,7 @@
       <c r="R447" s="13"/>
       <c r="S447" s="13"/>
     </row>
-    <row r="448" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B448" s="1"/>
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
@@ -9912,7 +10183,7 @@
       <c r="R448" s="13"/>
       <c r="S448" s="13"/>
     </row>
-    <row r="449" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B449" s="1"/>
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
@@ -9932,7 +10203,7 @@
       <c r="R449" s="13"/>
       <c r="S449" s="13"/>
     </row>
-    <row r="450" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B450" s="1"/>
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
@@ -9952,7 +10223,7 @@
       <c r="R450" s="13"/>
       <c r="S450" s="13"/>
     </row>
-    <row r="451" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B451" s="1"/>
       <c r="C451" s="11"/>
       <c r="D451" s="11"/>
@@ -9972,7 +10243,7 @@
       <c r="R451" s="13"/>
       <c r="S451" s="13"/>
     </row>
-    <row r="452" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B452" s="1"/>
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
@@ -9992,7 +10263,7 @@
       <c r="R452" s="13"/>
       <c r="S452" s="13"/>
     </row>
-    <row r="453" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B453" s="1"/>
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
@@ -10012,7 +10283,7 @@
       <c r="R453" s="13"/>
       <c r="S453" s="13"/>
     </row>
-    <row r="454" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B454" s="1"/>
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
@@ -10032,7 +10303,7 @@
       <c r="R454" s="13"/>
       <c r="S454" s="13"/>
     </row>
-    <row r="455" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B455" s="1"/>
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
@@ -10052,7 +10323,7 @@
       <c r="R455" s="13"/>
       <c r="S455" s="13"/>
     </row>
-    <row r="456" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B456" s="1"/>
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
@@ -10072,7 +10343,7 @@
       <c r="R456" s="13"/>
       <c r="S456" s="13"/>
     </row>
-    <row r="457" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B457" s="1"/>
       <c r="C457" s="11"/>
       <c r="D457" s="11"/>
@@ -10092,7 +10363,7 @@
       <c r="R457" s="13"/>
       <c r="S457" s="13"/>
     </row>
-    <row r="458" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B458" s="1"/>
       <c r="C458" s="11"/>
       <c r="D458" s="11"/>
@@ -10112,7 +10383,7 @@
       <c r="R458" s="13"/>
       <c r="S458" s="13"/>
     </row>
-    <row r="459" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B459" s="1"/>
       <c r="C459" s="11"/>
       <c r="D459" s="11"/>
@@ -10132,7 +10403,7 @@
       <c r="R459" s="13"/>
       <c r="S459" s="13"/>
     </row>
-    <row r="460" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B460" s="1"/>
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
@@ -10152,7 +10423,7 @@
       <c r="R460" s="13"/>
       <c r="S460" s="13"/>
     </row>
-    <row r="461" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B461" s="1"/>
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
@@ -10172,7 +10443,7 @@
       <c r="R461" s="13"/>
       <c r="S461" s="13"/>
     </row>
-    <row r="462" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B462" s="1"/>
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
@@ -10192,7 +10463,7 @@
       <c r="R462" s="13"/>
       <c r="S462" s="13"/>
     </row>
-    <row r="463" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B463" s="1"/>
       <c r="C463" s="11"/>
       <c r="D463" s="11"/>
@@ -10212,7 +10483,7 @@
       <c r="R463" s="13"/>
       <c r="S463" s="13"/>
     </row>
-    <row r="464" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B464" s="1"/>
       <c r="C464" s="11"/>
       <c r="D464" s="11"/>
@@ -10232,7 +10503,7 @@
       <c r="R464" s="13"/>
       <c r="S464" s="13"/>
     </row>
-    <row r="465" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B465" s="1"/>
       <c r="C465" s="11"/>
       <c r="D465" s="11"/>
@@ -10252,7 +10523,7 @@
       <c r="R465" s="13"/>
       <c r="S465" s="13"/>
     </row>
-    <row r="466" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B466" s="1"/>
       <c r="C466" s="11"/>
       <c r="D466" s="11"/>
@@ -10272,7 +10543,7 @@
       <c r="R466" s="13"/>
       <c r="S466" s="13"/>
     </row>
-    <row r="467" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B467" s="1"/>
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
@@ -10292,7 +10563,7 @@
       <c r="R467" s="13"/>
       <c r="S467" s="13"/>
     </row>
-    <row r="468" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B468" s="1"/>
       <c r="C468" s="11"/>
       <c r="D468" s="11"/>
@@ -10312,7 +10583,7 @@
       <c r="R468" s="13"/>
       <c r="S468" s="13"/>
     </row>
-    <row r="469" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B469" s="1"/>
       <c r="C469" s="11"/>
       <c r="D469" s="11"/>
@@ -10332,7 +10603,7 @@
       <c r="R469" s="13"/>
       <c r="S469" s="13"/>
     </row>
-    <row r="470" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="1"/>
       <c r="C470" s="11"/>
       <c r="D470" s="11"/>
@@ -10352,7 +10623,7 @@
       <c r="R470" s="13"/>
       <c r="S470" s="13"/>
     </row>
-    <row r="471" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B471" s="1"/>
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
@@ -10372,7 +10643,7 @@
       <c r="R471" s="13"/>
       <c r="S471" s="13"/>
     </row>
-    <row r="472" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B472" s="1"/>
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
@@ -10392,7 +10663,7 @@
       <c r="R472" s="13"/>
       <c r="S472" s="13"/>
     </row>
-    <row r="473" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B473" s="1"/>
       <c r="C473" s="11"/>
       <c r="D473" s="11"/>
@@ -10412,7 +10683,7 @@
       <c r="R473" s="13"/>
       <c r="S473" s="13"/>
     </row>
-    <row r="474" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B474" s="1"/>
       <c r="C474" s="11"/>
       <c r="D474" s="11"/>
@@ -10432,7 +10703,7 @@
       <c r="R474" s="13"/>
       <c r="S474" s="13"/>
     </row>
-    <row r="475" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B475" s="1"/>
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
@@ -10452,7 +10723,7 @@
       <c r="R475" s="13"/>
       <c r="S475" s="13"/>
     </row>
-    <row r="476" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B476" s="1"/>
       <c r="C476" s="11"/>
       <c r="D476" s="11"/>
@@ -10472,7 +10743,7 @@
       <c r="R476" s="13"/>
       <c r="S476" s="13"/>
     </row>
-    <row r="477" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B477" s="1"/>
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
@@ -10492,7 +10763,7 @@
       <c r="R477" s="13"/>
       <c r="S477" s="13"/>
     </row>
-    <row r="478" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B478" s="1"/>
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
@@ -10512,7 +10783,7 @@
       <c r="R478" s="13"/>
       <c r="S478" s="13"/>
     </row>
-    <row r="479" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B479" s="1"/>
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
@@ -10532,7 +10803,7 @@
       <c r="R479" s="13"/>
       <c r="S479" s="13"/>
     </row>
-    <row r="480" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B480" s="1"/>
       <c r="C480" s="11"/>
       <c r="D480" s="11"/>
@@ -10552,7 +10823,7 @@
       <c r="R480" s="13"/>
       <c r="S480" s="13"/>
     </row>
-    <row r="481" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B481" s="1"/>
       <c r="C481" s="11"/>
       <c r="D481" s="11"/>
@@ -10572,7 +10843,7 @@
       <c r="R481" s="13"/>
       <c r="S481" s="13"/>
     </row>
-    <row r="482" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B482" s="1"/>
       <c r="C482" s="11"/>
       <c r="D482" s="11"/>
@@ -10592,7 +10863,7 @@
       <c r="R482" s="13"/>
       <c r="S482" s="13"/>
     </row>
-    <row r="483" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B483" s="1"/>
       <c r="C483" s="11"/>
       <c r="D483" s="11"/>
@@ -10612,7 +10883,7 @@
       <c r="R483" s="13"/>
       <c r="S483" s="13"/>
     </row>
-    <row r="484" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B484" s="1"/>
       <c r="C484" s="11"/>
       <c r="D484" s="11"/>
@@ -10632,7 +10903,7 @@
       <c r="R484" s="13"/>
       <c r="S484" s="13"/>
     </row>
-    <row r="485" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B485" s="1"/>
       <c r="C485" s="11"/>
       <c r="D485" s="11"/>
@@ -10652,7 +10923,7 @@
       <c r="R485" s="13"/>
       <c r="S485" s="13"/>
     </row>
-    <row r="486" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B486" s="1"/>
       <c r="C486" s="11"/>
       <c r="D486" s="11"/>
@@ -10672,7 +10943,7 @@
       <c r="R486" s="13"/>
       <c r="S486" s="13"/>
     </row>
-    <row r="487" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B487" s="1"/>
       <c r="C487" s="11"/>
       <c r="D487" s="11"/>
@@ -10692,7 +10963,7 @@
       <c r="R487" s="13"/>
       <c r="S487" s="13"/>
     </row>
-    <row r="488" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B488" s="1"/>
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
@@ -10712,7 +10983,7 @@
       <c r="R488" s="13"/>
       <c r="S488" s="13"/>
     </row>
-    <row r="489" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B489" s="1"/>
       <c r="C489" s="11"/>
       <c r="D489" s="11"/>
@@ -10732,7 +11003,7 @@
       <c r="R489" s="13"/>
       <c r="S489" s="13"/>
     </row>
-    <row r="490" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B490" s="1"/>
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
@@ -10752,7 +11023,7 @@
       <c r="R490" s="13"/>
       <c r="S490" s="13"/>
     </row>
-    <row r="491" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B491" s="1"/>
       <c r="C491" s="11"/>
       <c r="D491" s="11"/>
@@ -10772,7 +11043,7 @@
       <c r="R491" s="13"/>
       <c r="S491" s="13"/>
     </row>
-    <row r="492" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B492" s="1"/>
       <c r="C492" s="11"/>
       <c r="D492" s="11"/>
@@ -10792,7 +11063,7 @@
       <c r="R492" s="13"/>
       <c r="S492" s="13"/>
     </row>
-    <row r="493" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B493" s="1"/>
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
@@ -10812,7 +11083,7 @@
       <c r="R493" s="13"/>
       <c r="S493" s="13"/>
     </row>
-    <row r="494" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B494" s="1"/>
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
@@ -10832,7 +11103,7 @@
       <c r="R494" s="13"/>
       <c r="S494" s="13"/>
     </row>
-    <row r="495" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B495" s="1"/>
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
@@ -10852,7 +11123,7 @@
       <c r="R495" s="13"/>
       <c r="S495" s="13"/>
     </row>
-    <row r="496" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B496" s="1"/>
       <c r="C496" s="11"/>
       <c r="D496" s="11"/>
@@ -10872,7 +11143,7 @@
       <c r="R496" s="13"/>
       <c r="S496" s="13"/>
     </row>
-    <row r="497" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B497" s="1"/>
       <c r="C497" s="11"/>
       <c r="D497" s="11"/>
@@ -10892,7 +11163,7 @@
       <c r="R497" s="13"/>
       <c r="S497" s="13"/>
     </row>
-    <row r="498" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B498" s="1"/>
       <c r="C498" s="11"/>
       <c r="D498" s="11"/>
@@ -10912,7 +11183,7 @@
       <c r="R498" s="13"/>
       <c r="S498" s="13"/>
     </row>
-    <row r="499" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B499" s="1"/>
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
@@ -10932,7 +11203,7 @@
       <c r="R499" s="13"/>
       <c r="S499" s="13"/>
     </row>
-    <row r="500" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B500" s="1"/>
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
@@ -10952,7 +11223,7 @@
       <c r="R500" s="13"/>
       <c r="S500" s="13"/>
     </row>
-    <row r="501" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B501" s="1"/>
       <c r="C501" s="11"/>
       <c r="D501" s="11"/>
@@ -10972,7 +11243,7 @@
       <c r="R501" s="13"/>
       <c r="S501" s="13"/>
     </row>
-    <row r="502" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B502" s="1"/>
       <c r="C502" s="11"/>
       <c r="D502" s="11"/>
@@ -10992,7 +11263,7 @@
       <c r="R502" s="13"/>
       <c r="S502" s="13"/>
     </row>
-    <row r="503" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B503" s="1"/>
       <c r="C503" s="11"/>
       <c r="D503" s="11"/>
@@ -11012,7 +11283,7 @@
       <c r="R503" s="13"/>
       <c r="S503" s="13"/>
     </row>
-    <row r="504" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B504" s="1"/>
       <c r="C504" s="11"/>
       <c r="D504" s="11"/>
@@ -11032,7 +11303,7 @@
       <c r="R504" s="13"/>
       <c r="S504" s="13"/>
     </row>
-    <row r="505" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B505" s="1"/>
       <c r="C505" s="11"/>
       <c r="D505" s="11"/>
@@ -11052,7 +11323,7 @@
       <c r="R505" s="13"/>
       <c r="S505" s="13"/>
     </row>
-    <row r="506" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B506" s="1"/>
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
@@ -11072,7 +11343,7 @@
       <c r="R506" s="13"/>
       <c r="S506" s="13"/>
     </row>
-    <row r="507" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B507" s="1"/>
       <c r="C507" s="11"/>
       <c r="D507" s="11"/>
@@ -11092,7 +11363,7 @@
       <c r="R507" s="13"/>
       <c r="S507" s="13"/>
     </row>
-    <row r="508" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B508" s="1"/>
       <c r="C508" s="11"/>
       <c r="D508" s="11"/>
@@ -11112,7 +11383,7 @@
       <c r="R508" s="13"/>
       <c r="S508" s="13"/>
     </row>
-    <row r="509" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B509" s="1"/>
       <c r="C509" s="11"/>
       <c r="D509" s="11"/>
@@ -11132,7 +11403,7 @@
       <c r="R509" s="13"/>
       <c r="S509" s="13"/>
     </row>
-    <row r="510" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B510" s="1"/>
       <c r="C510" s="11"/>
       <c r="D510" s="11"/>
@@ -11152,7 +11423,7 @@
       <c r="R510" s="13"/>
       <c r="S510" s="13"/>
     </row>
-    <row r="511" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="1"/>
       <c r="C511" s="11"/>
       <c r="D511" s="11"/>
@@ -11172,7 +11443,7 @@
       <c r="R511" s="13"/>
       <c r="S511" s="13"/>
     </row>
-    <row r="512" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B512" s="1"/>
       <c r="C512" s="11"/>
       <c r="D512" s="11"/>
@@ -11192,7 +11463,7 @@
       <c r="R512" s="13"/>
       <c r="S512" s="13"/>
     </row>
-    <row r="513" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B513" s="1"/>
       <c r="C513" s="11"/>
       <c r="D513" s="11"/>
@@ -11212,7 +11483,7 @@
       <c r="R513" s="13"/>
       <c r="S513" s="13"/>
     </row>
-    <row r="514" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B514" s="1"/>
       <c r="C514" s="11"/>
       <c r="D514" s="11"/>
@@ -11232,7 +11503,7 @@
       <c r="R514" s="13"/>
       <c r="S514" s="13"/>
     </row>
-    <row r="515" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B515" s="1"/>
       <c r="C515" s="11"/>
       <c r="D515" s="11"/>
@@ -11252,7 +11523,7 @@
       <c r="R515" s="13"/>
       <c r="S515" s="13"/>
     </row>
-    <row r="516" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B516" s="1"/>
       <c r="C516" s="11"/>
       <c r="D516" s="11"/>
@@ -11272,7 +11543,7 @@
       <c r="R516" s="13"/>
       <c r="S516" s="13"/>
     </row>
-    <row r="517" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B517" s="1"/>
       <c r="C517" s="11"/>
       <c r="D517" s="11"/>
@@ -11292,7 +11563,7 @@
       <c r="R517" s="13"/>
       <c r="S517" s="13"/>
     </row>
-    <row r="518" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B518" s="1"/>
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
@@ -11312,7 +11583,7 @@
       <c r="R518" s="13"/>
       <c r="S518" s="13"/>
     </row>
-    <row r="519" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B519" s="1"/>
       <c r="C519" s="11"/>
       <c r="D519" s="11"/>
@@ -11332,7 +11603,7 @@
       <c r="R519" s="13"/>
       <c r="S519" s="13"/>
     </row>
-    <row r="520" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B520" s="1"/>
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
@@ -11352,7 +11623,7 @@
       <c r="R520" s="13"/>
       <c r="S520" s="13"/>
     </row>
-    <row r="521" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B521" s="1"/>
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
@@ -11372,7 +11643,7 @@
       <c r="R521" s="13"/>
       <c r="S521" s="13"/>
     </row>
-    <row r="522" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B522" s="1"/>
       <c r="C522" s="11"/>
       <c r="D522" s="11"/>
@@ -11392,7 +11663,7 @@
       <c r="R522" s="13"/>
       <c r="S522" s="13"/>
     </row>
-    <row r="523" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B523" s="1"/>
       <c r="C523" s="11"/>
       <c r="D523" s="11"/>
@@ -11412,7 +11683,7 @@
       <c r="R523" s="13"/>
       <c r="S523" s="13"/>
     </row>
-    <row r="524" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B524" s="1"/>
       <c r="C524" s="11"/>
       <c r="D524" s="11"/>
@@ -11432,7 +11703,7 @@
       <c r="R524" s="13"/>
       <c r="S524" s="13"/>
     </row>
-    <row r="525" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B525" s="1"/>
       <c r="C525" s="11"/>
       <c r="D525" s="11"/>
@@ -11452,7 +11723,7 @@
       <c r="R525" s="13"/>
       <c r="S525" s="13"/>
     </row>
-    <row r="526" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B526" s="1"/>
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
@@ -11472,7 +11743,7 @@
       <c r="R526" s="13"/>
       <c r="S526" s="13"/>
     </row>
-    <row r="527" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B527" s="1"/>
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
@@ -11492,7 +11763,7 @@
       <c r="R527" s="13"/>
       <c r="S527" s="13"/>
     </row>
-    <row r="528" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B528" s="1"/>
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
@@ -11512,7 +11783,7 @@
       <c r="R528" s="13"/>
       <c r="S528" s="13"/>
     </row>
-    <row r="529" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B529" s="1"/>
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
@@ -11532,7 +11803,7 @@
       <c r="R529" s="13"/>
       <c r="S529" s="13"/>
     </row>
-    <row r="530" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B530" s="1"/>
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
@@ -11552,7 +11823,7 @@
       <c r="R530" s="13"/>
       <c r="S530" s="13"/>
     </row>
-    <row r="531" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B531" s="1"/>
       <c r="C531" s="11"/>
       <c r="D531" s="11"/>
@@ -11572,7 +11843,7 @@
       <c r="R531" s="13"/>
       <c r="S531" s="13"/>
     </row>
-    <row r="532" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B532" s="1"/>
       <c r="C532" s="11"/>
       <c r="D532" s="11"/>
@@ -11592,7 +11863,7 @@
       <c r="R532" s="13"/>
       <c r="S532" s="13"/>
     </row>
-    <row r="533" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B533" s="1"/>
       <c r="C533" s="11"/>
       <c r="D533" s="11"/>
@@ -11612,7 +11883,7 @@
       <c r="R533" s="13"/>
       <c r="S533" s="13"/>
     </row>
-    <row r="534" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B534" s="1"/>
       <c r="C534" s="11"/>
       <c r="D534" s="11"/>
@@ -11632,7 +11903,7 @@
       <c r="R534" s="13"/>
       <c r="S534" s="13"/>
     </row>
-    <row r="535" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B535" s="1"/>
       <c r="C535" s="11"/>
       <c r="D535" s="11"/>
@@ -11652,7 +11923,7 @@
       <c r="R535" s="13"/>
       <c r="S535" s="13"/>
     </row>
-    <row r="536" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B536" s="1"/>
       <c r="C536" s="11"/>
       <c r="D536" s="11"/>
@@ -11672,7 +11943,7 @@
       <c r="R536" s="13"/>
       <c r="S536" s="13"/>
     </row>
-    <row r="537" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B537" s="1"/>
       <c r="C537" s="11"/>
       <c r="D537" s="11"/>
@@ -11692,7 +11963,7 @@
       <c r="R537" s="13"/>
       <c r="S537" s="13"/>
     </row>
-    <row r="538" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B538" s="1"/>
       <c r="C538" s="11"/>
       <c r="D538" s="11"/>
@@ -11712,7 +11983,7 @@
       <c r="R538" s="13"/>
       <c r="S538" s="13"/>
     </row>
-    <row r="539" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B539" s="1"/>
       <c r="C539" s="11"/>
       <c r="D539" s="11"/>
@@ -11732,7 +12003,7 @@
       <c r="R539" s="13"/>
       <c r="S539" s="13"/>
     </row>
-    <row r="540" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B540" s="1"/>
       <c r="C540" s="11"/>
       <c r="D540" s="11"/>
@@ -11752,7 +12023,7 @@
       <c r="R540" s="13"/>
       <c r="S540" s="13"/>
     </row>
-    <row r="541" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B541" s="1"/>
       <c r="C541" s="11"/>
       <c r="D541" s="11"/>
@@ -11772,7 +12043,7 @@
       <c r="R541" s="13"/>
       <c r="S541" s="13"/>
     </row>
-    <row r="542" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B542" s="1"/>
       <c r="C542" s="11"/>
       <c r="D542" s="11"/>
@@ -11792,7 +12063,7 @@
       <c r="R542" s="13"/>
       <c r="S542" s="13"/>
     </row>
-    <row r="543" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B543" s="1"/>
       <c r="C543" s="11"/>
       <c r="D543" s="11"/>
@@ -11812,7 +12083,7 @@
       <c r="R543" s="13"/>
       <c r="S543" s="13"/>
     </row>
-    <row r="544" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B544" s="1"/>
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
@@ -11832,7 +12103,7 @@
       <c r="R544" s="13"/>
       <c r="S544" s="13"/>
     </row>
-    <row r="545" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B545" s="1"/>
       <c r="C545" s="11"/>
       <c r="D545" s="11"/>
@@ -11852,7 +12123,7 @@
       <c r="R545" s="13"/>
       <c r="S545" s="13"/>
     </row>
-    <row r="546" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B546" s="1"/>
       <c r="C546" s="11"/>
       <c r="D546" s="11"/>
@@ -11872,7 +12143,7 @@
       <c r="R546" s="13"/>
       <c r="S546" s="13"/>
     </row>
-    <row r="547" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B547" s="1"/>
       <c r="C547" s="11"/>
       <c r="D547" s="11"/>
@@ -11892,7 +12163,7 @@
       <c r="R547" s="13"/>
       <c r="S547" s="13"/>
     </row>
-    <row r="548" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B548" s="1"/>
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
@@ -11912,7 +12183,7 @@
       <c r="R548" s="13"/>
       <c r="S548" s="13"/>
     </row>
-    <row r="549" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B549" s="1"/>
       <c r="C549" s="11"/>
       <c r="D549" s="11"/>
@@ -11932,7 +12203,7 @@
       <c r="R549" s="13"/>
       <c r="S549" s="13"/>
     </row>
-    <row r="550" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B550" s="1"/>
       <c r="C550" s="11"/>
       <c r="D550" s="11"/>
@@ -11952,7 +12223,7 @@
       <c r="R550" s="13"/>
       <c r="S550" s="13"/>
     </row>
-    <row r="551" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B551" s="1"/>
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
@@ -11972,7 +12243,7 @@
       <c r="R551" s="13"/>
       <c r="S551" s="13"/>
     </row>
-    <row r="552" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B552" s="1"/>
       <c r="C552" s="11"/>
       <c r="D552" s="11"/>
@@ -11992,7 +12263,7 @@
       <c r="R552" s="13"/>
       <c r="S552" s="13"/>
     </row>
-    <row r="553" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B553" s="1"/>
       <c r="C553" s="11"/>
       <c r="D553" s="11"/>
@@ -12012,7 +12283,7 @@
       <c r="R553" s="13"/>
       <c r="S553" s="13"/>
     </row>
-    <row r="554" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B554" s="1"/>
       <c r="C554" s="11"/>
       <c r="D554" s="11"/>
@@ -12032,7 +12303,7 @@
       <c r="R554" s="13"/>
       <c r="S554" s="13"/>
     </row>
-    <row r="555" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B555" s="1"/>
       <c r="C555" s="11"/>
       <c r="D555" s="11"/>
@@ -12052,7 +12323,7 @@
       <c r="R555" s="13"/>
       <c r="S555" s="13"/>
     </row>
-    <row r="556" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B556" s="1"/>
       <c r="C556" s="11"/>
       <c r="D556" s="11"/>
@@ -12072,7 +12343,7 @@
       <c r="R556" s="13"/>
       <c r="S556" s="13"/>
     </row>
-    <row r="557" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B557" s="1"/>
       <c r="C557" s="11"/>
       <c r="D557" s="11"/>
@@ -12092,7 +12363,7 @@
       <c r="R557" s="13"/>
       <c r="S557" s="13"/>
     </row>
-    <row r="558" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B558" s="1"/>
       <c r="C558" s="11"/>
       <c r="D558" s="11"/>
@@ -12112,7 +12383,7 @@
       <c r="R558" s="13"/>
       <c r="S558" s="13"/>
     </row>
-    <row r="559" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B559" s="1"/>
       <c r="C559" s="11"/>
       <c r="D559" s="11"/>
@@ -12132,7 +12403,7 @@
       <c r="R559" s="13"/>
       <c r="S559" s="13"/>
     </row>
-    <row r="560" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B560" s="1"/>
       <c r="C560" s="11"/>
       <c r="D560" s="11"/>
@@ -12152,7 +12423,7 @@
       <c r="R560" s="13"/>
       <c r="S560" s="13"/>
     </row>
-    <row r="561" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B561" s="1"/>
       <c r="C561" s="11"/>
       <c r="D561" s="11"/>
@@ -12172,7 +12443,7 @@
       <c r="R561" s="13"/>
       <c r="S561" s="13"/>
     </row>
-    <row r="562" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B562" s="1"/>
       <c r="C562" s="11"/>
       <c r="D562" s="11"/>
@@ -12192,7 +12463,7 @@
       <c r="R562" s="13"/>
       <c r="S562" s="13"/>
     </row>
-    <row r="563" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B563" s="1"/>
       <c r="C563" s="11"/>
       <c r="D563" s="11"/>
@@ -12212,7 +12483,7 @@
       <c r="R563" s="13"/>
       <c r="S563" s="13"/>
     </row>
-    <row r="564" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B564" s="1"/>
       <c r="C564" s="11"/>
       <c r="D564" s="11"/>
@@ -12232,7 +12503,7 @@
       <c r="R564" s="13"/>
       <c r="S564" s="13"/>
     </row>
-    <row r="565" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B565" s="1"/>
       <c r="C565" s="11"/>
       <c r="D565" s="11"/>
@@ -12252,7 +12523,7 @@
       <c r="R565" s="13"/>
       <c r="S565" s="13"/>
     </row>
-    <row r="566" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B566" s="1"/>
       <c r="C566" s="11"/>
       <c r="D566" s="11"/>
@@ -12272,7 +12543,7 @@
       <c r="R566" s="13"/>
       <c r="S566" s="13"/>
     </row>
-    <row r="567" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B567" s="1"/>
       <c r="C567" s="11"/>
       <c r="D567" s="11"/>
@@ -12292,7 +12563,7 @@
       <c r="R567" s="13"/>
       <c r="S567" s="13"/>
     </row>
-    <row r="568" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B568" s="1"/>
       <c r="C568" s="11"/>
       <c r="D568" s="11"/>
@@ -12312,7 +12583,7 @@
       <c r="R568" s="13"/>
       <c r="S568" s="13"/>
     </row>
-    <row r="569" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B569" s="1"/>
       <c r="C569" s="11"/>
       <c r="D569" s="11"/>
@@ -12332,7 +12603,7 @@
       <c r="R569" s="13"/>
       <c r="S569" s="13"/>
     </row>
-    <row r="570" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B570" s="1"/>
       <c r="C570" s="11"/>
       <c r="D570" s="11"/>
@@ -12352,7 +12623,7 @@
       <c r="R570" s="13"/>
       <c r="S570" s="13"/>
     </row>
-    <row r="571" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B571" s="1"/>
       <c r="C571" s="11"/>
       <c r="D571" s="11"/>
@@ -12372,7 +12643,7 @@
       <c r="R571" s="13"/>
       <c r="S571" s="13"/>
     </row>
-    <row r="572" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B572" s="1"/>
       <c r="C572" s="11"/>
       <c r="D572" s="11"/>
@@ -12392,7 +12663,7 @@
       <c r="R572" s="13"/>
       <c r="S572" s="13"/>
     </row>
-    <row r="573" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B573" s="1"/>
       <c r="C573" s="11"/>
       <c r="D573" s="11"/>
@@ -12412,7 +12683,7 @@
       <c r="R573" s="13"/>
       <c r="S573" s="13"/>
     </row>
-    <row r="574" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B574" s="1"/>
       <c r="C574" s="11"/>
       <c r="D574" s="11"/>
@@ -12432,7 +12703,7 @@
       <c r="R574" s="13"/>
       <c r="S574" s="13"/>
     </row>
-    <row r="575" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B575" s="1"/>
       <c r="C575" s="11"/>
       <c r="D575" s="11"/>
@@ -12452,7 +12723,7 @@
       <c r="R575" s="13"/>
       <c r="S575" s="13"/>
     </row>
-    <row r="576" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B576" s="1"/>
       <c r="C576" s="11"/>
       <c r="D576" s="11"/>
@@ -12472,7 +12743,7 @@
       <c r="R576" s="13"/>
       <c r="S576" s="13"/>
     </row>
-    <row r="577" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B577" s="1"/>
       <c r="C577" s="11"/>
       <c r="D577" s="11"/>
@@ -12492,7 +12763,7 @@
       <c r="R577" s="13"/>
       <c r="S577" s="13"/>
     </row>
-    <row r="578" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B578" s="1"/>
       <c r="C578" s="11"/>
       <c r="D578" s="11"/>
@@ -12512,7 +12783,7 @@
       <c r="R578" s="13"/>
       <c r="S578" s="13"/>
     </row>
-    <row r="579" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B579" s="1"/>
       <c r="C579" s="11"/>
       <c r="D579" s="11"/>
@@ -12532,7 +12803,7 @@
       <c r="R579" s="13"/>
       <c r="S579" s="13"/>
     </row>
-    <row r="580" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B580" s="1"/>
       <c r="C580" s="11"/>
       <c r="D580" s="11"/>
@@ -12552,7 +12823,7 @@
       <c r="R580" s="13"/>
       <c r="S580" s="13"/>
     </row>
-    <row r="581" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B581" s="1"/>
       <c r="C581" s="11"/>
       <c r="D581" s="11"/>
@@ -12572,7 +12843,7 @@
       <c r="R581" s="13"/>
       <c r="S581" s="13"/>
     </row>
-    <row r="582" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B582" s="1"/>
       <c r="C582" s="11"/>
       <c r="D582" s="11"/>
@@ -12592,7 +12863,7 @@
       <c r="R582" s="13"/>
       <c r="S582" s="13"/>
     </row>
-    <row r="583" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B583" s="1"/>
       <c r="C583" s="11"/>
       <c r="D583" s="11"/>
@@ -12612,7 +12883,7 @@
       <c r="R583" s="13"/>
       <c r="S583" s="13"/>
     </row>
-    <row r="584" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B584" s="1"/>
       <c r="C584" s="11"/>
       <c r="D584" s="11"/>
@@ -12632,7 +12903,7 @@
       <c r="R584" s="13"/>
       <c r="S584" s="13"/>
     </row>
-    <row r="585" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B585" s="1"/>
       <c r="C585" s="11"/>
       <c r="D585" s="11"/>
@@ -12652,7 +12923,7 @@
       <c r="R585" s="13"/>
       <c r="S585" s="13"/>
     </row>
-    <row r="586" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B586" s="1"/>
       <c r="C586" s="11"/>
       <c r="D586" s="11"/>
@@ -12672,7 +12943,7 @@
       <c r="R586" s="13"/>
       <c r="S586" s="13"/>
     </row>
-    <row r="587" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B587" s="1"/>
       <c r="C587" s="11"/>
       <c r="D587" s="11"/>
@@ -12692,7 +12963,7 @@
       <c r="R587" s="13"/>
       <c r="S587" s="13"/>
     </row>
-    <row r="588" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B588" s="1"/>
       <c r="C588" s="11"/>
       <c r="D588" s="11"/>
@@ -12712,7 +12983,7 @@
       <c r="R588" s="13"/>
       <c r="S588" s="13"/>
     </row>
-    <row r="589" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B589" s="1"/>
       <c r="C589" s="11"/>
       <c r="D589" s="11"/>
@@ -12732,7 +13003,7 @@
       <c r="R589" s="13"/>
       <c r="S589" s="13"/>
     </row>
-    <row r="590" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B590" s="1"/>
       <c r="C590" s="11"/>
       <c r="D590" s="11"/>
@@ -12752,7 +13023,7 @@
       <c r="R590" s="13"/>
       <c r="S590" s="13"/>
     </row>
-    <row r="591" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B591" s="1"/>
       <c r="C591" s="11"/>
       <c r="D591" s="11"/>
@@ -12772,7 +13043,7 @@
       <c r="R591" s="13"/>
       <c r="S591" s="13"/>
     </row>
-    <row r="592" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B592" s="1"/>
       <c r="C592" s="11"/>
       <c r="D592" s="11"/>
@@ -12792,7 +13063,7 @@
       <c r="R592" s="13"/>
       <c r="S592" s="13"/>
     </row>
-    <row r="593" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B593" s="1"/>
       <c r="C593" s="11"/>
       <c r="D593" s="11"/>
@@ -12812,7 +13083,7 @@
       <c r="R593" s="13"/>
       <c r="S593" s="13"/>
     </row>
-    <row r="594" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B594" s="1"/>
       <c r="C594" s="11"/>
       <c r="D594" s="11"/>
@@ -12832,7 +13103,7 @@
       <c r="R594" s="13"/>
       <c r="S594" s="13"/>
     </row>
-    <row r="595" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B595" s="1"/>
       <c r="C595" s="11"/>
       <c r="D595" s="11"/>
@@ -12852,7 +13123,7 @@
       <c r="R595" s="13"/>
       <c r="S595" s="13"/>
     </row>
-    <row r="596" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B596" s="1"/>
       <c r="C596" s="11"/>
       <c r="D596" s="11"/>
@@ -12872,7 +13143,7 @@
       <c r="R596" s="13"/>
       <c r="S596" s="13"/>
     </row>
-    <row r="597" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B597" s="1"/>
       <c r="C597" s="11"/>
       <c r="D597" s="11"/>
@@ -12892,7 +13163,7 @@
       <c r="R597" s="13"/>
       <c r="S597" s="13"/>
     </row>
-    <row r="598" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B598" s="1"/>
       <c r="C598" s="11"/>
       <c r="D598" s="11"/>
@@ -12912,7 +13183,7 @@
       <c r="R598" s="13"/>
       <c r="S598" s="13"/>
     </row>
-    <row r="599" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B599" s="1"/>
       <c r="C599" s="11"/>
       <c r="D599" s="11"/>
@@ -12932,7 +13203,7 @@
       <c r="R599" s="13"/>
       <c r="S599" s="13"/>
     </row>
-    <row r="600" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B600" s="1"/>
       <c r="C600" s="11"/>
       <c r="D600" s="11"/>
@@ -12952,7 +13223,7 @@
       <c r="R600" s="13"/>
       <c r="S600" s="13"/>
     </row>
-    <row r="601" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B601" s="1"/>
       <c r="C601" s="11"/>
       <c r="D601" s="11"/>
@@ -12972,7 +13243,7 @@
       <c r="R601" s="13"/>
       <c r="S601" s="13"/>
     </row>
-    <row r="602" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B602" s="1"/>
       <c r="C602" s="11"/>
       <c r="D602" s="11"/>
@@ -12992,7 +13263,7 @@
       <c r="R602" s="13"/>
       <c r="S602" s="13"/>
     </row>
-    <row r="603" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B603" s="1"/>
       <c r="C603" s="11"/>
       <c r="D603" s="11"/>
@@ -13012,7 +13283,7 @@
       <c r="R603" s="13"/>
       <c r="S603" s="13"/>
     </row>
-    <row r="604" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B604" s="1"/>
       <c r="C604" s="11"/>
       <c r="D604" s="11"/>
@@ -13032,7 +13303,7 @@
       <c r="R604" s="13"/>
       <c r="S604" s="13"/>
     </row>
-    <row r="605" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B605" s="1"/>
       <c r="C605" s="11"/>
       <c r="D605" s="11"/>
@@ -13052,7 +13323,7 @@
       <c r="R605" s="13"/>
       <c r="S605" s="13"/>
     </row>
-    <row r="606" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B606" s="1"/>
       <c r="C606" s="11"/>
       <c r="D606" s="11"/>
@@ -13072,7 +13343,7 @@
       <c r="R606" s="13"/>
       <c r="S606" s="13"/>
     </row>
-    <row r="607" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B607" s="1"/>
       <c r="C607" s="11"/>
       <c r="D607" s="11"/>
@@ -13092,7 +13363,7 @@
       <c r="R607" s="13"/>
       <c r="S607" s="13"/>
     </row>
-    <row r="608" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B608" s="1"/>
       <c r="C608" s="11"/>
       <c r="D608" s="11"/>
@@ -13112,7 +13383,7 @@
       <c r="R608" s="13"/>
       <c r="S608" s="13"/>
     </row>
-    <row r="609" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B609" s="1"/>
       <c r="C609" s="11"/>
       <c r="D609" s="11"/>
@@ -13132,7 +13403,7 @@
       <c r="R609" s="13"/>
       <c r="S609" s="13"/>
     </row>
-    <row r="610" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B610" s="1"/>
       <c r="C610" s="11"/>
       <c r="D610" s="11"/>
@@ -13152,7 +13423,7 @@
       <c r="R610" s="13"/>
       <c r="S610" s="13"/>
     </row>
-    <row r="611" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B611" s="1"/>
       <c r="C611" s="11"/>
       <c r="D611" s="11"/>
@@ -13172,7 +13443,7 @@
       <c r="R611" s="13"/>
       <c r="S611" s="13"/>
     </row>
-    <row r="612" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B612" s="1"/>
       <c r="C612" s="11"/>
       <c r="D612" s="11"/>
@@ -13192,7 +13463,7 @@
       <c r="R612" s="13"/>
       <c r="S612" s="13"/>
     </row>
-    <row r="613" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B613" s="1"/>
       <c r="C613" s="11"/>
       <c r="D613" s="11"/>
@@ -13212,7 +13483,7 @@
       <c r="R613" s="13"/>
       <c r="S613" s="13"/>
     </row>
-    <row r="614" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B614" s="1"/>
       <c r="C614" s="11"/>
       <c r="D614" s="11"/>
@@ -13232,7 +13503,7 @@
       <c r="R614" s="13"/>
       <c r="S614" s="13"/>
     </row>
-    <row r="615" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B615" s="1"/>
       <c r="C615" s="11"/>
       <c r="D615" s="11"/>
@@ -13252,7 +13523,7 @@
       <c r="R615" s="13"/>
       <c r="S615" s="13"/>
     </row>
-    <row r="616" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B616" s="1"/>
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
@@ -13272,7 +13543,7 @@
       <c r="R616" s="13"/>
       <c r="S616" s="13"/>
     </row>
-    <row r="617" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B617" s="1"/>
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
@@ -13292,7 +13563,7 @@
       <c r="R617" s="13"/>
       <c r="S617" s="13"/>
     </row>
-    <row r="618" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B618" s="1"/>
       <c r="C618" s="11"/>
       <c r="D618" s="11"/>
@@ -13312,7 +13583,7 @@
       <c r="R618" s="13"/>
       <c r="S618" s="13"/>
     </row>
-    <row r="619" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B619" s="1"/>
       <c r="C619" s="11"/>
       <c r="D619" s="11"/>
@@ -13332,7 +13603,7 @@
       <c r="R619" s="13"/>
       <c r="S619" s="13"/>
     </row>
-    <row r="620" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B620" s="1"/>
       <c r="C620" s="11"/>
       <c r="D620" s="11"/>
@@ -13352,7 +13623,7 @@
       <c r="R620" s="13"/>
       <c r="S620" s="13"/>
     </row>
-    <row r="621" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B621" s="1"/>
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
@@ -13372,7 +13643,7 @@
       <c r="R621" s="13"/>
       <c r="S621" s="13"/>
     </row>
-    <row r="622" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B622" s="1"/>
       <c r="C622" s="11"/>
       <c r="D622" s="11"/>
@@ -13392,7 +13663,7 @@
       <c r="R622" s="13"/>
       <c r="S622" s="13"/>
     </row>
-    <row r="623" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B623" s="1"/>
       <c r="C623" s="11"/>
       <c r="D623" s="11"/>
@@ -13412,7 +13683,7 @@
       <c r="R623" s="13"/>
       <c r="S623" s="13"/>
     </row>
-    <row r="624" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B624" s="1"/>
       <c r="C624" s="11"/>
       <c r="D624" s="11"/>
@@ -13432,7 +13703,7 @@
       <c r="R624" s="13"/>
       <c r="S624" s="13"/>
     </row>
-    <row r="625" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B625" s="1"/>
       <c r="C625" s="11"/>
       <c r="D625" s="11"/>
@@ -13452,7 +13723,7 @@
       <c r="R625" s="13"/>
       <c r="S625" s="13"/>
     </row>
-    <row r="626" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B626" s="1"/>
       <c r="C626" s="11"/>
       <c r="D626" s="11"/>
@@ -13472,7 +13743,7 @@
       <c r="R626" s="13"/>
       <c r="S626" s="13"/>
     </row>
-    <row r="627" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B627" s="1"/>
       <c r="C627" s="11"/>
       <c r="D627" s="11"/>
@@ -13492,7 +13763,7 @@
       <c r="R627" s="13"/>
       <c r="S627" s="13"/>
     </row>
-    <row r="628" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B628" s="1"/>
       <c r="C628" s="11"/>
       <c r="D628" s="11"/>
@@ -13512,7 +13783,7 @@
       <c r="R628" s="13"/>
       <c r="S628" s="13"/>
     </row>
-    <row r="629" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B629" s="1"/>
       <c r="C629" s="11"/>
       <c r="D629" s="11"/>
@@ -13532,7 +13803,7 @@
       <c r="R629" s="13"/>
       <c r="S629" s="13"/>
     </row>
-    <row r="630" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B630" s="1"/>
       <c r="C630" s="11"/>
       <c r="D630" s="11"/>
@@ -13552,7 +13823,7 @@
       <c r="R630" s="13"/>
       <c r="S630" s="13"/>
     </row>
-    <row r="631" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B631" s="1"/>
       <c r="C631" s="11"/>
       <c r="D631" s="11"/>
@@ -13572,7 +13843,7 @@
       <c r="R631" s="13"/>
       <c r="S631" s="13"/>
     </row>
-    <row r="632" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B632" s="1"/>
       <c r="C632" s="11"/>
       <c r="D632" s="11"/>
@@ -13592,7 +13863,7 @@
       <c r="R632" s="13"/>
       <c r="S632" s="13"/>
     </row>
-    <row r="633" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B633" s="1"/>
       <c r="C633" s="11"/>
       <c r="D633" s="11"/>
@@ -13612,7 +13883,7 @@
       <c r="R633" s="13"/>
       <c r="S633" s="13"/>
     </row>
-    <row r="634" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B634" s="1"/>
       <c r="C634" s="11"/>
       <c r="D634" s="11"/>
@@ -13632,7 +13903,7 @@
       <c r="R634" s="13"/>
       <c r="S634" s="13"/>
     </row>
-    <row r="635" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B635" s="1"/>
       <c r="C635" s="11"/>
       <c r="D635" s="11"/>
@@ -13652,7 +13923,7 @@
       <c r="R635" s="13"/>
       <c r="S635" s="13"/>
     </row>
-    <row r="636" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B636" s="1"/>
       <c r="C636" s="11"/>
       <c r="D636" s="11"/>
@@ -13672,7 +13943,7 @@
       <c r="R636" s="13"/>
       <c r="S636" s="13"/>
     </row>
-    <row r="637" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B637" s="1"/>
       <c r="C637" s="11"/>
       <c r="D637" s="11"/>
@@ -13692,7 +13963,7 @@
       <c r="R637" s="13"/>
       <c r="S637" s="13"/>
     </row>
-    <row r="638" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B638" s="1"/>
       <c r="C638" s="11"/>
       <c r="D638" s="11"/>
@@ -13712,7 +13983,7 @@
       <c r="R638" s="13"/>
       <c r="S638" s="13"/>
     </row>
-    <row r="639" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B639" s="1"/>
       <c r="C639" s="11"/>
       <c r="D639" s="11"/>
@@ -13732,7 +14003,7 @@
       <c r="R639" s="13"/>
       <c r="S639" s="13"/>
     </row>
-    <row r="640" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B640" s="1"/>
       <c r="C640" s="11"/>
       <c r="D640" s="11"/>
@@ -13752,7 +14023,7 @@
       <c r="R640" s="13"/>
       <c r="S640" s="13"/>
     </row>
-    <row r="641" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B641" s="1"/>
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
@@ -13772,7 +14043,7 @@
       <c r="R641" s="13"/>
       <c r="S641" s="13"/>
     </row>
-    <row r="642" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B642" s="1"/>
       <c r="C642" s="11"/>
       <c r="D642" s="11"/>
@@ -13792,7 +14063,7 @@
       <c r="R642" s="13"/>
       <c r="S642" s="13"/>
     </row>
-    <row r="643" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B643" s="1"/>
       <c r="C643" s="11"/>
       <c r="D643" s="11"/>
@@ -13812,7 +14083,7 @@
       <c r="R643" s="13"/>
       <c r="S643" s="13"/>
     </row>
-    <row r="644" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B644" s="1"/>
       <c r="C644" s="11"/>
       <c r="D644" s="11"/>
@@ -13832,7 +14103,7 @@
       <c r="R644" s="13"/>
       <c r="S644" s="13"/>
     </row>
-    <row r="645" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B645" s="1"/>
       <c r="C645" s="11"/>
       <c r="D645" s="11"/>
@@ -13852,7 +14123,7 @@
       <c r="R645" s="13"/>
       <c r="S645" s="13"/>
     </row>
-    <row r="646" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B646" s="1"/>
       <c r="C646" s="11"/>
       <c r="D646" s="11"/>
@@ -13872,7 +14143,7 @@
       <c r="R646" s="13"/>
       <c r="S646" s="13"/>
     </row>
-    <row r="647" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B647" s="1"/>
       <c r="C647" s="11"/>
       <c r="D647" s="11"/>
@@ -13892,7 +14163,7 @@
       <c r="R647" s="13"/>
       <c r="S647" s="13"/>
     </row>
-    <row r="648" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B648" s="1"/>
       <c r="C648" s="11"/>
       <c r="D648" s="11"/>
@@ -13912,7 +14183,7 @@
       <c r="R648" s="13"/>
       <c r="S648" s="13"/>
     </row>
-    <row r="649" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B649" s="1"/>
       <c r="C649" s="11"/>
       <c r="D649" s="11"/>
@@ -13932,7 +14203,7 @@
       <c r="R649" s="13"/>
       <c r="S649" s="13"/>
     </row>
-    <row r="650" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B650" s="1"/>
       <c r="C650" s="11"/>
       <c r="D650" s="11"/>
@@ -13952,7 +14223,7 @@
       <c r="R650" s="13"/>
       <c r="S650" s="13"/>
     </row>
-    <row r="651" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B651" s="1"/>
       <c r="C651" s="11"/>
       <c r="D651" s="11"/>
@@ -13972,7 +14243,7 @@
       <c r="R651" s="13"/>
       <c r="S651" s="13"/>
     </row>
-    <row r="652" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B652" s="1"/>
       <c r="C652" s="11"/>
       <c r="D652" s="11"/>
@@ -13992,7 +14263,7 @@
       <c r="R652" s="13"/>
       <c r="S652" s="13"/>
     </row>
-    <row r="653" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B653" s="1"/>
       <c r="C653" s="11"/>
       <c r="D653" s="11"/>
@@ -14012,7 +14283,7 @@
       <c r="R653" s="13"/>
       <c r="S653" s="13"/>
     </row>
-    <row r="654" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B654" s="1"/>
       <c r="C654" s="11"/>
       <c r="D654" s="11"/>
@@ -14032,7 +14303,7 @@
       <c r="R654" s="13"/>
       <c r="S654" s="13"/>
     </row>
-    <row r="655" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B655" s="1"/>
       <c r="C655" s="11"/>
       <c r="D655" s="11"/>
@@ -14052,7 +14323,7 @@
       <c r="R655" s="13"/>
       <c r="S655" s="13"/>
     </row>
-    <row r="656" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B656" s="1"/>
       <c r="C656" s="11"/>
       <c r="D656" s="11"/>
@@ -14072,7 +14343,7 @@
       <c r="R656" s="13"/>
       <c r="S656" s="13"/>
     </row>
-    <row r="657" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B657" s="1"/>
       <c r="C657" s="11"/>
       <c r="D657" s="11"/>
@@ -14092,7 +14363,7 @@
       <c r="R657" s="13"/>
       <c r="S657" s="13"/>
     </row>
-    <row r="658" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B658" s="1"/>
       <c r="C658" s="11"/>
       <c r="D658" s="11"/>
@@ -14112,7 +14383,7 @@
       <c r="R658" s="13"/>
       <c r="S658" s="13"/>
     </row>
-    <row r="659" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B659" s="1"/>
       <c r="C659" s="11"/>
       <c r="D659" s="11"/>
@@ -14132,7 +14403,7 @@
       <c r="R659" s="13"/>
       <c r="S659" s="13"/>
     </row>
-    <row r="660" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B660" s="1"/>
       <c r="C660" s="11"/>
       <c r="D660" s="11"/>
@@ -14152,7 +14423,7 @@
       <c r="R660" s="13"/>
       <c r="S660" s="13"/>
     </row>
-    <row r="661" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B661" s="1"/>
       <c r="C661" s="11"/>
       <c r="D661" s="11"/>
@@ -14172,7 +14443,7 @@
       <c r="R661" s="13"/>
       <c r="S661" s="13"/>
     </row>
-    <row r="662" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B662" s="1"/>
       <c r="C662" s="11"/>
       <c r="D662" s="11"/>
@@ -14192,7 +14463,7 @@
       <c r="R662" s="13"/>
       <c r="S662" s="13"/>
     </row>
-    <row r="663" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B663" s="1"/>
       <c r="C663" s="11"/>
       <c r="D663" s="11"/>
@@ -14212,7 +14483,7 @@
       <c r="R663" s="13"/>
       <c r="S663" s="13"/>
     </row>
-    <row r="664" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B664" s="1"/>
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
@@ -14232,7 +14503,7 @@
       <c r="R664" s="13"/>
       <c r="S664" s="13"/>
     </row>
-    <row r="665" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B665" s="1"/>
       <c r="C665" s="11"/>
       <c r="D665" s="11"/>
@@ -14252,7 +14523,7 @@
       <c r="R665" s="13"/>
       <c r="S665" s="13"/>
     </row>
-    <row r="666" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B666" s="1"/>
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
@@ -14272,7 +14543,7 @@
       <c r="R666" s="13"/>
       <c r="S666" s="13"/>
     </row>
-    <row r="667" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B667" s="1"/>
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
@@ -14292,7 +14563,7 @@
       <c r="R667" s="13"/>
       <c r="S667" s="13"/>
     </row>
-    <row r="668" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B668" s="1"/>
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
@@ -14312,7 +14583,7 @@
       <c r="R668" s="13"/>
       <c r="S668" s="13"/>
     </row>
-    <row r="669" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B669" s="1"/>
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
@@ -14332,7 +14603,7 @@
       <c r="R669" s="13"/>
       <c r="S669" s="13"/>
     </row>
-    <row r="670" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B670" s="1"/>
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
@@ -14352,7 +14623,7 @@
       <c r="R670" s="13"/>
       <c r="S670" s="13"/>
     </row>
-    <row r="671" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B671" s="1"/>
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
@@ -14372,7 +14643,7 @@
       <c r="R671" s="13"/>
       <c r="S671" s="13"/>
     </row>
-    <row r="672" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B672" s="1"/>
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
@@ -14392,7 +14663,7 @@
       <c r="R672" s="13"/>
       <c r="S672" s="13"/>
     </row>
-    <row r="673" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B673" s="1"/>
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
@@ -14412,7 +14683,7 @@
       <c r="R673" s="13"/>
       <c r="S673" s="13"/>
     </row>
-    <row r="674" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B674" s="1"/>
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
@@ -14432,7 +14703,7 @@
       <c r="R674" s="13"/>
       <c r="S674" s="13"/>
     </row>
-    <row r="675" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B675" s="1"/>
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
@@ -14452,7 +14723,7 @@
       <c r="R675" s="13"/>
       <c r="S675" s="13"/>
     </row>
-    <row r="676" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B676" s="1"/>
       <c r="C676" s="11"/>
       <c r="D676" s="11"/>
@@ -14472,7 +14743,7 @@
       <c r="R676" s="13"/>
       <c r="S676" s="13"/>
     </row>
-    <row r="677" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B677" s="1"/>
       <c r="C677" s="11"/>
       <c r="D677" s="11"/>
@@ -14492,7 +14763,7 @@
       <c r="R677" s="13"/>
       <c r="S677" s="13"/>
     </row>
-    <row r="678" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B678" s="1"/>
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
@@ -14512,7 +14783,7 @@
       <c r="R678" s="13"/>
       <c r="S678" s="13"/>
     </row>
-    <row r="679" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B679" s="1"/>
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
@@ -14532,7 +14803,7 @@
       <c r="R679" s="13"/>
       <c r="S679" s="13"/>
     </row>
-    <row r="680" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B680" s="1"/>
       <c r="C680" s="11"/>
       <c r="D680" s="11"/>
@@ -14552,7 +14823,7 @@
       <c r="R680" s="13"/>
       <c r="S680" s="13"/>
     </row>
-    <row r="681" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B681" s="1"/>
       <c r="C681" s="11"/>
       <c r="D681" s="11"/>
@@ -14572,7 +14843,7 @@
       <c r="R681" s="13"/>
       <c r="S681" s="13"/>
     </row>
-    <row r="682" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B682" s="1"/>
       <c r="C682" s="11"/>
       <c r="D682" s="11"/>
@@ -14592,7 +14863,7 @@
       <c r="R682" s="13"/>
       <c r="S682" s="13"/>
     </row>
-    <row r="683" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B683" s="1"/>
       <c r="C683" s="11"/>
       <c r="D683" s="11"/>
@@ -14612,7 +14883,7 @@
       <c r="R683" s="13"/>
       <c r="S683" s="13"/>
     </row>
-    <row r="684" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B684" s="1"/>
       <c r="C684" s="11"/>
       <c r="D684" s="11"/>
@@ -14632,7 +14903,7 @@
       <c r="R684" s="13"/>
       <c r="S684" s="13"/>
     </row>
-    <row r="685" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B685" s="1"/>
       <c r="C685" s="11"/>
       <c r="D685" s="11"/>
@@ -14652,7 +14923,7 @@
       <c r="R685" s="13"/>
       <c r="S685" s="13"/>
     </row>
-    <row r="686" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B686" s="1"/>
       <c r="C686" s="11"/>
       <c r="D686" s="11"/>
@@ -14672,7 +14943,7 @@
       <c r="R686" s="13"/>
       <c r="S686" s="13"/>
     </row>
-    <row r="687" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B687" s="1"/>
       <c r="C687" s="11"/>
       <c r="D687" s="11"/>
@@ -14692,7 +14963,7 @@
       <c r="R687" s="13"/>
       <c r="S687" s="13"/>
     </row>
-    <row r="688" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B688" s="1"/>
       <c r="C688" s="11"/>
       <c r="D688" s="11"/>
@@ -14712,7 +14983,7 @@
       <c r="R688" s="13"/>
       <c r="S688" s="13"/>
     </row>
-    <row r="689" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B689" s="1"/>
       <c r="C689" s="11"/>
       <c r="D689" s="11"/>
@@ -14732,7 +15003,7 @@
       <c r="R689" s="13"/>
       <c r="S689" s="13"/>
     </row>
-    <row r="690" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B690" s="1"/>
       <c r="C690" s="11"/>
       <c r="D690" s="11"/>
@@ -14752,7 +15023,7 @@
       <c r="R690" s="13"/>
       <c r="S690" s="13"/>
     </row>
-    <row r="691" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B691" s="1"/>
       <c r="C691" s="11"/>
       <c r="D691" s="11"/>
@@ -14772,7 +15043,7 @@
       <c r="R691" s="13"/>
       <c r="S691" s="13"/>
     </row>
-    <row r="692" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B692" s="1"/>
       <c r="C692" s="11"/>
       <c r="D692" s="11"/>
@@ -14792,7 +15063,7 @@
       <c r="R692" s="13"/>
       <c r="S692" s="13"/>
     </row>
-    <row r="693" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B693" s="1"/>
       <c r="C693" s="11"/>
       <c r="D693" s="11"/>
@@ -14812,7 +15083,7 @@
       <c r="R693" s="13"/>
       <c r="S693" s="13"/>
     </row>
-    <row r="694" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B694" s="1"/>
       <c r="C694" s="11"/>
       <c r="D694" s="11"/>
@@ -14832,7 +15103,7 @@
       <c r="R694" s="13"/>
       <c r="S694" s="13"/>
     </row>
-    <row r="695" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B695" s="1"/>
       <c r="C695" s="11"/>
       <c r="D695" s="11"/>
@@ -14852,7 +15123,7 @@
       <c r="R695" s="13"/>
       <c r="S695" s="13"/>
     </row>
-    <row r="696" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B696" s="1"/>
       <c r="C696" s="11"/>
       <c r="D696" s="11"/>
@@ -14872,7 +15143,7 @@
       <c r="R696" s="13"/>
       <c r="S696" s="13"/>
     </row>
-    <row r="697" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B697" s="1"/>
       <c r="C697" s="11"/>
       <c r="D697" s="11"/>
@@ -14892,7 +15163,7 @@
       <c r="R697" s="13"/>
       <c r="S697" s="13"/>
     </row>
-    <row r="698" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B698" s="1"/>
       <c r="C698" s="11"/>
       <c r="D698" s="11"/>
@@ -14912,7 +15183,7 @@
       <c r="R698" s="13"/>
       <c r="S698" s="13"/>
     </row>
-    <row r="699" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B699" s="1"/>
       <c r="C699" s="11"/>
       <c r="D699" s="11"/>
@@ -14932,7 +15203,7 @@
       <c r="R699" s="13"/>
       <c r="S699" s="13"/>
     </row>
-    <row r="700" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B700" s="1"/>
       <c r="C700" s="11"/>
       <c r="D700" s="11"/>
@@ -14952,7 +15223,7 @@
       <c r="R700" s="13"/>
       <c r="S700" s="13"/>
     </row>
-    <row r="701" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B701" s="1"/>
       <c r="C701" s="11"/>
       <c r="D701" s="11"/>
@@ -14972,7 +15243,7 @@
       <c r="R701" s="13"/>
       <c r="S701" s="13"/>
     </row>
-    <row r="702" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B702" s="1"/>
       <c r="C702" s="11"/>
       <c r="D702" s="11"/>
@@ -14992,7 +15263,7 @@
       <c r="R702" s="13"/>
       <c r="S702" s="13"/>
     </row>
-    <row r="703" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B703" s="1"/>
       <c r="C703" s="11"/>
       <c r="D703" s="11"/>
@@ -15012,7 +15283,7 @@
       <c r="R703" s="13"/>
       <c r="S703" s="13"/>
     </row>
-    <row r="704" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B704" s="1"/>
       <c r="C704" s="11"/>
       <c r="D704" s="11"/>
@@ -15032,7 +15303,7 @@
       <c r="R704" s="13"/>
       <c r="S704" s="13"/>
     </row>
-    <row r="705" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B705" s="1"/>
       <c r="C705" s="11"/>
       <c r="D705" s="11"/>
@@ -15052,7 +15323,7 @@
       <c r="R705" s="13"/>
       <c r="S705" s="13"/>
     </row>
-    <row r="706" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B706" s="1"/>
       <c r="C706" s="11"/>
       <c r="D706" s="11"/>
@@ -15072,7 +15343,7 @@
       <c r="R706" s="13"/>
       <c r="S706" s="13"/>
     </row>
-    <row r="707" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B707" s="1"/>
       <c r="C707" s="11"/>
       <c r="D707" s="11"/>
@@ -15092,7 +15363,7 @@
       <c r="R707" s="13"/>
       <c r="S707" s="13"/>
     </row>
-    <row r="708" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B708" s="1"/>
       <c r="C708" s="11"/>
       <c r="D708" s="11"/>
@@ -15112,7 +15383,7 @@
       <c r="R708" s="13"/>
       <c r="S708" s="13"/>
     </row>
-    <row r="709" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B709" s="1"/>
       <c r="C709" s="11"/>
       <c r="D709" s="11"/>
@@ -15132,7 +15403,7 @@
       <c r="R709" s="13"/>
       <c r="S709" s="13"/>
     </row>
-    <row r="710" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B710" s="1"/>
       <c r="C710" s="11"/>
       <c r="D710" s="11"/>
@@ -15152,7 +15423,7 @@
       <c r="R710" s="13"/>
       <c r="S710" s="13"/>
     </row>
-    <row r="711" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B711" s="1"/>
       <c r="C711" s="11"/>
       <c r="D711" s="11"/>
@@ -15172,7 +15443,7 @@
       <c r="R711" s="13"/>
       <c r="S711" s="13"/>
     </row>
-    <row r="712" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B712" s="1"/>
       <c r="C712" s="11"/>
       <c r="D712" s="11"/>
@@ -15192,7 +15463,7 @@
       <c r="R712" s="13"/>
       <c r="S712" s="13"/>
     </row>
-    <row r="713" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B713" s="1"/>
       <c r="C713" s="11"/>
       <c r="D713" s="11"/>
@@ -15212,7 +15483,7 @@
       <c r="R713" s="13"/>
       <c r="S713" s="13"/>
     </row>
-    <row r="714" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B714" s="1"/>
       <c r="C714" s="11"/>
       <c r="D714" s="11"/>
@@ -15232,7 +15503,7 @@
       <c r="R714" s="13"/>
       <c r="S714" s="13"/>
     </row>
-    <row r="715" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B715" s="1"/>
       <c r="C715" s="11"/>
       <c r="D715" s="11"/>
@@ -15252,7 +15523,7 @@
       <c r="R715" s="13"/>
       <c r="S715" s="13"/>
     </row>
-    <row r="716" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B716" s="1"/>
       <c r="C716" s="11"/>
       <c r="D716" s="11"/>
@@ -15272,7 +15543,7 @@
       <c r="R716" s="13"/>
       <c r="S716" s="13"/>
     </row>
-    <row r="717" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B717" s="1"/>
       <c r="C717" s="11"/>
       <c r="D717" s="11"/>
@@ -15292,7 +15563,7 @@
       <c r="R717" s="13"/>
       <c r="S717" s="13"/>
     </row>
-    <row r="718" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B718" s="1"/>
       <c r="C718" s="11"/>
       <c r="D718" s="11"/>
@@ -15312,7 +15583,7 @@
       <c r="R718" s="13"/>
       <c r="S718" s="13"/>
     </row>
-    <row r="719" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B719" s="1"/>
       <c r="C719" s="11"/>
       <c r="D719" s="11"/>
@@ -15332,7 +15603,7 @@
       <c r="R719" s="13"/>
       <c r="S719" s="13"/>
     </row>
-    <row r="720" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B720" s="1"/>
       <c r="C720" s="11"/>
       <c r="D720" s="11"/>
@@ -15352,7 +15623,7 @@
       <c r="R720" s="13"/>
       <c r="S720" s="13"/>
     </row>
-    <row r="721" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B721" s="1"/>
       <c r="C721" s="11"/>
       <c r="D721" s="11"/>
@@ -15372,7 +15643,7 @@
       <c r="R721" s="13"/>
       <c r="S721" s="13"/>
     </row>
-    <row r="722" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B722" s="1"/>
       <c r="C722" s="11"/>
       <c r="D722" s="11"/>
@@ -15392,7 +15663,7 @@
       <c r="R722" s="13"/>
       <c r="S722" s="13"/>
     </row>
-    <row r="723" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B723" s="1"/>
       <c r="C723" s="11"/>
       <c r="D723" s="11"/>
@@ -15412,7 +15683,7 @@
       <c r="R723" s="13"/>
       <c r="S723" s="13"/>
     </row>
-    <row r="724" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B724" s="1"/>
       <c r="C724" s="11"/>
       <c r="D724" s="11"/>
@@ -15432,7 +15703,7 @@
       <c r="R724" s="13"/>
       <c r="S724" s="13"/>
     </row>
-    <row r="725" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B725" s="1"/>
       <c r="C725" s="11"/>
       <c r="D725" s="11"/>
@@ -15452,7 +15723,7 @@
       <c r="R725" s="13"/>
       <c r="S725" s="13"/>
     </row>
-    <row r="726" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B726" s="1"/>
       <c r="C726" s="11"/>
       <c r="D726" s="11"/>
@@ -15472,7 +15743,7 @@
       <c r="R726" s="13"/>
       <c r="S726" s="13"/>
     </row>
-    <row r="727" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B727" s="1"/>
       <c r="C727" s="11"/>
       <c r="D727" s="11"/>
@@ -15492,7 +15763,7 @@
       <c r="R727" s="13"/>
       <c r="S727" s="13"/>
     </row>
-    <row r="728" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B728" s="1"/>
       <c r="C728" s="11"/>
       <c r="D728" s="11"/>
@@ -15512,7 +15783,7 @@
       <c r="R728" s="13"/>
       <c r="S728" s="13"/>
     </row>
-    <row r="729" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B729" s="1"/>
       <c r="C729" s="11"/>
       <c r="D729" s="11"/>
@@ -15532,7 +15803,7 @@
       <c r="R729" s="13"/>
       <c r="S729" s="13"/>
     </row>
-    <row r="730" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B730" s="1"/>
       <c r="C730" s="11"/>
       <c r="D730" s="11"/>
@@ -15552,7 +15823,7 @@
       <c r="R730" s="13"/>
       <c r="S730" s="13"/>
     </row>
-    <row r="731" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B731" s="1"/>
       <c r="C731" s="11"/>
       <c r="D731" s="11"/>
@@ -15572,7 +15843,7 @@
       <c r="R731" s="13"/>
       <c r="S731" s="13"/>
     </row>
-    <row r="732" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B732" s="1"/>
       <c r="C732" s="11"/>
       <c r="D732" s="11"/>
@@ -15592,7 +15863,7 @@
       <c r="R732" s="13"/>
       <c r="S732" s="13"/>
     </row>
-    <row r="733" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B733" s="1"/>
       <c r="C733" s="11"/>
       <c r="D733" s="11"/>
@@ -15612,7 +15883,7 @@
       <c r="R733" s="13"/>
       <c r="S733" s="13"/>
     </row>
-    <row r="734" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B734" s="1"/>
       <c r="C734" s="11"/>
       <c r="D734" s="11"/>
@@ -15632,7 +15903,7 @@
       <c r="R734" s="13"/>
       <c r="S734" s="13"/>
     </row>
-    <row r="735" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B735" s="1"/>
       <c r="C735" s="11"/>
       <c r="D735" s="11"/>
@@ -15652,7 +15923,7 @@
       <c r="R735" s="13"/>
       <c r="S735" s="13"/>
     </row>
-    <row r="736" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B736" s="1"/>
       <c r="C736" s="11"/>
       <c r="D736" s="11"/>
@@ -15672,7 +15943,7 @@
       <c r="R736" s="13"/>
       <c r="S736" s="13"/>
     </row>
-    <row r="737" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B737" s="1"/>
       <c r="C737" s="11"/>
       <c r="D737" s="11"/>
@@ -15692,7 +15963,7 @@
       <c r="R737" s="13"/>
       <c r="S737" s="13"/>
     </row>
-    <row r="738" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B738" s="1"/>
       <c r="C738" s="11"/>
       <c r="D738" s="11"/>
@@ -15712,7 +15983,7 @@
       <c r="R738" s="13"/>
       <c r="S738" s="13"/>
     </row>
-    <row r="739" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B739" s="1"/>
       <c r="C739" s="11"/>
       <c r="D739" s="11"/>
@@ -15732,7 +16003,7 @@
       <c r="R739" s="13"/>
       <c r="S739" s="13"/>
     </row>
-    <row r="740" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B740" s="1"/>
       <c r="C740" s="11"/>
       <c r="D740" s="11"/>
@@ -15752,7 +16023,7 @@
       <c r="R740" s="13"/>
       <c r="S740" s="13"/>
     </row>
-    <row r="741" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B741" s="1"/>
       <c r="C741" s="11"/>
       <c r="D741" s="11"/>
@@ -15772,7 +16043,7 @@
       <c r="R741" s="13"/>
       <c r="S741" s="13"/>
     </row>
-    <row r="742" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B742" s="1"/>
       <c r="C742" s="11"/>
       <c r="D742" s="11"/>
@@ -15792,7 +16063,7 @@
       <c r="R742" s="13"/>
       <c r="S742" s="13"/>
     </row>
-    <row r="743" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B743" s="1"/>
       <c r="C743" s="11"/>
       <c r="D743" s="11"/>
@@ -15812,7 +16083,7 @@
       <c r="R743" s="13"/>
       <c r="S743" s="13"/>
     </row>
-    <row r="744" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B744" s="1"/>
       <c r="C744" s="11"/>
       <c r="D744" s="11"/>
@@ -15832,7 +16103,7 @@
       <c r="R744" s="13"/>
       <c r="S744" s="13"/>
     </row>
-    <row r="745" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B745" s="1"/>
       <c r="C745" s="11"/>
       <c r="D745" s="11"/>
@@ -15852,7 +16123,7 @@
       <c r="R745" s="13"/>
       <c r="S745" s="13"/>
     </row>
-    <row r="746" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B746" s="1"/>
       <c r="C746" s="11"/>
       <c r="D746" s="11"/>
@@ -15872,7 +16143,7 @@
       <c r="R746" s="13"/>
       <c r="S746" s="13"/>
     </row>
-    <row r="747" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B747" s="1"/>
       <c r="C747" s="11"/>
       <c r="D747" s="11"/>
@@ -15892,7 +16163,7 @@
       <c r="R747" s="13"/>
       <c r="S747" s="13"/>
     </row>
-    <row r="748" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B748" s="1"/>
       <c r="C748" s="11"/>
       <c r="D748" s="11"/>
@@ -15912,7 +16183,7 @@
       <c r="R748" s="13"/>
       <c r="S748" s="13"/>
     </row>
-    <row r="749" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B749" s="1"/>
       <c r="C749" s="11"/>
       <c r="D749" s="11"/>
@@ -15932,7 +16203,7 @@
       <c r="R749" s="13"/>
       <c r="S749" s="13"/>
     </row>
-    <row r="750" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B750" s="1"/>
       <c r="C750" s="11"/>
       <c r="D750" s="11"/>
@@ -15952,7 +16223,7 @@
       <c r="R750" s="13"/>
       <c r="S750" s="13"/>
     </row>
-    <row r="751" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B751" s="1"/>
       <c r="C751" s="11"/>
       <c r="D751" s="11"/>
@@ -15972,7 +16243,7 @@
       <c r="R751" s="13"/>
       <c r="S751" s="13"/>
     </row>
-    <row r="752" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B752" s="1"/>
       <c r="C752" s="11"/>
       <c r="D752" s="11"/>
@@ -15992,7 +16263,7 @@
       <c r="R752" s="13"/>
       <c r="S752" s="13"/>
     </row>
-    <row r="753" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B753" s="1"/>
       <c r="C753" s="11"/>
       <c r="D753" s="11"/>
@@ -16012,7 +16283,7 @@
       <c r="R753" s="13"/>
       <c r="S753" s="13"/>
     </row>
-    <row r="754" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B754" s="1"/>
       <c r="C754" s="11"/>
       <c r="D754" s="11"/>
@@ -16032,7 +16303,7 @@
       <c r="R754" s="13"/>
       <c r="S754" s="13"/>
     </row>
-    <row r="755" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B755" s="1"/>
       <c r="C755" s="11"/>
       <c r="D755" s="11"/>
@@ -16052,7 +16323,7 @@
       <c r="R755" s="13"/>
       <c r="S755" s="13"/>
     </row>
-    <row r="756" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B756" s="1"/>
       <c r="C756" s="11"/>
       <c r="D756" s="11"/>
@@ -16072,7 +16343,7 @@
       <c r="R756" s="13"/>
       <c r="S756" s="13"/>
     </row>
-    <row r="757" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B757" s="1"/>
       <c r="C757" s="11"/>
       <c r="D757" s="11"/>
@@ -16092,7 +16363,7 @@
       <c r="R757" s="13"/>
       <c r="S757" s="13"/>
     </row>
-    <row r="758" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B758" s="1"/>
       <c r="C758" s="11"/>
       <c r="D758" s="11"/>
@@ -16112,7 +16383,7 @@
       <c r="R758" s="13"/>
       <c r="S758" s="13"/>
     </row>
-    <row r="759" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B759" s="1"/>
       <c r="C759" s="11"/>
       <c r="D759" s="11"/>
@@ -16132,7 +16403,7 @@
       <c r="R759" s="13"/>
       <c r="S759" s="13"/>
     </row>
-    <row r="760" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B760" s="1"/>
       <c r="C760" s="11"/>
       <c r="D760" s="11"/>
@@ -16152,7 +16423,7 @@
       <c r="R760" s="13"/>
       <c r="S760" s="13"/>
     </row>
-    <row r="761" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B761" s="1"/>
       <c r="C761" s="11"/>
       <c r="D761" s="11"/>
@@ -16172,7 +16443,7 @@
       <c r="R761" s="13"/>
       <c r="S761" s="13"/>
     </row>
-    <row r="762" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B762" s="1"/>
       <c r="C762" s="11"/>
       <c r="D762" s="11"/>
@@ -16192,7 +16463,7 @@
       <c r="R762" s="13"/>
       <c r="S762" s="13"/>
     </row>
-    <row r="763" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B763" s="1"/>
       <c r="C763" s="11"/>
       <c r="D763" s="11"/>
@@ -16212,7 +16483,7 @@
       <c r="R763" s="13"/>
       <c r="S763" s="13"/>
     </row>
-    <row r="764" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B764" s="1"/>
       <c r="C764" s="11"/>
       <c r="D764" s="11"/>
@@ -16232,7 +16503,7 @@
       <c r="R764" s="13"/>
       <c r="S764" s="13"/>
     </row>
-    <row r="765" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B765" s="1"/>
       <c r="C765" s="11"/>
       <c r="D765" s="11"/>
@@ -16252,7 +16523,7 @@
       <c r="R765" s="13"/>
       <c r="S765" s="13"/>
     </row>
-    <row r="766" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B766" s="1"/>
       <c r="C766" s="11"/>
       <c r="D766" s="11"/>
@@ -16272,7 +16543,7 @@
       <c r="R766" s="13"/>
       <c r="S766" s="13"/>
     </row>
-    <row r="767" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B767" s="1"/>
       <c r="C767" s="11"/>
       <c r="D767" s="11"/>
@@ -16292,7 +16563,7 @@
       <c r="R767" s="13"/>
       <c r="S767" s="13"/>
     </row>
-    <row r="768" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B768" s="1"/>
       <c r="C768" s="11"/>
       <c r="D768" s="11"/>
@@ -16312,7 +16583,7 @@
       <c r="R768" s="13"/>
       <c r="S768" s="13"/>
     </row>
-    <row r="769" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B769" s="1"/>
       <c r="C769" s="11"/>
       <c r="D769" s="11"/>
@@ -16332,7 +16603,7 @@
       <c r="R769" s="13"/>
       <c r="S769" s="13"/>
     </row>
-    <row r="770" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B770" s="1"/>
       <c r="C770" s="11"/>
       <c r="D770" s="11"/>
@@ -16352,7 +16623,7 @@
       <c r="R770" s="13"/>
       <c r="S770" s="13"/>
     </row>
-    <row r="771" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B771" s="1"/>
       <c r="C771" s="11"/>
       <c r="D771" s="11"/>
@@ -16372,7 +16643,7 @@
       <c r="R771" s="13"/>
       <c r="S771" s="13"/>
     </row>
-    <row r="772" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B772" s="1"/>
       <c r="C772" s="11"/>
       <c r="D772" s="11"/>
@@ -16392,7 +16663,7 @@
       <c r="R772" s="13"/>
       <c r="S772" s="13"/>
     </row>
-    <row r="773" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B773" s="1"/>
       <c r="C773" s="11"/>
       <c r="D773" s="11"/>
@@ -16412,7 +16683,7 @@
       <c r="R773" s="13"/>
       <c r="S773" s="13"/>
     </row>
-    <row r="774" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B774" s="1"/>
       <c r="C774" s="11"/>
       <c r="D774" s="11"/>
@@ -16432,7 +16703,7 @@
       <c r="R774" s="13"/>
       <c r="S774" s="13"/>
     </row>
-    <row r="775" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B775" s="1"/>
       <c r="C775" s="11"/>
       <c r="D775" s="11"/>
@@ -16452,7 +16723,7 @@
       <c r="R775" s="13"/>
       <c r="S775" s="13"/>
     </row>
-    <row r="776" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B776" s="1"/>
       <c r="C776" s="11"/>
       <c r="D776" s="11"/>
@@ -16472,7 +16743,7 @@
       <c r="R776" s="13"/>
       <c r="S776" s="13"/>
     </row>
-    <row r="777" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B777" s="1"/>
       <c r="C777" s="11"/>
       <c r="D777" s="11"/>
@@ -16492,7 +16763,7 @@
       <c r="R777" s="13"/>
       <c r="S777" s="13"/>
     </row>
-    <row r="778" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B778" s="1"/>
       <c r="C778" s="11"/>
       <c r="D778" s="11"/>
@@ -16512,7 +16783,7 @@
       <c r="R778" s="13"/>
       <c r="S778" s="13"/>
     </row>
-    <row r="779" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B779" s="1"/>
       <c r="C779" s="11"/>
       <c r="D779" s="11"/>
@@ -16532,7 +16803,7 @@
       <c r="R779" s="13"/>
       <c r="S779" s="13"/>
     </row>
-    <row r="780" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B780" s="1"/>
       <c r="C780" s="11"/>
       <c r="D780" s="11"/>
@@ -16552,7 +16823,7 @@
       <c r="R780" s="13"/>
       <c r="S780" s="13"/>
     </row>
-    <row r="781" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B781" s="1"/>
       <c r="C781" s="11"/>
       <c r="D781" s="11"/>
@@ -16572,7 +16843,7 @@
       <c r="R781" s="13"/>
       <c r="S781" s="13"/>
     </row>
-    <row r="782" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B782" s="1"/>
       <c r="C782" s="11"/>
       <c r="D782" s="11"/>
@@ -16592,7 +16863,7 @@
       <c r="R782" s="13"/>
       <c r="S782" s="13"/>
     </row>
-    <row r="783" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B783" s="1"/>
       <c r="C783" s="11"/>
       <c r="D783" s="11"/>
@@ -16612,7 +16883,7 @@
       <c r="R783" s="13"/>
       <c r="S783" s="13"/>
     </row>
-    <row r="784" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B784" s="1"/>
       <c r="C784" s="11"/>
       <c r="D784" s="11"/>
@@ -16632,7 +16903,7 @@
       <c r="R784" s="13"/>
       <c r="S784" s="13"/>
     </row>
-    <row r="785" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B785" s="1"/>
       <c r="C785" s="11"/>
       <c r="D785" s="11"/>
@@ -16652,7 +16923,7 @@
       <c r="R785" s="13"/>
       <c r="S785" s="13"/>
     </row>
-    <row r="786" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B786" s="1"/>
       <c r="C786" s="11"/>
       <c r="D786" s="11"/>
@@ -16672,7 +16943,7 @@
       <c r="R786" s="13"/>
       <c r="S786" s="13"/>
     </row>
-    <row r="787" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B787" s="1"/>
       <c r="C787" s="11"/>
       <c r="D787" s="11"/>
@@ -16692,7 +16963,7 @@
       <c r="R787" s="13"/>
       <c r="S787" s="13"/>
     </row>
-    <row r="788" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B788" s="1"/>
       <c r="C788" s="11"/>
       <c r="D788" s="11"/>
@@ -16712,7 +16983,7 @@
       <c r="R788" s="13"/>
       <c r="S788" s="13"/>
     </row>
-    <row r="789" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B789" s="1"/>
       <c r="C789" s="11"/>
       <c r="D789" s="11"/>
@@ -16732,7 +17003,7 @@
       <c r="R789" s="13"/>
       <c r="S789" s="13"/>
     </row>
-    <row r="790" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B790" s="1"/>
       <c r="C790" s="11"/>
       <c r="D790" s="11"/>
@@ -16752,7 +17023,7 @@
       <c r="R790" s="13"/>
       <c r="S790" s="13"/>
     </row>
-    <row r="791" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B791" s="1"/>
       <c r="C791" s="11"/>
       <c r="D791" s="11"/>
@@ -16772,7 +17043,7 @@
       <c r="R791" s="13"/>
       <c r="S791" s="13"/>
     </row>
-    <row r="792" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B792" s="1"/>
       <c r="C792" s="11"/>
       <c r="D792" s="11"/>
@@ -16792,7 +17063,7 @@
       <c r="R792" s="13"/>
       <c r="S792" s="13"/>
     </row>
-    <row r="793" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B793" s="1"/>
       <c r="C793" s="11"/>
       <c r="D793" s="11"/>
@@ -16812,7 +17083,7 @@
       <c r="R793" s="13"/>
       <c r="S793" s="13"/>
     </row>
-    <row r="794" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B794" s="1"/>
       <c r="C794" s="11"/>
       <c r="D794" s="11"/>
@@ -16832,7 +17103,7 @@
       <c r="R794" s="13"/>
       <c r="S794" s="13"/>
     </row>
-    <row r="795" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B795" s="1"/>
       <c r="C795" s="11"/>
       <c r="D795" s="11"/>
@@ -16852,7 +17123,7 @@
       <c r="R795" s="13"/>
       <c r="S795" s="13"/>
     </row>
-    <row r="796" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B796" s="1"/>
       <c r="C796" s="11"/>
       <c r="D796" s="11"/>
@@ -16872,7 +17143,7 @@
       <c r="R796" s="13"/>
       <c r="S796" s="13"/>
     </row>
-    <row r="797" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B797" s="1"/>
       <c r="C797" s="11"/>
       <c r="D797" s="11"/>
@@ -16892,7 +17163,7 @@
       <c r="R797" s="13"/>
       <c r="S797" s="13"/>
     </row>
-    <row r="798" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B798" s="1"/>
       <c r="C798" s="11"/>
       <c r="D798" s="11"/>
@@ -16912,7 +17183,7 @@
       <c r="R798" s="13"/>
       <c r="S798" s="13"/>
     </row>
-    <row r="799" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B799" s="1"/>
       <c r="C799" s="11"/>
       <c r="D799" s="11"/>
@@ -16932,7 +17203,7 @@
       <c r="R799" s="13"/>
       <c r="S799" s="13"/>
     </row>
-    <row r="800" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B800" s="1"/>
       <c r="C800" s="11"/>
       <c r="D800" s="11"/>
@@ -16952,7 +17223,7 @@
       <c r="R800" s="13"/>
       <c r="S800" s="13"/>
     </row>
-    <row r="801" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B801" s="1"/>
       <c r="C801" s="11"/>
       <c r="D801" s="11"/>
@@ -16972,7 +17243,7 @@
       <c r="R801" s="13"/>
       <c r="S801" s="13"/>
     </row>
-    <row r="802" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B802" s="1"/>
       <c r="C802" s="11"/>
       <c r="D802" s="11"/>
@@ -16992,7 +17263,7 @@
       <c r="R802" s="13"/>
       <c r="S802" s="13"/>
     </row>
-    <row r="803" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B803" s="1"/>
       <c r="C803" s="11"/>
       <c r="D803" s="11"/>
@@ -17012,7 +17283,7 @@
       <c r="R803" s="13"/>
       <c r="S803" s="13"/>
     </row>
-    <row r="804" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B804" s="1"/>
       <c r="C804" s="11"/>
       <c r="D804" s="11"/>
@@ -17032,7 +17303,7 @@
       <c r="R804" s="13"/>
       <c r="S804" s="13"/>
     </row>
-    <row r="805" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B805" s="1"/>
       <c r="C805" s="11"/>
       <c r="D805" s="11"/>
@@ -17052,7 +17323,7 @@
       <c r="R805" s="13"/>
       <c r="S805" s="13"/>
     </row>
-    <row r="806" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B806" s="1"/>
       <c r="C806" s="11"/>
       <c r="D806" s="11"/>
@@ -17072,7 +17343,7 @@
       <c r="R806" s="13"/>
       <c r="S806" s="13"/>
     </row>
-    <row r="807" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B807" s="1"/>
       <c r="C807" s="11"/>
       <c r="D807" s="11"/>
@@ -17092,7 +17363,7 @@
       <c r="R807" s="13"/>
       <c r="S807" s="13"/>
     </row>
-    <row r="808" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B808" s="1"/>
       <c r="C808" s="11"/>
       <c r="D808" s="11"/>
@@ -17112,7 +17383,7 @@
       <c r="R808" s="13"/>
       <c r="S808" s="13"/>
     </row>
-    <row r="809" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B809" s="1"/>
       <c r="C809" s="11"/>
       <c r="D809" s="11"/>
@@ -17132,7 +17403,7 @@
       <c r="R809" s="13"/>
       <c r="S809" s="13"/>
     </row>
-    <row r="810" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B810" s="1"/>
       <c r="C810" s="11"/>
       <c r="D810" s="11"/>
@@ -17152,7 +17423,7 @@
       <c r="R810" s="13"/>
       <c r="S810" s="13"/>
     </row>
-    <row r="811" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B811" s="1"/>
       <c r="C811" s="11"/>
       <c r="D811" s="11"/>
@@ -17172,7 +17443,7 @@
       <c r="R811" s="13"/>
       <c r="S811" s="13"/>
     </row>
-    <row r="812" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B812" s="1"/>
       <c r="C812" s="11"/>
       <c r="D812" s="11"/>
@@ -17192,7 +17463,7 @@
       <c r="R812" s="13"/>
       <c r="S812" s="13"/>
     </row>
-    <row r="813" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B813" s="1"/>
       <c r="C813" s="11"/>
       <c r="D813" s="11"/>
@@ -17212,7 +17483,7 @@
       <c r="R813" s="13"/>
       <c r="S813" s="13"/>
     </row>
-    <row r="814" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B814" s="1"/>
       <c r="C814" s="11"/>
       <c r="D814" s="11"/>
@@ -17232,7 +17503,7 @@
       <c r="R814" s="13"/>
       <c r="S814" s="13"/>
     </row>
-    <row r="815" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B815" s="1"/>
       <c r="C815" s="11"/>
       <c r="D815" s="11"/>
@@ -17252,7 +17523,7 @@
       <c r="R815" s="13"/>
       <c r="S815" s="13"/>
     </row>
-    <row r="816" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B816" s="1"/>
       <c r="C816" s="11"/>
       <c r="D816" s="11"/>
@@ -17272,7 +17543,7 @@
       <c r="R816" s="13"/>
       <c r="S816" s="13"/>
     </row>
-    <row r="817" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B817" s="1"/>
       <c r="C817" s="11"/>
       <c r="D817" s="11"/>
@@ -17292,7 +17563,7 @@
       <c r="R817" s="13"/>
       <c r="S817" s="13"/>
     </row>
-    <row r="818" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B818" s="1"/>
       <c r="C818" s="11"/>
       <c r="D818" s="11"/>
@@ -17312,7 +17583,7 @@
       <c r="R818" s="13"/>
       <c r="S818" s="13"/>
     </row>
-    <row r="819" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B819" s="1"/>
       <c r="C819" s="11"/>
       <c r="D819" s="11"/>
@@ -17332,7 +17603,7 @@
       <c r="R819" s="13"/>
       <c r="S819" s="13"/>
     </row>
-    <row r="820" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B820" s="1"/>
       <c r="C820" s="11"/>
       <c r="D820" s="11"/>
@@ -17352,7 +17623,7 @@
       <c r="R820" s="13"/>
       <c r="S820" s="13"/>
     </row>
-    <row r="821" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B821" s="1"/>
       <c r="C821" s="11"/>
       <c r="D821" s="11"/>
@@ -17372,7 +17643,7 @@
       <c r="R821" s="13"/>
       <c r="S821" s="13"/>
     </row>
-    <row r="822" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B822" s="1"/>
       <c r="C822" s="11"/>
       <c r="D822" s="11"/>
@@ -17392,7 +17663,7 @@
       <c r="R822" s="13"/>
       <c r="S822" s="13"/>
     </row>
-    <row r="823" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B823" s="1"/>
       <c r="C823" s="11"/>
       <c r="D823" s="11"/>
@@ -17412,7 +17683,7 @@
       <c r="R823" s="13"/>
       <c r="S823" s="13"/>
     </row>
-    <row r="824" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B824" s="1"/>
       <c r="C824" s="11"/>
       <c r="D824" s="11"/>
@@ -17432,7 +17703,7 @@
       <c r="R824" s="13"/>
       <c r="S824" s="13"/>
     </row>
-    <row r="825" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B825" s="1"/>
       <c r="C825" s="11"/>
       <c r="D825" s="11"/>
@@ -17452,7 +17723,7 @@
       <c r="R825" s="13"/>
       <c r="S825" s="13"/>
     </row>
-    <row r="826" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B826" s="1"/>
       <c r="C826" s="11"/>
       <c r="D826" s="11"/>
@@ -17472,7 +17743,7 @@
       <c r="R826" s="13"/>
       <c r="S826" s="13"/>
     </row>
-    <row r="827" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B827" s="1"/>
       <c r="C827" s="11"/>
       <c r="D827" s="11"/>
@@ -17492,7 +17763,7 @@
       <c r="R827" s="13"/>
       <c r="S827" s="13"/>
     </row>
-    <row r="828" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B828" s="1"/>
       <c r="C828" s="11"/>
       <c r="D828" s="11"/>
@@ -17512,7 +17783,7 @@
       <c r="R828" s="13"/>
       <c r="S828" s="13"/>
     </row>
-    <row r="829" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B829" s="1"/>
       <c r="C829" s="11"/>
       <c r="D829" s="11"/>
@@ -17532,7 +17803,7 @@
       <c r="R829" s="13"/>
       <c r="S829" s="13"/>
     </row>
-    <row r="830" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B830" s="1"/>
       <c r="C830" s="11"/>
       <c r="D830" s="11"/>
@@ -17552,7 +17823,7 @@
       <c r="R830" s="13"/>
       <c r="S830" s="13"/>
     </row>
-    <row r="831" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B831" s="1"/>
       <c r="C831" s="11"/>
       <c r="D831" s="11"/>
@@ -17572,7 +17843,7 @@
       <c r="R831" s="13"/>
       <c r="S831" s="13"/>
     </row>
-    <row r="832" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B832" s="1"/>
       <c r="C832" s="11"/>
       <c r="D832" s="11"/>
@@ -17592,7 +17863,7 @@
       <c r="R832" s="13"/>
       <c r="S832" s="13"/>
     </row>
-    <row r="833" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B833" s="1"/>
       <c r="C833" s="11"/>
       <c r="D833" s="11"/>
@@ -17612,7 +17883,7 @@
       <c r="R833" s="13"/>
       <c r="S833" s="13"/>
     </row>
-    <row r="834" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B834" s="1"/>
       <c r="C834" s="11"/>
       <c r="D834" s="11"/>
@@ -17632,7 +17903,7 @@
       <c r="R834" s="13"/>
       <c r="S834" s="13"/>
     </row>
-    <row r="835" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B835" s="1"/>
       <c r="C835" s="11"/>
       <c r="D835" s="11"/>
@@ -17652,7 +17923,7 @@
       <c r="R835" s="13"/>
       <c r="S835" s="13"/>
     </row>
-    <row r="836" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B836" s="1"/>
       <c r="C836" s="11"/>
       <c r="D836" s="11"/>
@@ -17672,7 +17943,7 @@
       <c r="R836" s="13"/>
       <c r="S836" s="13"/>
     </row>
-    <row r="837" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B837" s="1"/>
       <c r="C837" s="11"/>
       <c r="D837" s="11"/>
@@ -17692,7 +17963,7 @@
       <c r="R837" s="13"/>
       <c r="S837" s="13"/>
     </row>
-    <row r="838" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B838" s="1"/>
       <c r="C838" s="11"/>
       <c r="D838" s="11"/>
@@ -17712,7 +17983,7 @@
       <c r="R838" s="13"/>
       <c r="S838" s="13"/>
     </row>
-    <row r="839" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B839" s="1"/>
       <c r="C839" s="11"/>
       <c r="D839" s="11"/>
@@ -17732,7 +18003,7 @@
       <c r="R839" s="13"/>
       <c r="S839" s="13"/>
     </row>
-    <row r="840" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B840" s="1"/>
       <c r="C840" s="11"/>
       <c r="D840" s="11"/>
@@ -17752,7 +18023,7 @@
       <c r="R840" s="13"/>
       <c r="S840" s="13"/>
     </row>
-    <row r="841" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B841" s="1"/>
       <c r="C841" s="11"/>
       <c r="D841" s="11"/>
@@ -17772,7 +18043,7 @@
       <c r="R841" s="13"/>
       <c r="S841" s="13"/>
     </row>
-    <row r="842" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B842" s="1"/>
       <c r="C842" s="11"/>
       <c r="D842" s="11"/>
@@ -17792,7 +18063,7 @@
       <c r="R842" s="13"/>
       <c r="S842" s="13"/>
     </row>
-    <row r="843" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B843" s="1"/>
       <c r="C843" s="11"/>
       <c r="D843" s="11"/>
@@ -17812,7 +18083,7 @@
       <c r="R843" s="13"/>
       <c r="S843" s="13"/>
     </row>
-    <row r="844" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B844" s="1"/>
       <c r="C844" s="11"/>
       <c r="D844" s="11"/>
@@ -17832,7 +18103,7 @@
       <c r="R844" s="13"/>
       <c r="S844" s="13"/>
     </row>
-    <row r="845" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B845" s="1"/>
       <c r="C845" s="11"/>
       <c r="D845" s="11"/>
@@ -17852,7 +18123,7 @@
       <c r="R845" s="13"/>
       <c r="S845" s="13"/>
     </row>
-    <row r="846" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B846" s="1"/>
       <c r="C846" s="11"/>
       <c r="D846" s="11"/>
@@ -17872,7 +18143,7 @@
       <c r="R846" s="13"/>
       <c r="S846" s="13"/>
     </row>
-    <row r="847" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B847" s="1"/>
       <c r="C847" s="11"/>
       <c r="D847" s="11"/>
@@ -17892,7 +18163,7 @@
       <c r="R847" s="13"/>
       <c r="S847" s="13"/>
     </row>
-    <row r="848" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B848" s="1"/>
       <c r="C848" s="11"/>
       <c r="D848" s="11"/>
@@ -17912,7 +18183,7 @@
       <c r="R848" s="13"/>
       <c r="S848" s="13"/>
     </row>
-    <row r="849" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B849" s="1"/>
       <c r="C849" s="11"/>
       <c r="D849" s="11"/>
@@ -17932,7 +18203,7 @@
       <c r="R849" s="13"/>
       <c r="S849" s="13"/>
     </row>
-    <row r="850" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B850" s="1"/>
       <c r="C850" s="11"/>
       <c r="D850" s="11"/>
@@ -17952,7 +18223,7 @@
       <c r="R850" s="13"/>
       <c r="S850" s="13"/>
     </row>
-    <row r="851" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B851" s="1"/>
       <c r="C851" s="11"/>
       <c r="D851" s="11"/>
@@ -17972,7 +18243,7 @@
       <c r="R851" s="13"/>
       <c r="S851" s="13"/>
     </row>
-    <row r="852" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B852" s="1"/>
       <c r="C852" s="11"/>
       <c r="D852" s="11"/>
@@ -17992,7 +18263,7 @@
       <c r="R852" s="13"/>
       <c r="S852" s="13"/>
     </row>
-    <row r="853" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B853" s="1"/>
       <c r="C853" s="11"/>
       <c r="D853" s="11"/>
@@ -18012,7 +18283,7 @@
       <c r="R853" s="13"/>
       <c r="S853" s="13"/>
     </row>
-    <row r="854" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B854" s="1"/>
       <c r="C854" s="11"/>
       <c r="D854" s="11"/>
@@ -18032,7 +18303,7 @@
       <c r="R854" s="13"/>
       <c r="S854" s="13"/>
     </row>
-    <row r="855" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B855" s="1"/>
       <c r="C855" s="11"/>
       <c r="D855" s="11"/>
@@ -18052,7 +18323,7 @@
       <c r="R855" s="13"/>
       <c r="S855" s="13"/>
     </row>
-    <row r="856" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B856" s="1"/>
       <c r="C856" s="11"/>
       <c r="D856" s="11"/>
@@ -18072,7 +18343,7 @@
       <c r="R856" s="13"/>
       <c r="S856" s="13"/>
     </row>
-    <row r="857" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B857" s="1"/>
       <c r="C857" s="11"/>
       <c r="D857" s="11"/>
@@ -18092,7 +18363,7 @@
       <c r="R857" s="13"/>
       <c r="S857" s="13"/>
     </row>
-    <row r="858" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B858" s="1"/>
       <c r="C858" s="11"/>
       <c r="D858" s="11"/>
@@ -18112,7 +18383,7 @@
       <c r="R858" s="13"/>
       <c r="S858" s="13"/>
     </row>
-    <row r="859" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B859" s="1"/>
       <c r="C859" s="11"/>
       <c r="D859" s="11"/>
@@ -18132,7 +18403,7 @@
       <c r="R859" s="13"/>
       <c r="S859" s="13"/>
     </row>
-    <row r="860" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B860" s="1"/>
       <c r="C860" s="11"/>
       <c r="D860" s="11"/>
@@ -18152,7 +18423,7 @@
       <c r="R860" s="13"/>
       <c r="S860" s="13"/>
     </row>
-    <row r="861" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B861" s="1"/>
       <c r="C861" s="11"/>
       <c r="D861" s="11"/>
@@ -18172,7 +18443,7 @@
       <c r="R861" s="13"/>
       <c r="S861" s="13"/>
     </row>
-    <row r="862" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B862" s="1"/>
       <c r="C862" s="11"/>
       <c r="D862" s="11"/>
@@ -18192,7 +18463,7 @@
       <c r="R862" s="13"/>
       <c r="S862" s="13"/>
     </row>
-    <row r="863" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B863" s="1"/>
       <c r="C863" s="11"/>
       <c r="D863" s="11"/>
@@ -18212,7 +18483,7 @@
       <c r="R863" s="13"/>
       <c r="S863" s="13"/>
     </row>
-    <row r="864" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B864" s="1"/>
       <c r="C864" s="11"/>
       <c r="D864" s="11"/>
@@ -18232,7 +18503,7 @@
       <c r="R864" s="13"/>
       <c r="S864" s="13"/>
     </row>
-    <row r="865" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B865" s="1"/>
       <c r="C865" s="11"/>
       <c r="D865" s="11"/>
@@ -18252,7 +18523,7 @@
       <c r="R865" s="13"/>
       <c r="S865" s="13"/>
     </row>
-    <row r="866" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B866" s="1"/>
       <c r="C866" s="11"/>
       <c r="D866" s="11"/>
@@ -18272,7 +18543,7 @@
       <c r="R866" s="13"/>
       <c r="S866" s="13"/>
     </row>
-    <row r="867" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B867" s="1"/>
       <c r="C867" s="11"/>
       <c r="D867" s="11"/>
@@ -18292,7 +18563,7 @@
       <c r="R867" s="13"/>
       <c r="S867" s="13"/>
     </row>
-    <row r="868" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B868" s="1"/>
       <c r="C868" s="11"/>
       <c r="D868" s="11"/>
@@ -18312,7 +18583,7 @@
       <c r="R868" s="13"/>
       <c r="S868" s="13"/>
     </row>
-    <row r="869" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B869" s="1"/>
       <c r="C869" s="11"/>
       <c r="D869" s="11"/>
@@ -18332,7 +18603,7 @@
       <c r="R869" s="13"/>
       <c r="S869" s="13"/>
     </row>
-    <row r="870" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B870" s="1"/>
       <c r="C870" s="11"/>
       <c r="D870" s="11"/>
@@ -18352,7 +18623,7 @@
       <c r="R870" s="13"/>
       <c r="S870" s="13"/>
     </row>
-    <row r="871" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B871" s="1"/>
       <c r="C871" s="11"/>
       <c r="D871" s="11"/>
@@ -18372,7 +18643,7 @@
       <c r="R871" s="13"/>
       <c r="S871" s="13"/>
     </row>
-    <row r="872" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B872" s="1"/>
       <c r="C872" s="11"/>
       <c r="D872" s="11"/>
@@ -18392,7 +18663,7 @@
       <c r="R872" s="13"/>
       <c r="S872" s="13"/>
     </row>
-    <row r="873" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B873" s="1"/>
       <c r="C873" s="11"/>
       <c r="D873" s="11"/>
@@ -18412,7 +18683,7 @@
       <c r="R873" s="13"/>
       <c r="S873" s="13"/>
     </row>
-    <row r="874" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B874" s="1"/>
       <c r="C874" s="11"/>
       <c r="D874" s="11"/>
@@ -18432,7 +18703,7 @@
       <c r="R874" s="13"/>
       <c r="S874" s="13"/>
     </row>
-    <row r="875" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B875" s="1"/>
       <c r="C875" s="11"/>
       <c r="D875" s="11"/>
@@ -18452,7 +18723,7 @@
       <c r="R875" s="13"/>
       <c r="S875" s="13"/>
     </row>
-    <row r="876" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B876" s="1"/>
       <c r="C876" s="11"/>
       <c r="D876" s="11"/>
@@ -18472,7 +18743,7 @@
       <c r="R876" s="13"/>
       <c r="S876" s="13"/>
     </row>
-    <row r="877" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B877" s="1"/>
       <c r="C877" s="11"/>
       <c r="D877" s="11"/>
@@ -18492,7 +18763,7 @@
       <c r="R877" s="13"/>
       <c r="S877" s="13"/>
     </row>
-    <row r="878" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B878" s="1"/>
       <c r="C878" s="11"/>
       <c r="D878" s="11"/>
@@ -18512,7 +18783,7 @@
       <c r="R878" s="13"/>
       <c r="S878" s="13"/>
     </row>
-    <row r="879" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B879" s="1"/>
       <c r="C879" s="11"/>
       <c r="D879" s="11"/>
@@ -18532,7 +18803,7 @@
       <c r="R879" s="13"/>
       <c r="S879" s="13"/>
     </row>
-    <row r="880" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B880" s="1"/>
       <c r="C880" s="11"/>
       <c r="D880" s="11"/>
@@ -18552,7 +18823,7 @@
       <c r="R880" s="13"/>
       <c r="S880" s="13"/>
     </row>
-    <row r="881" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B881" s="1"/>
       <c r="C881" s="11"/>
       <c r="D881" s="11"/>
@@ -18572,7 +18843,7 @@
       <c r="R881" s="13"/>
       <c r="S881" s="13"/>
     </row>
-    <row r="882" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B882" s="1"/>
       <c r="C882" s="11"/>
       <c r="D882" s="11"/>
@@ -18592,7 +18863,7 @@
       <c r="R882" s="13"/>
       <c r="S882" s="13"/>
     </row>
-    <row r="883" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B883" s="1"/>
       <c r="C883" s="11"/>
       <c r="D883" s="11"/>
@@ -18612,7 +18883,7 @@
       <c r="R883" s="13"/>
       <c r="S883" s="13"/>
     </row>
-    <row r="884" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B884" s="1"/>
       <c r="C884" s="11"/>
       <c r="D884" s="11"/>
@@ -18632,7 +18903,7 @@
       <c r="R884" s="13"/>
       <c r="S884" s="13"/>
     </row>
-    <row r="885" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B885" s="1"/>
       <c r="C885" s="11"/>
       <c r="D885" s="11"/>
@@ -18652,7 +18923,7 @@
       <c r="R885" s="13"/>
       <c r="S885" s="13"/>
     </row>
-    <row r="886" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B886" s="1"/>
       <c r="C886" s="11"/>
       <c r="D886" s="11"/>
@@ -18672,7 +18943,7 @@
       <c r="R886" s="13"/>
       <c r="S886" s="13"/>
     </row>
-    <row r="887" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B887" s="1"/>
       <c r="C887" s="11"/>
       <c r="D887" s="11"/>
@@ -18692,7 +18963,7 @@
       <c r="R887" s="13"/>
       <c r="S887" s="13"/>
     </row>
-    <row r="888" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B888" s="1"/>
       <c r="C888" s="11"/>
       <c r="D888" s="11"/>
@@ -18712,7 +18983,7 @@
       <c r="R888" s="13"/>
       <c r="S888" s="13"/>
     </row>
-    <row r="889" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B889" s="1"/>
       <c r="C889" s="11"/>
       <c r="D889" s="11"/>
@@ -18732,7 +19003,7 @@
       <c r="R889" s="13"/>
       <c r="S889" s="13"/>
     </row>
-    <row r="890" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B890" s="1"/>
       <c r="C890" s="11"/>
       <c r="D890" s="11"/>
@@ -18752,7 +19023,7 @@
       <c r="R890" s="13"/>
       <c r="S890" s="13"/>
     </row>
-    <row r="891" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B891" s="1"/>
       <c r="C891" s="11"/>
       <c r="D891" s="11"/>
@@ -18772,7 +19043,7 @@
       <c r="R891" s="13"/>
       <c r="S891" s="13"/>
     </row>
-    <row r="892" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B892" s="1"/>
       <c r="C892" s="11"/>
       <c r="D892" s="11"/>
@@ -18792,7 +19063,7 @@
       <c r="R892" s="13"/>
       <c r="S892" s="13"/>
     </row>
-    <row r="893" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B893" s="1"/>
       <c r="C893" s="11"/>
       <c r="D893" s="11"/>
@@ -18812,7 +19083,7 @@
       <c r="R893" s="13"/>
       <c r="S893" s="13"/>
     </row>
-    <row r="894" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B894" s="1"/>
       <c r="C894" s="11"/>
       <c r="D894" s="11"/>
@@ -18832,7 +19103,7 @@
       <c r="R894" s="13"/>
       <c r="S894" s="13"/>
     </row>
-    <row r="895" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B895" s="1"/>
       <c r="C895" s="11"/>
       <c r="D895" s="11"/>
@@ -18852,7 +19123,7 @@
       <c r="R895" s="13"/>
       <c r="S895" s="13"/>
     </row>
-    <row r="896" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B896" s="1"/>
       <c r="C896" s="11"/>
       <c r="D896" s="11"/>
@@ -18872,7 +19143,7 @@
       <c r="R896" s="13"/>
       <c r="S896" s="13"/>
     </row>
-    <row r="897" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B897" s="1"/>
       <c r="C897" s="11"/>
       <c r="D897" s="11"/>
@@ -18892,7 +19163,7 @@
       <c r="R897" s="13"/>
       <c r="S897" s="13"/>
     </row>
-    <row r="898" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B898" s="1"/>
       <c r="C898" s="11"/>
       <c r="D898" s="11"/>
@@ -18912,7 +19183,7 @@
       <c r="R898" s="13"/>
       <c r="S898" s="13"/>
     </row>
-    <row r="899" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B899" s="1"/>
       <c r="C899" s="11"/>
       <c r="D899" s="11"/>
@@ -18932,7 +19203,7 @@
       <c r="R899" s="13"/>
       <c r="S899" s="13"/>
     </row>
-    <row r="900" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B900" s="1"/>
       <c r="C900" s="11"/>
       <c r="D900" s="11"/>
@@ -18952,7 +19223,7 @@
       <c r="R900" s="13"/>
       <c r="S900" s="13"/>
     </row>
-    <row r="901" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B901" s="1"/>
       <c r="C901" s="11"/>
       <c r="D901" s="11"/>
@@ -18972,7 +19243,7 @@
       <c r="R901" s="13"/>
       <c r="S901" s="13"/>
     </row>
-    <row r="902" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B902" s="1"/>
       <c r="C902" s="11"/>
       <c r="D902" s="11"/>
@@ -18992,7 +19263,7 @@
       <c r="R902" s="13"/>
       <c r="S902" s="13"/>
     </row>
-    <row r="903" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B903" s="1"/>
       <c r="C903" s="11"/>
       <c r="D903" s="11"/>
@@ -19012,7 +19283,7 @@
       <c r="R903" s="13"/>
       <c r="S903" s="13"/>
     </row>
-    <row r="904" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B904" s="1"/>
       <c r="C904" s="11"/>
       <c r="D904" s="11"/>
@@ -19032,7 +19303,7 @@
       <c r="R904" s="13"/>
       <c r="S904" s="13"/>
     </row>
-    <row r="905" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B905" s="1"/>
       <c r="C905" s="11"/>
       <c r="D905" s="11"/>
@@ -19052,7 +19323,7 @@
       <c r="R905" s="13"/>
       <c r="S905" s="13"/>
     </row>
-    <row r="906" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B906" s="1"/>
       <c r="C906" s="11"/>
       <c r="D906" s="11"/>
@@ -19072,7 +19343,7 @@
       <c r="R906" s="13"/>
       <c r="S906" s="13"/>
     </row>
-    <row r="907" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B907" s="1"/>
       <c r="C907" s="11"/>
       <c r="D907" s="11"/>
@@ -19092,7 +19363,7 @@
       <c r="R907" s="13"/>
       <c r="S907" s="13"/>
     </row>
-    <row r="908" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B908" s="1"/>
       <c r="C908" s="11"/>
       <c r="D908" s="11"/>
@@ -19112,7 +19383,7 @@
       <c r="R908" s="13"/>
       <c r="S908" s="13"/>
     </row>
-    <row r="909" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B909" s="1"/>
       <c r="C909" s="11"/>
       <c r="D909" s="11"/>
@@ -19132,7 +19403,7 @@
       <c r="R909" s="13"/>
       <c r="S909" s="13"/>
     </row>
-    <row r="910" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B910" s="1"/>
       <c r="C910" s="11"/>
       <c r="D910" s="11"/>
@@ -19152,7 +19423,7 @@
       <c r="R910" s="13"/>
       <c r="S910" s="13"/>
     </row>
-    <row r="911" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B911" s="1"/>
       <c r="C911" s="11"/>
       <c r="D911" s="11"/>
@@ -19172,7 +19443,7 @@
       <c r="R911" s="13"/>
       <c r="S911" s="13"/>
     </row>
-    <row r="912" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B912" s="1"/>
       <c r="C912" s="11"/>
       <c r="D912" s="11"/>
@@ -19192,7 +19463,7 @@
       <c r="R912" s="13"/>
       <c r="S912" s="13"/>
     </row>
-    <row r="913" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B913" s="1"/>
       <c r="C913" s="11"/>
       <c r="D913" s="11"/>
@@ -19212,7 +19483,7 @@
       <c r="R913" s="13"/>
       <c r="S913" s="13"/>
     </row>
-    <row r="914" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B914" s="1"/>
       <c r="C914" s="11"/>
       <c r="D914" s="11"/>
@@ -19232,7 +19503,7 @@
       <c r="R914" s="13"/>
       <c r="S914" s="13"/>
     </row>
-    <row r="915" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B915" s="1"/>
       <c r="C915" s="11"/>
       <c r="D915" s="11"/>
@@ -19252,7 +19523,7 @@
       <c r="R915" s="13"/>
       <c r="S915" s="13"/>
     </row>
-    <row r="916" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B916" s="1"/>
       <c r="C916" s="11"/>
       <c r="D916" s="11"/>
@@ -19272,7 +19543,7 @@
       <c r="R916" s="13"/>
       <c r="S916" s="13"/>
     </row>
-    <row r="917" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B917" s="1"/>
       <c r="C917" s="11"/>
       <c r="D917" s="11"/>
@@ -19292,7 +19563,7 @@
       <c r="R917" s="13"/>
       <c r="S917" s="13"/>
     </row>
-    <row r="918" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B918" s="1"/>
       <c r="C918" s="11"/>
       <c r="D918" s="11"/>
@@ -19312,7 +19583,7 @@
       <c r="R918" s="13"/>
       <c r="S918" s="13"/>
     </row>
-    <row r="919" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B919" s="1"/>
       <c r="C919" s="11"/>
       <c r="D919" s="11"/>
@@ -19332,7 +19603,7 @@
       <c r="R919" s="13"/>
       <c r="S919" s="13"/>
     </row>
-    <row r="920" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B920" s="1"/>
       <c r="C920" s="11"/>
       <c r="D920" s="11"/>
@@ -19352,7 +19623,7 @@
       <c r="R920" s="13"/>
       <c r="S920" s="13"/>
     </row>
-    <row r="921" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B921" s="1"/>
       <c r="C921" s="11"/>
       <c r="D921" s="11"/>
@@ -19372,7 +19643,7 @@
       <c r="R921" s="13"/>
       <c r="S921" s="13"/>
     </row>
-    <row r="922" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B922" s="1"/>
       <c r="C922" s="11"/>
       <c r="D922" s="11"/>
@@ -19392,7 +19663,7 @@
       <c r="R922" s="13"/>
       <c r="S922" s="13"/>
     </row>
-    <row r="923" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B923" s="1"/>
       <c r="C923" s="11"/>
       <c r="D923" s="11"/>
@@ -19412,7 +19683,7 @@
       <c r="R923" s="13"/>
       <c r="S923" s="13"/>
     </row>
-    <row r="924" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B924" s="1"/>
       <c r="C924" s="11"/>
       <c r="D924" s="11"/>
@@ -19432,7 +19703,7 @@
       <c r="R924" s="13"/>
       <c r="S924" s="13"/>
     </row>
-    <row r="925" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B925" s="1"/>
       <c r="C925" s="11"/>
       <c r="D925" s="11"/>
@@ -19452,7 +19723,7 @@
       <c r="R925" s="13"/>
       <c r="S925" s="13"/>
     </row>
-    <row r="926" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B926" s="1"/>
       <c r="C926" s="11"/>
       <c r="D926" s="11"/>
@@ -19472,7 +19743,7 @@
       <c r="R926" s="13"/>
       <c r="S926" s="13"/>
     </row>
-    <row r="927" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B927" s="1"/>
       <c r="C927" s="11"/>
       <c r="D927" s="11"/>
@@ -19492,7 +19763,7 @@
       <c r="R927" s="13"/>
       <c r="S927" s="13"/>
     </row>
-    <row r="928" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B928" s="1"/>
       <c r="C928" s="11"/>
       <c r="D928" s="11"/>
@@ -19512,7 +19783,7 @@
       <c r="R928" s="13"/>
       <c r="S928" s="13"/>
     </row>
-    <row r="929" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B929" s="1"/>
       <c r="C929" s="11"/>
       <c r="D929" s="11"/>
@@ -19532,7 +19803,7 @@
       <c r="R929" s="13"/>
       <c r="S929" s="13"/>
     </row>
-    <row r="930" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B930" s="1"/>
       <c r="C930" s="11"/>
       <c r="D930" s="11"/>
@@ -19552,7 +19823,7 @@
       <c r="R930" s="13"/>
       <c r="S930" s="13"/>
     </row>
-    <row r="931" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B931" s="1"/>
       <c r="C931" s="11"/>
       <c r="D931" s="11"/>
@@ -19572,7 +19843,7 @@
       <c r="R931" s="13"/>
       <c r="S931" s="13"/>
     </row>
-    <row r="932" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B932" s="1"/>
       <c r="C932" s="11"/>
       <c r="D932" s="11"/>
@@ -19592,7 +19863,7 @@
       <c r="R932" s="13"/>
       <c r="S932" s="13"/>
     </row>
-    <row r="933" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B933" s="1"/>
       <c r="C933" s="11"/>
       <c r="D933" s="11"/>
@@ -19612,7 +19883,7 @@
       <c r="R933" s="13"/>
       <c r="S933" s="13"/>
     </row>
-    <row r="934" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B934" s="1"/>
       <c r="C934" s="11"/>
       <c r="D934" s="11"/>
@@ -19632,7 +19903,7 @@
       <c r="R934" s="13"/>
       <c r="S934" s="13"/>
     </row>
-    <row r="935" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B935" s="1"/>
       <c r="C935" s="11"/>
       <c r="D935" s="11"/>
@@ -19652,7 +19923,7 @@
       <c r="R935" s="13"/>
       <c r="S935" s="13"/>
     </row>
-    <row r="936" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B936" s="1"/>
       <c r="C936" s="11"/>
       <c r="D936" s="11"/>
@@ -19672,7 +19943,7 @@
       <c r="R936" s="13"/>
       <c r="S936" s="13"/>
     </row>
-    <row r="937" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B937" s="1"/>
       <c r="C937" s="11"/>
       <c r="D937" s="11"/>
@@ -19692,7 +19963,7 @@
       <c r="R937" s="13"/>
       <c r="S937" s="13"/>
     </row>
-    <row r="938" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B938" s="1"/>
       <c r="C938" s="11"/>
       <c r="D938" s="11"/>
@@ -19712,7 +19983,7 @@
       <c r="R938" s="13"/>
       <c r="S938" s="13"/>
     </row>
-    <row r="939" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B939" s="1"/>
       <c r="C939" s="11"/>
       <c r="D939" s="11"/>
@@ -19732,7 +20003,7 @@
       <c r="R939" s="13"/>
       <c r="S939" s="13"/>
     </row>
-    <row r="940" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B940" s="1"/>
       <c r="C940" s="11"/>
       <c r="D940" s="11"/>
@@ -19752,7 +20023,7 @@
       <c r="R940" s="13"/>
       <c r="S940" s="13"/>
     </row>
-    <row r="941" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B941" s="1"/>
       <c r="C941" s="11"/>
       <c r="D941" s="11"/>
@@ -19772,7 +20043,7 @@
       <c r="R941" s="13"/>
       <c r="S941" s="13"/>
     </row>
-    <row r="942" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B942" s="1"/>
       <c r="C942" s="11"/>
       <c r="D942" s="11"/>
@@ -19792,7 +20063,7 @@
       <c r="R942" s="13"/>
       <c r="S942" s="13"/>
     </row>
-    <row r="943" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B943" s="1"/>
       <c r="C943" s="11"/>
       <c r="D943" s="11"/>
@@ -19812,7 +20083,7 @@
       <c r="R943" s="13"/>
       <c r="S943" s="13"/>
     </row>
-    <row r="944" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B944" s="1"/>
       <c r="C944" s="11"/>
       <c r="D944" s="11"/>
@@ -19832,7 +20103,7 @@
       <c r="R944" s="13"/>
       <c r="S944" s="13"/>
     </row>
-    <row r="945" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B945" s="1"/>
       <c r="C945" s="11"/>
       <c r="D945" s="11"/>
@@ -19852,7 +20123,7 @@
       <c r="R945" s="13"/>
       <c r="S945" s="13"/>
     </row>
-    <row r="946" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B946" s="1"/>
       <c r="C946" s="11"/>
       <c r="D946" s="11"/>
@@ -19872,7 +20143,7 @@
       <c r="R946" s="13"/>
       <c r="S946" s="13"/>
     </row>
-    <row r="947" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B947" s="1"/>
       <c r="C947" s="11"/>
       <c r="D947" s="11"/>
@@ -19892,7 +20163,7 @@
       <c r="R947" s="13"/>
       <c r="S947" s="13"/>
     </row>
-    <row r="948" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B948" s="1"/>
       <c r="C948" s="11"/>
       <c r="D948" s="11"/>
@@ -19912,7 +20183,7 @@
       <c r="R948" s="13"/>
       <c r="S948" s="13"/>
     </row>
-    <row r="949" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B949" s="1"/>
       <c r="C949" s="11"/>
       <c r="D949" s="11"/>
@@ -19932,7 +20203,7 @@
       <c r="R949" s="13"/>
       <c r="S949" s="13"/>
     </row>
-    <row r="950" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B950" s="1"/>
       <c r="C950" s="11"/>
       <c r="D950" s="11"/>
@@ -19952,7 +20223,7 @@
       <c r="R950" s="13"/>
       <c r="S950" s="13"/>
     </row>
-    <row r="951" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B951" s="1"/>
       <c r="C951" s="11"/>
       <c r="D951" s="11"/>
@@ -19972,7 +20243,7 @@
       <c r="R951" s="13"/>
       <c r="S951" s="13"/>
     </row>
-    <row r="952" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B952" s="1"/>
       <c r="C952" s="11"/>
       <c r="D952" s="11"/>
@@ -19992,7 +20263,7 @@
       <c r="R952" s="13"/>
       <c r="S952" s="13"/>
     </row>
-    <row r="953" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B953" s="1"/>
       <c r="C953" s="11"/>
       <c r="D953" s="11"/>
@@ -20012,7 +20283,7 @@
       <c r="R953" s="13"/>
       <c r="S953" s="13"/>
     </row>
-    <row r="954" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B954" s="1"/>
       <c r="C954" s="11"/>
       <c r="D954" s="11"/>
@@ -20032,7 +20303,7 @@
       <c r="R954" s="13"/>
       <c r="S954" s="13"/>
     </row>
-    <row r="955" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B955" s="1"/>
       <c r="C955" s="11"/>
       <c r="D955" s="11"/>
@@ -20052,7 +20323,7 @@
       <c r="R955" s="13"/>
       <c r="S955" s="13"/>
     </row>
-    <row r="956" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B956" s="1"/>
       <c r="C956" s="11"/>
       <c r="D956" s="11"/>
@@ -20072,7 +20343,7 @@
       <c r="R956" s="13"/>
       <c r="S956" s="13"/>
     </row>
-    <row r="957" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B957" s="1"/>
       <c r="C957" s="11"/>
       <c r="D957" s="11"/>
@@ -20092,7 +20363,7 @@
       <c r="R957" s="13"/>
       <c r="S957" s="13"/>
     </row>
-    <row r="958" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B958" s="1"/>
       <c r="C958" s="11"/>
       <c r="D958" s="11"/>
@@ -20112,7 +20383,7 @@
       <c r="R958" s="13"/>
       <c r="S958" s="13"/>
     </row>
-    <row r="959" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B959" s="1"/>
       <c r="C959" s="11"/>
       <c r="D959" s="11"/>
@@ -20132,7 +20403,7 @@
       <c r="R959" s="13"/>
       <c r="S959" s="13"/>
     </row>
-    <row r="960" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B960" s="1"/>
       <c r="C960" s="11"/>
       <c r="D960" s="11"/>
@@ -20152,7 +20423,7 @@
       <c r="R960" s="13"/>
       <c r="S960" s="13"/>
     </row>
-    <row r="961" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B961" s="1"/>
       <c r="C961" s="11"/>
       <c r="D961" s="11"/>
@@ -20172,7 +20443,7 @@
       <c r="R961" s="13"/>
       <c r="S961" s="13"/>
     </row>
-    <row r="962" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B962" s="1"/>
       <c r="C962" s="11"/>
       <c r="D962" s="11"/>
@@ -20192,7 +20463,7 @@
       <c r="R962" s="13"/>
       <c r="S962" s="13"/>
     </row>
-    <row r="963" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B963" s="1"/>
       <c r="C963" s="11"/>
       <c r="D963" s="11"/>
@@ -20212,7 +20483,7 @@
       <c r="R963" s="13"/>
       <c r="S963" s="13"/>
     </row>
-    <row r="964" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B964" s="1"/>
       <c r="C964" s="11"/>
       <c r="D964" s="11"/>
@@ -20232,7 +20503,7 @@
       <c r="R964" s="13"/>
       <c r="S964" s="13"/>
     </row>
-    <row r="965" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B965" s="1"/>
       <c r="C965" s="11"/>
       <c r="D965" s="11"/>
@@ -20252,7 +20523,7 @@
       <c r="R965" s="13"/>
       <c r="S965" s="13"/>
     </row>
-    <row r="966" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B966" s="1"/>
       <c r="C966" s="11"/>
       <c r="D966" s="11"/>
@@ -20272,7 +20543,7 @@
       <c r="R966" s="13"/>
       <c r="S966" s="13"/>
     </row>
-    <row r="967" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B967" s="1"/>
       <c r="C967" s="11"/>
       <c r="D967" s="11"/>
@@ -20292,7 +20563,7 @@
       <c r="R967" s="13"/>
       <c r="S967" s="13"/>
     </row>
-    <row r="968" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B968" s="1"/>
       <c r="C968" s="11"/>
       <c r="D968" s="11"/>
@@ -20312,7 +20583,7 @@
       <c r="R968" s="13"/>
       <c r="S968" s="13"/>
     </row>
-    <row r="969" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B969" s="1"/>
       <c r="C969" s="11"/>
       <c r="D969" s="11"/>
@@ -20332,7 +20603,7 @@
       <c r="R969" s="13"/>
       <c r="S969" s="13"/>
     </row>
-    <row r="970" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B970" s="1"/>
       <c r="C970" s="11"/>
       <c r="D970" s="11"/>
@@ -20352,7 +20623,7 @@
       <c r="R970" s="13"/>
       <c r="S970" s="13"/>
     </row>
-    <row r="971" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B971" s="1"/>
       <c r="C971" s="11"/>
       <c r="D971" s="11"/>
@@ -20372,7 +20643,7 @@
       <c r="R971" s="13"/>
       <c r="S971" s="13"/>
     </row>
-    <row r="972" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B972" s="1"/>
       <c r="C972" s="11"/>
       <c r="D972" s="11"/>
@@ -20392,7 +20663,7 @@
       <c r="R972" s="13"/>
       <c r="S972" s="13"/>
     </row>
-    <row r="973" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B973" s="1"/>
       <c r="C973" s="11"/>
       <c r="D973" s="11"/>
@@ -20412,7 +20683,7 @@
       <c r="R973" s="13"/>
       <c r="S973" s="13"/>
     </row>
-    <row r="974" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B974" s="1"/>
       <c r="C974" s="11"/>
       <c r="D974" s="11"/>
@@ -20432,7 +20703,7 @@
       <c r="R974" s="13"/>
       <c r="S974" s="13"/>
     </row>
-    <row r="975" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B975" s="1"/>
       <c r="C975" s="11"/>
       <c r="D975" s="11"/>
@@ -20452,7 +20723,7 @@
       <c r="R975" s="13"/>
       <c r="S975" s="13"/>
     </row>
-    <row r="976" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B976" s="1"/>
       <c r="C976" s="11"/>
       <c r="D976" s="11"/>
@@ -20472,7 +20743,7 @@
       <c r="R976" s="13"/>
       <c r="S976" s="13"/>
     </row>
-    <row r="977" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B977" s="1"/>
       <c r="C977" s="11"/>
       <c r="D977" s="11"/>
@@ -20492,7 +20763,7 @@
       <c r="R977" s="13"/>
       <c r="S977" s="13"/>
     </row>
-    <row r="978" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B978" s="1"/>
       <c r="C978" s="11"/>
       <c r="D978" s="11"/>
@@ -20512,7 +20783,7 @@
       <c r="R978" s="13"/>
       <c r="S978" s="13"/>
     </row>
-    <row r="979" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B979" s="1"/>
       <c r="C979" s="11"/>
       <c r="D979" s="11"/>
@@ -20532,7 +20803,7 @@
       <c r="R979" s="13"/>
       <c r="S979" s="13"/>
     </row>
-    <row r="980" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B980" s="1"/>
       <c r="C980" s="11"/>
       <c r="D980" s="11"/>
@@ -20552,7 +20823,7 @@
       <c r="R980" s="13"/>
       <c r="S980" s="13"/>
     </row>
-    <row r="981" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B981" s="1"/>
       <c r="C981" s="11"/>
       <c r="D981" s="11"/>
@@ -20572,7 +20843,7 @@
       <c r="R981" s="13"/>
       <c r="S981" s="13"/>
     </row>
-    <row r="982" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B982" s="1"/>
       <c r="C982" s="11"/>
       <c r="D982" s="11"/>
@@ -20592,7 +20863,7 @@
       <c r="R982" s="13"/>
       <c r="S982" s="13"/>
     </row>
-    <row r="983" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B983" s="1"/>
       <c r="C983" s="11"/>
       <c r="D983" s="11"/>
@@ -20612,7 +20883,7 @@
       <c r="R983" s="13"/>
       <c r="S983" s="13"/>
     </row>
-    <row r="984" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B984" s="1"/>
       <c r="C984" s="11"/>
       <c r="D984" s="11"/>
@@ -20632,7 +20903,7 @@
       <c r="R984" s="13"/>
       <c r="S984" s="13"/>
     </row>
-    <row r="985" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B985" s="1"/>
       <c r="C985" s="11"/>
       <c r="D985" s="11"/>
@@ -20652,7 +20923,7 @@
       <c r="R985" s="13"/>
       <c r="S985" s="13"/>
     </row>
-    <row r="986" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B986" s="1"/>
       <c r="C986" s="11"/>
       <c r="D986" s="11"/>
@@ -20672,7 +20943,7 @@
       <c r="R986" s="13"/>
       <c r="S986" s="13"/>
     </row>
-    <row r="987" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B987" s="1"/>
       <c r="C987" s="11"/>
       <c r="D987" s="11"/>
@@ -20692,7 +20963,7 @@
       <c r="R987" s="13"/>
       <c r="S987" s="13"/>
     </row>
-    <row r="988" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B988" s="1"/>
       <c r="C988" s="11"/>
       <c r="D988" s="11"/>
@@ -20712,7 +20983,7 @@
       <c r="R988" s="13"/>
       <c r="S988" s="13"/>
     </row>
-    <row r="989" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B989" s="1"/>
       <c r="C989" s="11"/>
       <c r="D989" s="11"/>
@@ -20732,7 +21003,7 @@
       <c r="R989" s="13"/>
       <c r="S989" s="13"/>
     </row>
-    <row r="990" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B990" s="1"/>
       <c r="C990" s="11"/>
       <c r="D990" s="11"/>
@@ -20752,7 +21023,7 @@
       <c r="R990" s="13"/>
       <c r="S990" s="13"/>
     </row>
-    <row r="991" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B991" s="1"/>
       <c r="C991" s="11"/>
       <c r="D991" s="11"/>
@@ -20772,7 +21043,7 @@
       <c r="R991" s="13"/>
       <c r="S991" s="13"/>
     </row>
-    <row r="992" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B992" s="1"/>
       <c r="C992" s="11"/>
       <c r="D992" s="11"/>
@@ -20792,7 +21063,7 @@
       <c r="R992" s="13"/>
       <c r="S992" s="13"/>
     </row>
-    <row r="993" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B993" s="1"/>
       <c r="C993" s="11"/>
       <c r="D993" s="11"/>
@@ -20812,7 +21083,7 @@
       <c r="R993" s="13"/>
       <c r="S993" s="13"/>
     </row>
-    <row r="994" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B994" s="1"/>
       <c r="C994" s="11"/>
       <c r="D994" s="11"/>
@@ -20832,7 +21103,7 @@
       <c r="R994" s="13"/>
       <c r="S994" s="13"/>
     </row>
-    <row r="995" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B995" s="1"/>
       <c r="C995" s="11"/>
       <c r="D995" s="11"/>
@@ -20852,7 +21123,7 @@
       <c r="R995" s="13"/>
       <c r="S995" s="13"/>
     </row>
-    <row r="996" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B996" s="1"/>
       <c r="C996" s="11"/>
       <c r="D996" s="11"/>
@@ -20872,7 +21143,7 @@
       <c r="R996" s="13"/>
       <c r="S996" s="13"/>
     </row>
-    <row r="997" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B997" s="1"/>
       <c r="C997" s="11"/>
       <c r="D997" s="11"/>
@@ -20892,7 +21163,7 @@
       <c r="R997" s="13"/>
       <c r="S997" s="13"/>
     </row>
-    <row r="998" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B998" s="1"/>
       <c r="C998" s="11"/>
       <c r="D998" s="11"/>
@@ -20912,7 +21183,7 @@
       <c r="R998" s="13"/>
       <c r="S998" s="13"/>
     </row>
-    <row r="999" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B999" s="1"/>
       <c r="C999" s="11"/>
       <c r="D999" s="11"/>
@@ -20932,7 +21203,7 @@
       <c r="R999" s="13"/>
       <c r="S999" s="13"/>
     </row>
-    <row r="1000" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1000" s="1"/>
       <c r="C1000" s="11"/>
       <c r="D1000" s="11"/>
@@ -20952,7 +21223,7 @@
       <c r="R1000" s="13"/>
       <c r="S1000" s="13"/>
     </row>
-    <row r="1001" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1001" s="1"/>
       <c r="C1001" s="11"/>
       <c r="D1001" s="11"/>
@@ -20972,7 +21243,7 @@
       <c r="R1001" s="13"/>
       <c r="S1001" s="13"/>
     </row>
-    <row r="1002" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1002" s="1"/>
       <c r="C1002" s="11"/>
       <c r="D1002" s="11"/>
@@ -20992,7 +21263,7 @@
       <c r="R1002" s="13"/>
       <c r="S1002" s="13"/>
     </row>
-    <row r="1003" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1003" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1003" s="1"/>
       <c r="C1003" s="11"/>
       <c r="D1003" s="11"/>
@@ -21012,7 +21283,7 @@
       <c r="R1003" s="13"/>
       <c r="S1003" s="13"/>
     </row>
-    <row r="1004" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1004" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1004" s="1"/>
       <c r="C1004" s="11"/>
       <c r="D1004" s="11"/>
@@ -21032,6 +21303,66 @@
       <c r="R1004" s="13"/>
       <c r="S1004" s="13"/>
     </row>
+    <row r="1005" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="11"/>
+      <c r="D1005" s="11"/>
+      <c r="E1005" s="12"/>
+      <c r="F1005" s="12"/>
+      <c r="G1005" s="12"/>
+      <c r="H1005" s="12"/>
+      <c r="I1005" s="13"/>
+      <c r="J1005" s="13"/>
+      <c r="K1005" s="13"/>
+      <c r="L1005" s="13"/>
+      <c r="M1005" s="13"/>
+      <c r="N1005" s="13"/>
+      <c r="O1005" s="13"/>
+      <c r="P1005" s="13"/>
+      <c r="Q1005" s="13"/>
+      <c r="R1005" s="13"/>
+      <c r="S1005" s="13"/>
+    </row>
+    <row r="1006" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="11"/>
+      <c r="D1006" s="11"/>
+      <c r="E1006" s="12"/>
+      <c r="F1006" s="12"/>
+      <c r="G1006" s="12"/>
+      <c r="H1006" s="12"/>
+      <c r="I1006" s="13"/>
+      <c r="J1006" s="13"/>
+      <c r="K1006" s="13"/>
+      <c r="L1006" s="13"/>
+      <c r="M1006" s="13"/>
+      <c r="N1006" s="13"/>
+      <c r="O1006" s="13"/>
+      <c r="P1006" s="13"/>
+      <c r="Q1006" s="13"/>
+      <c r="R1006" s="13"/>
+      <c r="S1006" s="13"/>
+    </row>
+    <row r="1007" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="11"/>
+      <c r="D1007" s="11"/>
+      <c r="E1007" s="12"/>
+      <c r="F1007" s="12"/>
+      <c r="G1007" s="12"/>
+      <c r="H1007" s="12"/>
+      <c r="I1007" s="13"/>
+      <c r="J1007" s="13"/>
+      <c r="K1007" s="13"/>
+      <c r="L1007" s="13"/>
+      <c r="M1007" s="13"/>
+      <c r="N1007" s="13"/>
+      <c r="O1007" s="13"/>
+      <c r="P1007" s="13"/>
+      <c r="Q1007" s="13"/>
+      <c r="R1007" s="13"/>
+      <c r="S1007" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>

--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUCDOAN\Desktop\DOAN1\DOAN1_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam3\DoAn1\DOAN1_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F18A0-073A-49F4-A439-8AF80ADB1C0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -160,11 +159,53 @@
   <si>
     <t>15/10/2019</t>
   </si>
+  <si>
+    <t>chuẩn bị dự án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cơ sở dữ liệu </t>
+  </si>
+  <si>
+    <t>Trưng bày hàng hóa</t>
+  </si>
+  <si>
+    <t>Hiển thị các hàng hóa trên layout</t>
+  </si>
+  <si>
+    <t>Xây dựng layout</t>
+  </si>
+  <si>
+    <t>Xây dựng lớp entity</t>
+  </si>
+  <si>
+    <t>Xây dựng lớp Dao</t>
+  </si>
+  <si>
+    <t>Hiển thị hàng hóa theo loại</t>
+  </si>
+  <si>
+    <t>Hiển thị hàng hóa trong tìm kiếm</t>
+  </si>
+  <si>
+    <t>Giỏ hàng điện tử</t>
+  </si>
+  <si>
+    <t>Chọn hàng</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xây dựng mô hình giỏ hàng điện tử</t>
+  </si>
+  <si>
+    <t>Chi tiết hàng hóa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
@@ -301,7 +342,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Kế Hoạch-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Kế Hoạch-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -422,15 +463,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>145595</xdr:colOff>
+      <xdr:colOff>62252</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>865275</xdr:rowOff>
+      <xdr:rowOff>198525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2936421</xdr:colOff>
+      <xdr:colOff>2853078</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1881868</xdr:rowOff>
+      <xdr:rowOff>1215118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -459,7 +500,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2088695" y="11666625"/>
+          <a:off x="1943440" y="12152400"/>
           <a:ext cx="2790826" cy="1016593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -527,13 +568,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>89562</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>736022</xdr:rowOff>
+      <xdr:rowOff>640772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2874326</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2079912</xdr:rowOff>
+      <xdr:rowOff>1984662</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -561,7 +602,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2032662" y="20147972"/>
+          <a:off x="1970750" y="20929022"/>
           <a:ext cx="2784764" cy="1343890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -578,15 +619,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>50222</xdr:colOff>
+      <xdr:colOff>62129</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>370609</xdr:rowOff>
+      <xdr:rowOff>322984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2807277</xdr:colOff>
+      <xdr:colOff>2819184</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1575955</xdr:rowOff>
+      <xdr:rowOff>1528330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -614,7 +655,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1993322" y="23916409"/>
+          <a:off x="1943317" y="25087984"/>
           <a:ext cx="2757055" cy="1205346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -927,24 +968,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="14.6640625" style="15" customWidth="1"/>
-    <col min="9" max="23" width="8.6640625" style="2" customWidth="1"/>
-    <col min="24" max="16384" width="14.44140625" style="2"/>
+    <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="15" customWidth="1"/>
+    <col min="9" max="23" width="8.7109375" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
@@ -971,7 +1013,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>15</v>
       </c>
@@ -998,7 +1040,7 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1081,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1108,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1140,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1172,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1162,7 +1204,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1194,7 +1236,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" s="16" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1230,7 +1272,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:23" s="16" customFormat="1" ht="327" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="16" customFormat="1" ht="327" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1308,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:23" s="16" customFormat="1" ht="363.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="16" customFormat="1" ht="247.5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +1344,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" s="16" customFormat="1" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="16" customFormat="1" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1380,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:23" s="16" customFormat="1" ht="352.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="16" customFormat="1" ht="352.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1374,7 +1416,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:23" s="16" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="16" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1410,7 +1452,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:23" s="16" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="16" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -1437,7 +1479,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1513,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
@@ -1499,7 +1541,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1527,8 +1569,10 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
+    <row r="19" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="7"/>
@@ -1551,10 +1595,14 @@
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
     </row>
-    <row r="20" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1575,9 +1623,13 @@
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
     </row>
-    <row r="21" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
+    <row r="21" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="10"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1599,10 +1651,14 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
     </row>
-    <row r="22" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
+    <row r="22" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -1623,9 +1679,13 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
     </row>
-    <row r="23" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
+    <row r="23" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D23" s="10"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1647,7 +1707,10 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
     </row>
-    <row r="24" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1671,9 +1734,13 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
+    <row r="25" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D25" s="10"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1695,9 +1762,13 @@
       <c r="V25" s="8"/>
       <c r="W25" s="8"/>
     </row>
-    <row r="26" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
+    <row r="26" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -1719,12 +1790,20 @@
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
     </row>
-    <row r="27" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
+    <row r="27" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="E27" s="7">
+        <v>43758</v>
+      </c>
+      <c r="F27" s="7">
+        <v>43759</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="8"/>
@@ -1743,14 +1822,26 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+    <row r="28" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="E28" s="7">
+        <v>43761</v>
+      </c>
+      <c r="F28" s="7">
+        <v>43763</v>
+      </c>
+      <c r="G28" s="7">
+        <v>43761</v>
+      </c>
+      <c r="H28" s="7">
+        <v>43766</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1767,8 +1858,10 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="9"/>
+    <row r="29" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="7"/>
@@ -1791,8 +1884,10 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="7"/>
@@ -1815,8 +1910,10 @@
       <c r="V30" s="8"/>
       <c r="W30" s="8"/>
     </row>
-    <row r="31" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="7"/>
@@ -1839,8 +1936,10 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="9"/>
+    <row r="32" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="7"/>
@@ -1863,7 +1962,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="2:19" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1883,7 +1982,7 @@
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
     </row>
-    <row r="34" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1903,7 +2002,7 @@
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
     </row>
-    <row r="35" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1923,7 +2022,7 @@
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
     </row>
-    <row r="36" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1943,7 +2042,7 @@
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
     </row>
-    <row r="37" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1963,7 +2062,7 @@
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
     </row>
-    <row r="38" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1983,7 +2082,7 @@
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
     </row>
-    <row r="39" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -2003,7 +2102,7 @@
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
     </row>
-    <row r="40" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2023,7 +2122,7 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
     </row>
-    <row r="41" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2043,7 +2142,7 @@
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
     </row>
-    <row r="42" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -2063,7 +2162,7 @@
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
     </row>
-    <row r="43" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2083,7 +2182,7 @@
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
     </row>
-    <row r="44" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -2103,7 +2202,7 @@
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
     </row>
-    <row r="45" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -2123,7 +2222,7 @@
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
     </row>
-    <row r="46" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -2143,7 +2242,7 @@
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
     </row>
-    <row r="47" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2163,7 +2262,7 @@
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
     </row>
-    <row r="48" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -2183,7 +2282,7 @@
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
     </row>
-    <row r="49" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -2203,7 +2302,7 @@
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
     </row>
-    <row r="50" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -2223,7 +2322,7 @@
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
     </row>
-    <row r="51" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2243,7 +2342,7 @@
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
     </row>
-    <row r="52" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -2263,7 +2362,7 @@
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
     </row>
-    <row r="53" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2283,7 +2382,7 @@
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
     </row>
-    <row r="54" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2303,7 +2402,7 @@
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
     </row>
-    <row r="55" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2323,7 +2422,7 @@
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
     </row>
-    <row r="56" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2343,7 +2442,7 @@
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
     </row>
-    <row r="57" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2363,7 +2462,7 @@
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
     </row>
-    <row r="58" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2383,7 +2482,7 @@
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
     </row>
-    <row r="59" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2403,7 +2502,7 @@
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
     </row>
-    <row r="60" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2423,7 +2522,7 @@
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
     </row>
-    <row r="61" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2443,7 +2542,7 @@
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
     </row>
-    <row r="62" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2463,7 +2562,7 @@
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
     </row>
-    <row r="63" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2483,7 +2582,7 @@
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
     </row>
-    <row r="64" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -2503,7 +2602,7 @@
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
     </row>
-    <row r="65" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -2523,7 +2622,7 @@
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
     </row>
-    <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -2543,7 +2642,7 @@
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
     </row>
-    <row r="67" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -2563,7 +2662,7 @@
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -2583,7 +2682,7 @@
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -2603,7 +2702,7 @@
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
     </row>
-    <row r="70" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -2623,7 +2722,7 @@
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -2643,7 +2742,7 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
     </row>
-    <row r="72" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -2663,7 +2762,7 @@
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
     </row>
-    <row r="73" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -2683,7 +2782,7 @@
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
     </row>
-    <row r="74" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -2703,7 +2802,7 @@
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
     </row>
-    <row r="75" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -2723,7 +2822,7 @@
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
     </row>
-    <row r="76" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -2743,7 +2842,7 @@
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
     </row>
-    <row r="77" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2763,7 +2862,7 @@
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
     </row>
-    <row r="78" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2783,7 +2882,7 @@
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2803,7 +2902,7 @@
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
     </row>
-    <row r="80" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2823,7 +2922,7 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
     </row>
-    <row r="81" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2843,7 +2942,7 @@
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
     </row>
-    <row r="82" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2863,7 +2962,7 @@
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
     </row>
-    <row r="83" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2883,7 +2982,7 @@
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
     </row>
-    <row r="84" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2903,7 +3002,7 @@
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
     </row>
-    <row r="85" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2923,7 +3022,7 @@
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
     </row>
-    <row r="86" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2943,7 +3042,7 @@
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
     </row>
-    <row r="87" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2963,7 +3062,7 @@
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
     </row>
-    <row r="88" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2983,7 +3082,7 @@
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
     </row>
-    <row r="89" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -3003,7 +3102,7 @@
       <c r="R89" s="13"/>
       <c r="S89" s="13"/>
     </row>
-    <row r="90" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -3023,7 +3122,7 @@
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
     </row>
-    <row r="91" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -3043,7 +3142,7 @@
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
     </row>
-    <row r="92" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -3063,7 +3162,7 @@
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3083,7 +3182,7 @@
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
     </row>
-    <row r="94" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3103,7 +3202,7 @@
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
     </row>
-    <row r="95" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -3123,7 +3222,7 @@
       <c r="R95" s="13"/>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3143,7 +3242,7 @@
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
     </row>
-    <row r="97" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -3163,7 +3262,7 @@
       <c r="R97" s="13"/>
       <c r="S97" s="13"/>
     </row>
-    <row r="98" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -3183,7 +3282,7 @@
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
     </row>
-    <row r="99" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -3203,7 +3302,7 @@
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
     </row>
-    <row r="100" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -3223,7 +3322,7 @@
       <c r="R100" s="13"/>
       <c r="S100" s="13"/>
     </row>
-    <row r="101" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -3243,7 +3342,7 @@
       <c r="R101" s="13"/>
       <c r="S101" s="13"/>
     </row>
-    <row r="102" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -3263,7 +3362,7 @@
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
     </row>
-    <row r="103" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -3283,7 +3382,7 @@
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
     </row>
-    <row r="104" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3303,7 +3402,7 @@
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
     </row>
-    <row r="105" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -3323,7 +3422,7 @@
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
     </row>
-    <row r="106" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -3343,7 +3442,7 @@
       <c r="R106" s="13"/>
       <c r="S106" s="13"/>
     </row>
-    <row r="107" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -3363,7 +3462,7 @@
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
     </row>
-    <row r="108" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -3383,7 +3482,7 @@
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
     </row>
-    <row r="109" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -3403,7 +3502,7 @@
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
     </row>
-    <row r="110" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -3423,7 +3522,7 @@
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
     </row>
-    <row r="111" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -3443,7 +3542,7 @@
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -3463,7 +3562,7 @@
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -3483,7 +3582,7 @@
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
     </row>
-    <row r="114" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -3503,7 +3602,7 @@
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -3523,7 +3622,7 @@
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -3543,7 +3642,7 @@
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
@@ -3563,7 +3662,7 @@
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
@@ -3583,7 +3682,7 @@
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -3603,7 +3702,7 @@
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -3623,7 +3722,7 @@
       <c r="R120" s="13"/>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
@@ -3643,7 +3742,7 @@
       <c r="R121" s="13"/>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
@@ -3663,7 +3762,7 @@
       <c r="R122" s="13"/>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="11"/>
       <c r="D123" s="11"/>
@@ -3683,7 +3782,7 @@
       <c r="R123" s="13"/>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
@@ -3703,7 +3802,7 @@
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
@@ -3723,7 +3822,7 @@
       <c r="R125" s="13"/>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
@@ -3743,7 +3842,7 @@
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
@@ -3763,7 +3862,7 @@
       <c r="R127" s="13"/>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
@@ -3783,7 +3882,7 @@
       <c r="R128" s="13"/>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
@@ -3803,7 +3902,7 @@
       <c r="R129" s="13"/>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -3823,7 +3922,7 @@
       <c r="R130" s="13"/>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="11"/>
       <c r="D131" s="11"/>
@@ -3843,7 +3942,7 @@
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
@@ -3863,7 +3962,7 @@
       <c r="R132" s="13"/>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
@@ -3883,7 +3982,7 @@
       <c r="R133" s="13"/>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
@@ -3903,7 +4002,7 @@
       <c r="R134" s="13"/>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
@@ -3923,7 +4022,7 @@
       <c r="R135" s="13"/>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
@@ -3943,7 +4042,7 @@
       <c r="R136" s="13"/>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -3963,7 +4062,7 @@
       <c r="R137" s="13"/>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -3983,7 +4082,7 @@
       <c r="R138" s="13"/>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
@@ -4003,7 +4102,7 @@
       <c r="R139" s="13"/>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
@@ -4023,7 +4122,7 @@
       <c r="R140" s="13"/>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
@@ -4043,7 +4142,7 @@
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -4063,7 +4162,7 @@
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -4083,7 +4182,7 @@
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -4103,7 +4202,7 @@
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -4123,7 +4222,7 @@
       <c r="R145" s="13"/>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -4143,7 +4242,7 @@
       <c r="R146" s="13"/>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
@@ -4163,7 +4262,7 @@
       <c r="R147" s="13"/>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -4183,7 +4282,7 @@
       <c r="R148" s="13"/>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
@@ -4203,7 +4302,7 @@
       <c r="R149" s="13"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
@@ -4223,7 +4322,7 @@
       <c r="R150" s="13"/>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
@@ -4243,7 +4342,7 @@
       <c r="R151" s="13"/>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -4263,7 +4362,7 @@
       <c r="R152" s="13"/>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
@@ -4283,7 +4382,7 @@
       <c r="R153" s="13"/>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
@@ -4303,7 +4402,7 @@
       <c r="R154" s="13"/>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
@@ -4323,7 +4422,7 @@
       <c r="R155" s="13"/>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
@@ -4343,7 +4442,7 @@
       <c r="R156" s="13"/>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -4363,7 +4462,7 @@
       <c r="R157" s="13"/>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
@@ -4383,7 +4482,7 @@
       <c r="R158" s="13"/>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="11"/>
       <c r="D159" s="11"/>
@@ -4403,7 +4502,7 @@
       <c r="R159" s="13"/>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
@@ -4423,7 +4522,7 @@
       <c r="R160" s="13"/>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
@@ -4443,7 +4542,7 @@
       <c r="R161" s="13"/>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
@@ -4463,7 +4562,7 @@
       <c r="R162" s="13"/>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
@@ -4483,7 +4582,7 @@
       <c r="R163" s="13"/>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
@@ -4503,7 +4602,7 @@
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
@@ -4523,7 +4622,7 @@
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -4543,7 +4642,7 @@
       <c r="R166" s="13"/>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="11"/>
       <c r="D167" s="11"/>
@@ -4563,7 +4662,7 @@
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -4583,7 +4682,7 @@
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
@@ -4603,7 +4702,7 @@
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
@@ -4623,7 +4722,7 @@
       <c r="R170" s="13"/>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
@@ -4643,7 +4742,7 @@
       <c r="R171" s="13"/>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
@@ -4663,7 +4762,7 @@
       <c r="R172" s="13"/>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
@@ -4683,7 +4782,7 @@
       <c r="R173" s="13"/>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -4703,7 +4802,7 @@
       <c r="R174" s="13"/>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
@@ -4723,7 +4822,7 @@
       <c r="R175" s="13"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -4743,7 +4842,7 @@
       <c r="R176" s="13"/>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
@@ -4763,7 +4862,7 @@
       <c r="R177" s="13"/>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -4783,7 +4882,7 @@
       <c r="R178" s="13"/>
       <c r="S178" s="13"/>
     </row>
-    <row r="179" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
@@ -4803,7 +4902,7 @@
       <c r="R179" s="13"/>
       <c r="S179" s="13"/>
     </row>
-    <row r="180" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -4823,7 +4922,7 @@
       <c r="R180" s="13"/>
       <c r="S180" s="13"/>
     </row>
-    <row r="181" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
@@ -4843,7 +4942,7 @@
       <c r="R181" s="13"/>
       <c r="S181" s="13"/>
     </row>
-    <row r="182" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -4863,7 +4962,7 @@
       <c r="R182" s="13"/>
       <c r="S182" s="13"/>
     </row>
-    <row r="183" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -4883,7 +4982,7 @@
       <c r="R183" s="13"/>
       <c r="S183" s="13"/>
     </row>
-    <row r="184" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -4903,7 +5002,7 @@
       <c r="R184" s="13"/>
       <c r="S184" s="13"/>
     </row>
-    <row r="185" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -4923,7 +5022,7 @@
       <c r="R185" s="13"/>
       <c r="S185" s="13"/>
     </row>
-    <row r="186" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -4943,7 +5042,7 @@
       <c r="R186" s="13"/>
       <c r="S186" s="13"/>
     </row>
-    <row r="187" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="11"/>
       <c r="D187" s="11"/>
@@ -4963,7 +5062,7 @@
       <c r="R187" s="13"/>
       <c r="S187" s="13"/>
     </row>
-    <row r="188" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -4983,7 +5082,7 @@
       <c r="R188" s="13"/>
       <c r="S188" s="13"/>
     </row>
-    <row r="189" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -5003,7 +5102,7 @@
       <c r="R189" s="13"/>
       <c r="S189" s="13"/>
     </row>
-    <row r="190" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -5023,7 +5122,7 @@
       <c r="R190" s="13"/>
       <c r="S190" s="13"/>
     </row>
-    <row r="191" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -5043,7 +5142,7 @@
       <c r="R191" s="13"/>
       <c r="S191" s="13"/>
     </row>
-    <row r="192" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -5063,7 +5162,7 @@
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
     </row>
-    <row r="193" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -5083,7 +5182,7 @@
       <c r="R193" s="13"/>
       <c r="S193" s="13"/>
     </row>
-    <row r="194" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -5103,7 +5202,7 @@
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
     </row>
-    <row r="195" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="1"/>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
@@ -5123,7 +5222,7 @@
       <c r="R195" s="13"/>
       <c r="S195" s="13"/>
     </row>
-    <row r="196" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -5143,7 +5242,7 @@
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
     </row>
-    <row r="197" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
@@ -5163,7 +5262,7 @@
       <c r="R197" s="13"/>
       <c r="S197" s="13"/>
     </row>
-    <row r="198" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -5183,7 +5282,7 @@
       <c r="R198" s="13"/>
       <c r="S198" s="13"/>
     </row>
-    <row r="199" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -5203,7 +5302,7 @@
       <c r="R199" s="13"/>
       <c r="S199" s="13"/>
     </row>
-    <row r="200" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -5223,7 +5322,7 @@
       <c r="R200" s="13"/>
       <c r="S200" s="13"/>
     </row>
-    <row r="201" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
@@ -5243,7 +5342,7 @@
       <c r="R201" s="13"/>
       <c r="S201" s="13"/>
     </row>
-    <row r="202" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -5263,7 +5362,7 @@
       <c r="R202" s="13"/>
       <c r="S202" s="13"/>
     </row>
-    <row r="203" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
@@ -5283,7 +5382,7 @@
       <c r="R203" s="13"/>
       <c r="S203" s="13"/>
     </row>
-    <row r="204" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -5303,7 +5402,7 @@
       <c r="R204" s="13"/>
       <c r="S204" s="13"/>
     </row>
-    <row r="205" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
@@ -5323,7 +5422,7 @@
       <c r="R205" s="13"/>
       <c r="S205" s="13"/>
     </row>
-    <row r="206" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -5343,7 +5442,7 @@
       <c r="R206" s="13"/>
       <c r="S206" s="13"/>
     </row>
-    <row r="207" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
@@ -5363,7 +5462,7 @@
       <c r="R207" s="13"/>
       <c r="S207" s="13"/>
     </row>
-    <row r="208" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
@@ -5383,7 +5482,7 @@
       <c r="R208" s="13"/>
       <c r="S208" s="13"/>
     </row>
-    <row r="209" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
@@ -5403,7 +5502,7 @@
       <c r="R209" s="13"/>
       <c r="S209" s="13"/>
     </row>
-    <row r="210" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
@@ -5423,7 +5522,7 @@
       <c r="R210" s="13"/>
       <c r="S210" s="13"/>
     </row>
-    <row r="211" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
@@ -5443,7 +5542,7 @@
       <c r="R211" s="13"/>
       <c r="S211" s="13"/>
     </row>
-    <row r="212" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -5463,7 +5562,7 @@
       <c r="R212" s="13"/>
       <c r="S212" s="13"/>
     </row>
-    <row r="213" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
@@ -5483,7 +5582,7 @@
       <c r="R213" s="13"/>
       <c r="S213" s="13"/>
     </row>
-    <row r="214" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
@@ -5503,7 +5602,7 @@
       <c r="R214" s="13"/>
       <c r="S214" s="13"/>
     </row>
-    <row r="215" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
@@ -5523,7 +5622,7 @@
       <c r="R215" s="13"/>
       <c r="S215" s="13"/>
     </row>
-    <row r="216" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
@@ -5543,7 +5642,7 @@
       <c r="R216" s="13"/>
       <c r="S216" s="13"/>
     </row>
-    <row r="217" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
@@ -5563,7 +5662,7 @@
       <c r="R217" s="13"/>
       <c r="S217" s="13"/>
     </row>
-    <row r="218" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -5583,7 +5682,7 @@
       <c r="R218" s="13"/>
       <c r="S218" s="13"/>
     </row>
-    <row r="219" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
@@ -5603,7 +5702,7 @@
       <c r="R219" s="13"/>
       <c r="S219" s="13"/>
     </row>
-    <row r="220" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
@@ -5623,7 +5722,7 @@
       <c r="R220" s="13"/>
       <c r="S220" s="13"/>
     </row>
-    <row r="221" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -5643,7 +5742,7 @@
       <c r="R221" s="13"/>
       <c r="S221" s="13"/>
     </row>
-    <row r="222" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
@@ -5663,7 +5762,7 @@
       <c r="R222" s="13"/>
       <c r="S222" s="13"/>
     </row>
-    <row r="223" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
@@ -5683,7 +5782,7 @@
       <c r="R223" s="13"/>
       <c r="S223" s="13"/>
     </row>
-    <row r="224" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
@@ -5703,7 +5802,7 @@
       <c r="R224" s="13"/>
       <c r="S224" s="13"/>
     </row>
-    <row r="225" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
@@ -5723,7 +5822,7 @@
       <c r="R225" s="13"/>
       <c r="S225" s="13"/>
     </row>
-    <row r="226" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
@@ -5743,7 +5842,7 @@
       <c r="R226" s="13"/>
       <c r="S226" s="13"/>
     </row>
-    <row r="227" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
@@ -5763,7 +5862,7 @@
       <c r="R227" s="13"/>
       <c r="S227" s="13"/>
     </row>
-    <row r="228" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
@@ -5783,7 +5882,7 @@
       <c r="R228" s="13"/>
       <c r="S228" s="13"/>
     </row>
-    <row r="229" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
@@ -5803,7 +5902,7 @@
       <c r="R229" s="13"/>
       <c r="S229" s="13"/>
     </row>
-    <row r="230" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -5823,7 +5922,7 @@
       <c r="R230" s="13"/>
       <c r="S230" s="13"/>
     </row>
-    <row r="231" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -5843,7 +5942,7 @@
       <c r="R231" s="13"/>
       <c r="S231" s="13"/>
     </row>
-    <row r="232" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
@@ -5863,7 +5962,7 @@
       <c r="R232" s="13"/>
       <c r="S232" s="13"/>
     </row>
-    <row r="233" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
@@ -5883,7 +5982,7 @@
       <c r="R233" s="13"/>
       <c r="S233" s="13"/>
     </row>
-    <row r="234" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
@@ -5903,7 +6002,7 @@
       <c r="R234" s="13"/>
       <c r="S234" s="13"/>
     </row>
-    <row r="235" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
@@ -5923,7 +6022,7 @@
       <c r="R235" s="13"/>
       <c r="S235" s="13"/>
     </row>
-    <row r="236" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
@@ -5943,7 +6042,7 @@
       <c r="R236" s="13"/>
       <c r="S236" s="13"/>
     </row>
-    <row r="237" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
@@ -5963,7 +6062,7 @@
       <c r="R237" s="13"/>
       <c r="S237" s="13"/>
     </row>
-    <row r="238" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
@@ -5983,7 +6082,7 @@
       <c r="R238" s="13"/>
       <c r="S238" s="13"/>
     </row>
-    <row r="239" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
@@ -6003,7 +6102,7 @@
       <c r="R239" s="13"/>
       <c r="S239" s="13"/>
     </row>
-    <row r="240" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
@@ -6023,7 +6122,7 @@
       <c r="R240" s="13"/>
       <c r="S240" s="13"/>
     </row>
-    <row r="241" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
@@ -6043,7 +6142,7 @@
       <c r="R241" s="13"/>
       <c r="S241" s="13"/>
     </row>
-    <row r="242" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
@@ -6063,7 +6162,7 @@
       <c r="R242" s="13"/>
       <c r="S242" s="13"/>
     </row>
-    <row r="243" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
@@ -6083,7 +6182,7 @@
       <c r="R243" s="13"/>
       <c r="S243" s="13"/>
     </row>
-    <row r="244" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="1"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
@@ -6103,7 +6202,7 @@
       <c r="R244" s="13"/>
       <c r="S244" s="13"/>
     </row>
-    <row r="245" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="1"/>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -6123,7 +6222,7 @@
       <c r="R245" s="13"/>
       <c r="S245" s="13"/>
     </row>
-    <row r="246" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="1"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
@@ -6143,7 +6242,7 @@
       <c r="R246" s="13"/>
       <c r="S246" s="13"/>
     </row>
-    <row r="247" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
@@ -6163,7 +6262,7 @@
       <c r="R247" s="13"/>
       <c r="S247" s="13"/>
     </row>
-    <row r="248" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
@@ -6183,7 +6282,7 @@
       <c r="R248" s="13"/>
       <c r="S248" s="13"/>
     </row>
-    <row r="249" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
@@ -6203,7 +6302,7 @@
       <c r="R249" s="13"/>
       <c r="S249" s="13"/>
     </row>
-    <row r="250" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="1"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
@@ -6223,7 +6322,7 @@
       <c r="R250" s="13"/>
       <c r="S250" s="13"/>
     </row>
-    <row r="251" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
@@ -6243,7 +6342,7 @@
       <c r="R251" s="13"/>
       <c r="S251" s="13"/>
     </row>
-    <row r="252" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
@@ -6263,7 +6362,7 @@
       <c r="R252" s="13"/>
       <c r="S252" s="13"/>
     </row>
-    <row r="253" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -6283,7 +6382,7 @@
       <c r="R253" s="13"/>
       <c r="S253" s="13"/>
     </row>
-    <row r="254" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
@@ -6303,7 +6402,7 @@
       <c r="R254" s="13"/>
       <c r="S254" s="13"/>
     </row>
-    <row r="255" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
@@ -6323,7 +6422,7 @@
       <c r="R255" s="13"/>
       <c r="S255" s="13"/>
     </row>
-    <row r="256" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
@@ -6343,7 +6442,7 @@
       <c r="R256" s="13"/>
       <c r="S256" s="13"/>
     </row>
-    <row r="257" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="1"/>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
@@ -6363,7 +6462,7 @@
       <c r="R257" s="13"/>
       <c r="S257" s="13"/>
     </row>
-    <row r="258" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="1"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
@@ -6383,7 +6482,7 @@
       <c r="R258" s="13"/>
       <c r="S258" s="13"/>
     </row>
-    <row r="259" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="1"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
@@ -6403,7 +6502,7 @@
       <c r="R259" s="13"/>
       <c r="S259" s="13"/>
     </row>
-    <row r="260" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="1"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -6423,7 +6522,7 @@
       <c r="R260" s="13"/>
       <c r="S260" s="13"/>
     </row>
-    <row r="261" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="1"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
@@ -6443,7 +6542,7 @@
       <c r="R261" s="13"/>
       <c r="S261" s="13"/>
     </row>
-    <row r="262" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="1"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -6463,7 +6562,7 @@
       <c r="R262" s="13"/>
       <c r="S262" s="13"/>
     </row>
-    <row r="263" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
@@ -6483,7 +6582,7 @@
       <c r="R263" s="13"/>
       <c r="S263" s="13"/>
     </row>
-    <row r="264" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="1"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
@@ -6503,7 +6602,7 @@
       <c r="R264" s="13"/>
       <c r="S264" s="13"/>
     </row>
-    <row r="265" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
@@ -6523,7 +6622,7 @@
       <c r="R265" s="13"/>
       <c r="S265" s="13"/>
     </row>
-    <row r="266" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -6543,7 +6642,7 @@
       <c r="R266" s="13"/>
       <c r="S266" s="13"/>
     </row>
-    <row r="267" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
@@ -6563,7 +6662,7 @@
       <c r="R267" s="13"/>
       <c r="S267" s="13"/>
     </row>
-    <row r="268" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="1"/>
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
@@ -6583,7 +6682,7 @@
       <c r="R268" s="13"/>
       <c r="S268" s="13"/>
     </row>
-    <row r="269" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="1"/>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
@@ -6603,7 +6702,7 @@
       <c r="R269" s="13"/>
       <c r="S269" s="13"/>
     </row>
-    <row r="270" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="1"/>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
@@ -6623,7 +6722,7 @@
       <c r="R270" s="13"/>
       <c r="S270" s="13"/>
     </row>
-    <row r="271" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
@@ -6643,7 +6742,7 @@
       <c r="R271" s="13"/>
       <c r="S271" s="13"/>
     </row>
-    <row r="272" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="1"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
@@ -6663,7 +6762,7 @@
       <c r="R272" s="13"/>
       <c r="S272" s="13"/>
     </row>
-    <row r="273" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="1"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
@@ -6683,7 +6782,7 @@
       <c r="R273" s="13"/>
       <c r="S273" s="13"/>
     </row>
-    <row r="274" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="1"/>
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
@@ -6703,7 +6802,7 @@
       <c r="R274" s="13"/>
       <c r="S274" s="13"/>
     </row>
-    <row r="275" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="1"/>
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
@@ -6723,7 +6822,7 @@
       <c r="R275" s="13"/>
       <c r="S275" s="13"/>
     </row>
-    <row r="276" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="1"/>
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
@@ -6743,7 +6842,7 @@
       <c r="R276" s="13"/>
       <c r="S276" s="13"/>
     </row>
-    <row r="277" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="1"/>
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
@@ -6763,7 +6862,7 @@
       <c r="R277" s="13"/>
       <c r="S277" s="13"/>
     </row>
-    <row r="278" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="1"/>
       <c r="C278" s="11"/>
       <c r="D278" s="11"/>
@@ -6783,7 +6882,7 @@
       <c r="R278" s="13"/>
       <c r="S278" s="13"/>
     </row>
-    <row r="279" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="1"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
@@ -6803,7 +6902,7 @@
       <c r="R279" s="13"/>
       <c r="S279" s="13"/>
     </row>
-    <row r="280" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="1"/>
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
@@ -6823,7 +6922,7 @@
       <c r="R280" s="13"/>
       <c r="S280" s="13"/>
     </row>
-    <row r="281" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="1"/>
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
@@ -6843,7 +6942,7 @@
       <c r="R281" s="13"/>
       <c r="S281" s="13"/>
     </row>
-    <row r="282" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
@@ -6863,7 +6962,7 @@
       <c r="R282" s="13"/>
       <c r="S282" s="13"/>
     </row>
-    <row r="283" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -6883,7 +6982,7 @@
       <c r="R283" s="13"/>
       <c r="S283" s="13"/>
     </row>
-    <row r="284" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="1"/>
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
@@ -6903,7 +7002,7 @@
       <c r="R284" s="13"/>
       <c r="S284" s="13"/>
     </row>
-    <row r="285" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1"/>
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
@@ -6923,7 +7022,7 @@
       <c r="R285" s="13"/>
       <c r="S285" s="13"/>
     </row>
-    <row r="286" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="1"/>
       <c r="C286" s="11"/>
       <c r="D286" s="11"/>
@@ -6943,7 +7042,7 @@
       <c r="R286" s="13"/>
       <c r="S286" s="13"/>
     </row>
-    <row r="287" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="1"/>
       <c r="C287" s="11"/>
       <c r="D287" s="11"/>
@@ -6963,7 +7062,7 @@
       <c r="R287" s="13"/>
       <c r="S287" s="13"/>
     </row>
-    <row r="288" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="1"/>
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
@@ -6983,7 +7082,7 @@
       <c r="R288" s="13"/>
       <c r="S288" s="13"/>
     </row>
-    <row r="289" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="1"/>
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
@@ -7003,7 +7102,7 @@
       <c r="R289" s="13"/>
       <c r="S289" s="13"/>
     </row>
-    <row r="290" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="1"/>
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
@@ -7023,7 +7122,7 @@
       <c r="R290" s="13"/>
       <c r="S290" s="13"/>
     </row>
-    <row r="291" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="1"/>
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
@@ -7043,7 +7142,7 @@
       <c r="R291" s="13"/>
       <c r="S291" s="13"/>
     </row>
-    <row r="292" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="1"/>
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
@@ -7063,7 +7162,7 @@
       <c r="R292" s="13"/>
       <c r="S292" s="13"/>
     </row>
-    <row r="293" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="1"/>
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
@@ -7083,7 +7182,7 @@
       <c r="R293" s="13"/>
       <c r="S293" s="13"/>
     </row>
-    <row r="294" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="1"/>
       <c r="C294" s="11"/>
       <c r="D294" s="11"/>
@@ -7103,7 +7202,7 @@
       <c r="R294" s="13"/>
       <c r="S294" s="13"/>
     </row>
-    <row r="295" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="1"/>
       <c r="C295" s="11"/>
       <c r="D295" s="11"/>
@@ -7123,7 +7222,7 @@
       <c r="R295" s="13"/>
       <c r="S295" s="13"/>
     </row>
-    <row r="296" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="1"/>
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
@@ -7143,7 +7242,7 @@
       <c r="R296" s="13"/>
       <c r="S296" s="13"/>
     </row>
-    <row r="297" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="1"/>
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
@@ -7163,7 +7262,7 @@
       <c r="R297" s="13"/>
       <c r="S297" s="13"/>
     </row>
-    <row r="298" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="1"/>
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
@@ -7183,7 +7282,7 @@
       <c r="R298" s="13"/>
       <c r="S298" s="13"/>
     </row>
-    <row r="299" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="1"/>
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
@@ -7203,7 +7302,7 @@
       <c r="R299" s="13"/>
       <c r="S299" s="13"/>
     </row>
-    <row r="300" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="1"/>
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
@@ -7223,7 +7322,7 @@
       <c r="R300" s="13"/>
       <c r="S300" s="13"/>
     </row>
-    <row r="301" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="1"/>
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
@@ -7243,7 +7342,7 @@
       <c r="R301" s="13"/>
       <c r="S301" s="13"/>
     </row>
-    <row r="302" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="1"/>
       <c r="C302" s="11"/>
       <c r="D302" s="11"/>
@@ -7263,7 +7362,7 @@
       <c r="R302" s="13"/>
       <c r="S302" s="13"/>
     </row>
-    <row r="303" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="1"/>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
@@ -7283,7 +7382,7 @@
       <c r="R303" s="13"/>
       <c r="S303" s="13"/>
     </row>
-    <row r="304" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1"/>
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
@@ -7303,7 +7402,7 @@
       <c r="R304" s="13"/>
       <c r="S304" s="13"/>
     </row>
-    <row r="305" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="1"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
@@ -7323,7 +7422,7 @@
       <c r="R305" s="13"/>
       <c r="S305" s="13"/>
     </row>
-    <row r="306" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="1"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
@@ -7343,7 +7442,7 @@
       <c r="R306" s="13"/>
       <c r="S306" s="13"/>
     </row>
-    <row r="307" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="1"/>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
@@ -7363,7 +7462,7 @@
       <c r="R307" s="13"/>
       <c r="S307" s="13"/>
     </row>
-    <row r="308" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="1"/>
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
@@ -7383,7 +7482,7 @@
       <c r="R308" s="13"/>
       <c r="S308" s="13"/>
     </row>
-    <row r="309" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="1"/>
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
@@ -7403,7 +7502,7 @@
       <c r="R309" s="13"/>
       <c r="S309" s="13"/>
     </row>
-    <row r="310" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="1"/>
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
@@ -7423,7 +7522,7 @@
       <c r="R310" s="13"/>
       <c r="S310" s="13"/>
     </row>
-    <row r="311" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="1"/>
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
@@ -7443,7 +7542,7 @@
       <c r="R311" s="13"/>
       <c r="S311" s="13"/>
     </row>
-    <row r="312" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="1"/>
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
@@ -7463,7 +7562,7 @@
       <c r="R312" s="13"/>
       <c r="S312" s="13"/>
     </row>
-    <row r="313" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="1"/>
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
@@ -7483,7 +7582,7 @@
       <c r="R313" s="13"/>
       <c r="S313" s="13"/>
     </row>
-    <row r="314" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="1"/>
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
@@ -7503,7 +7602,7 @@
       <c r="R314" s="13"/>
       <c r="S314" s="13"/>
     </row>
-    <row r="315" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="1"/>
       <c r="C315" s="11"/>
       <c r="D315" s="11"/>
@@ -7523,7 +7622,7 @@
       <c r="R315" s="13"/>
       <c r="S315" s="13"/>
     </row>
-    <row r="316" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="1"/>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -7543,7 +7642,7 @@
       <c r="R316" s="13"/>
       <c r="S316" s="13"/>
     </row>
-    <row r="317" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="1"/>
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
@@ -7563,7 +7662,7 @@
       <c r="R317" s="13"/>
       <c r="S317" s="13"/>
     </row>
-    <row r="318" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="1"/>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
@@ -7583,7 +7682,7 @@
       <c r="R318" s="13"/>
       <c r="S318" s="13"/>
     </row>
-    <row r="319" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="1"/>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
@@ -7603,7 +7702,7 @@
       <c r="R319" s="13"/>
       <c r="S319" s="13"/>
     </row>
-    <row r="320" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="1"/>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
@@ -7623,7 +7722,7 @@
       <c r="R320" s="13"/>
       <c r="S320" s="13"/>
     </row>
-    <row r="321" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="1"/>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
@@ -7643,7 +7742,7 @@
       <c r="R321" s="13"/>
       <c r="S321" s="13"/>
     </row>
-    <row r="322" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="1"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
@@ -7663,7 +7762,7 @@
       <c r="R322" s="13"/>
       <c r="S322" s="13"/>
     </row>
-    <row r="323" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="1"/>
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
@@ -7683,7 +7782,7 @@
       <c r="R323" s="13"/>
       <c r="S323" s="13"/>
     </row>
-    <row r="324" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="1"/>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
@@ -7703,7 +7802,7 @@
       <c r="R324" s="13"/>
       <c r="S324" s="13"/>
     </row>
-    <row r="325" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="1"/>
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
@@ -7723,7 +7822,7 @@
       <c r="R325" s="13"/>
       <c r="S325" s="13"/>
     </row>
-    <row r="326" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="1"/>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
@@ -7743,7 +7842,7 @@
       <c r="R326" s="13"/>
       <c r="S326" s="13"/>
     </row>
-    <row r="327" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="1"/>
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
@@ -7763,7 +7862,7 @@
       <c r="R327" s="13"/>
       <c r="S327" s="13"/>
     </row>
-    <row r="328" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="1"/>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
@@ -7783,7 +7882,7 @@
       <c r="R328" s="13"/>
       <c r="S328" s="13"/>
     </row>
-    <row r="329" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="1"/>
       <c r="C329" s="11"/>
       <c r="D329" s="11"/>
@@ -7803,7 +7902,7 @@
       <c r="R329" s="13"/>
       <c r="S329" s="13"/>
     </row>
-    <row r="330" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="1"/>
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
@@ -7823,7 +7922,7 @@
       <c r="R330" s="13"/>
       <c r="S330" s="13"/>
     </row>
-    <row r="331" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="1"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
@@ -7843,7 +7942,7 @@
       <c r="R331" s="13"/>
       <c r="S331" s="13"/>
     </row>
-    <row r="332" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="1"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
@@ -7863,7 +7962,7 @@
       <c r="R332" s="13"/>
       <c r="S332" s="13"/>
     </row>
-    <row r="333" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="1"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
@@ -7883,7 +7982,7 @@
       <c r="R333" s="13"/>
       <c r="S333" s="13"/>
     </row>
-    <row r="334" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="1"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
@@ -7903,7 +8002,7 @@
       <c r="R334" s="13"/>
       <c r="S334" s="13"/>
     </row>
-    <row r="335" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="1"/>
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
@@ -7923,7 +8022,7 @@
       <c r="R335" s="13"/>
       <c r="S335" s="13"/>
     </row>
-    <row r="336" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="1"/>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -7943,7 +8042,7 @@
       <c r="R336" s="13"/>
       <c r="S336" s="13"/>
     </row>
-    <row r="337" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="1"/>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
@@ -7963,7 +8062,7 @@
       <c r="R337" s="13"/>
       <c r="S337" s="13"/>
     </row>
-    <row r="338" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="1"/>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
@@ -7983,7 +8082,7 @@
       <c r="R338" s="13"/>
       <c r="S338" s="13"/>
     </row>
-    <row r="339" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="1"/>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
@@ -8003,7 +8102,7 @@
       <c r="R339" s="13"/>
       <c r="S339" s="13"/>
     </row>
-    <row r="340" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="1"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
@@ -8023,7 +8122,7 @@
       <c r="R340" s="13"/>
       <c r="S340" s="13"/>
     </row>
-    <row r="341" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="1"/>
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
@@ -8043,7 +8142,7 @@
       <c r="R341" s="13"/>
       <c r="S341" s="13"/>
     </row>
-    <row r="342" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="1"/>
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
@@ -8063,7 +8162,7 @@
       <c r="R342" s="13"/>
       <c r="S342" s="13"/>
     </row>
-    <row r="343" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="1"/>
       <c r="C343" s="11"/>
       <c r="D343" s="11"/>
@@ -8083,7 +8182,7 @@
       <c r="R343" s="13"/>
       <c r="S343" s="13"/>
     </row>
-    <row r="344" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="1"/>
       <c r="C344" s="11"/>
       <c r="D344" s="11"/>
@@ -8103,7 +8202,7 @@
       <c r="R344" s="13"/>
       <c r="S344" s="13"/>
     </row>
-    <row r="345" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="1"/>
       <c r="C345" s="11"/>
       <c r="D345" s="11"/>
@@ -8123,7 +8222,7 @@
       <c r="R345" s="13"/>
       <c r="S345" s="13"/>
     </row>
-    <row r="346" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="1"/>
       <c r="C346" s="11"/>
       <c r="D346" s="11"/>
@@ -8143,7 +8242,7 @@
       <c r="R346" s="13"/>
       <c r="S346" s="13"/>
     </row>
-    <row r="347" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="1"/>
       <c r="C347" s="11"/>
       <c r="D347" s="11"/>
@@ -8163,7 +8262,7 @@
       <c r="R347" s="13"/>
       <c r="S347" s="13"/>
     </row>
-    <row r="348" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="1"/>
       <c r="C348" s="11"/>
       <c r="D348" s="11"/>
@@ -8183,7 +8282,7 @@
       <c r="R348" s="13"/>
       <c r="S348" s="13"/>
     </row>
-    <row r="349" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="1"/>
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
@@ -8203,7 +8302,7 @@
       <c r="R349" s="13"/>
       <c r="S349" s="13"/>
     </row>
-    <row r="350" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="1"/>
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
@@ -8223,7 +8322,7 @@
       <c r="R350" s="13"/>
       <c r="S350" s="13"/>
     </row>
-    <row r="351" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="1"/>
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
@@ -8243,7 +8342,7 @@
       <c r="R351" s="13"/>
       <c r="S351" s="13"/>
     </row>
-    <row r="352" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="1"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -8263,7 +8362,7 @@
       <c r="R352" s="13"/>
       <c r="S352" s="13"/>
     </row>
-    <row r="353" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
       <c r="C353" s="11"/>
       <c r="D353" s="11"/>
@@ -8283,7 +8382,7 @@
       <c r="R353" s="13"/>
       <c r="S353" s="13"/>
     </row>
-    <row r="354" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="1"/>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
@@ -8303,7 +8402,7 @@
       <c r="R354" s="13"/>
       <c r="S354" s="13"/>
     </row>
-    <row r="355" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="1"/>
       <c r="C355" s="11"/>
       <c r="D355" s="11"/>
@@ -8323,7 +8422,7 @@
       <c r="R355" s="13"/>
       <c r="S355" s="13"/>
     </row>
-    <row r="356" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="1"/>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
@@ -8343,7 +8442,7 @@
       <c r="R356" s="13"/>
       <c r="S356" s="13"/>
     </row>
-    <row r="357" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="1"/>
       <c r="C357" s="11"/>
       <c r="D357" s="11"/>
@@ -8363,7 +8462,7 @@
       <c r="R357" s="13"/>
       <c r="S357" s="13"/>
     </row>
-    <row r="358" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="1"/>
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
@@ -8383,7 +8482,7 @@
       <c r="R358" s="13"/>
       <c r="S358" s="13"/>
     </row>
-    <row r="359" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="1"/>
       <c r="C359" s="11"/>
       <c r="D359" s="11"/>
@@ -8403,7 +8502,7 @@
       <c r="R359" s="13"/>
       <c r="S359" s="13"/>
     </row>
-    <row r="360" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="1"/>
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
@@ -8423,7 +8522,7 @@
       <c r="R360" s="13"/>
       <c r="S360" s="13"/>
     </row>
-    <row r="361" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="1"/>
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
@@ -8443,7 +8542,7 @@
       <c r="R361" s="13"/>
       <c r="S361" s="13"/>
     </row>
-    <row r="362" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="1"/>
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
@@ -8463,7 +8562,7 @@
       <c r="R362" s="13"/>
       <c r="S362" s="13"/>
     </row>
-    <row r="363" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="1"/>
       <c r="C363" s="11"/>
       <c r="D363" s="11"/>
@@ -8483,7 +8582,7 @@
       <c r="R363" s="13"/>
       <c r="S363" s="13"/>
     </row>
-    <row r="364" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="1"/>
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
@@ -8503,7 +8602,7 @@
       <c r="R364" s="13"/>
       <c r="S364" s="13"/>
     </row>
-    <row r="365" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="1"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
@@ -8523,7 +8622,7 @@
       <c r="R365" s="13"/>
       <c r="S365" s="13"/>
     </row>
-    <row r="366" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="1"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
@@ -8543,7 +8642,7 @@
       <c r="R366" s="13"/>
       <c r="S366" s="13"/>
     </row>
-    <row r="367" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="1"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
@@ -8563,7 +8662,7 @@
       <c r="R367" s="13"/>
       <c r="S367" s="13"/>
     </row>
-    <row r="368" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="1"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
@@ -8583,7 +8682,7 @@
       <c r="R368" s="13"/>
       <c r="S368" s="13"/>
     </row>
-    <row r="369" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="1"/>
       <c r="C369" s="11"/>
       <c r="D369" s="11"/>
@@ -8603,7 +8702,7 @@
       <c r="R369" s="13"/>
       <c r="S369" s="13"/>
     </row>
-    <row r="370" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="1"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
@@ -8623,7 +8722,7 @@
       <c r="R370" s="13"/>
       <c r="S370" s="13"/>
     </row>
-    <row r="371" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="1"/>
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
@@ -8643,7 +8742,7 @@
       <c r="R371" s="13"/>
       <c r="S371" s="13"/>
     </row>
-    <row r="372" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="1"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
@@ -8663,7 +8762,7 @@
       <c r="R372" s="13"/>
       <c r="S372" s="13"/>
     </row>
-    <row r="373" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="1"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
@@ -8683,7 +8782,7 @@
       <c r="R373" s="13"/>
       <c r="S373" s="13"/>
     </row>
-    <row r="374" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="1"/>
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
@@ -8703,7 +8802,7 @@
       <c r="R374" s="13"/>
       <c r="S374" s="13"/>
     </row>
-    <row r="375" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="1"/>
       <c r="C375" s="11"/>
       <c r="D375" s="11"/>
@@ -8723,7 +8822,7 @@
       <c r="R375" s="13"/>
       <c r="S375" s="13"/>
     </row>
-    <row r="376" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="1"/>
       <c r="C376" s="11"/>
       <c r="D376" s="11"/>
@@ -8743,7 +8842,7 @@
       <c r="R376" s="13"/>
       <c r="S376" s="13"/>
     </row>
-    <row r="377" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B377" s="1"/>
       <c r="C377" s="11"/>
       <c r="D377" s="11"/>
@@ -8763,7 +8862,7 @@
       <c r="R377" s="13"/>
       <c r="S377" s="13"/>
     </row>
-    <row r="378" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B378" s="1"/>
       <c r="C378" s="11"/>
       <c r="D378" s="11"/>
@@ -8783,7 +8882,7 @@
       <c r="R378" s="13"/>
       <c r="S378" s="13"/>
     </row>
-    <row r="379" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="1"/>
       <c r="C379" s="11"/>
       <c r="D379" s="11"/>
@@ -8803,7 +8902,7 @@
       <c r="R379" s="13"/>
       <c r="S379" s="13"/>
     </row>
-    <row r="380" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
       <c r="C380" s="11"/>
       <c r="D380" s="11"/>
@@ -8823,7 +8922,7 @@
       <c r="R380" s="13"/>
       <c r="S380" s="13"/>
     </row>
-    <row r="381" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="1"/>
       <c r="C381" s="11"/>
       <c r="D381" s="11"/>
@@ -8843,7 +8942,7 @@
       <c r="R381" s="13"/>
       <c r="S381" s="13"/>
     </row>
-    <row r="382" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B382" s="1"/>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
@@ -8863,7 +8962,7 @@
       <c r="R382" s="13"/>
       <c r="S382" s="13"/>
     </row>
-    <row r="383" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="1"/>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
@@ -8883,7 +8982,7 @@
       <c r="R383" s="13"/>
       <c r="S383" s="13"/>
     </row>
-    <row r="384" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="1"/>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
@@ -8903,7 +9002,7 @@
       <c r="R384" s="13"/>
       <c r="S384" s="13"/>
     </row>
-    <row r="385" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="1"/>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
@@ -8923,7 +9022,7 @@
       <c r="R385" s="13"/>
       <c r="S385" s="13"/>
     </row>
-    <row r="386" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="1"/>
       <c r="C386" s="11"/>
       <c r="D386" s="11"/>
@@ -8943,7 +9042,7 @@
       <c r="R386" s="13"/>
       <c r="S386" s="13"/>
     </row>
-    <row r="387" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="1"/>
       <c r="C387" s="11"/>
       <c r="D387" s="11"/>
@@ -8963,7 +9062,7 @@
       <c r="R387" s="13"/>
       <c r="S387" s="13"/>
     </row>
-    <row r="388" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="1"/>
       <c r="C388" s="11"/>
       <c r="D388" s="11"/>
@@ -8983,7 +9082,7 @@
       <c r="R388" s="13"/>
       <c r="S388" s="13"/>
     </row>
-    <row r="389" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="1"/>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
@@ -9003,7 +9102,7 @@
       <c r="R389" s="13"/>
       <c r="S389" s="13"/>
     </row>
-    <row r="390" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="1"/>
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
@@ -9023,7 +9122,7 @@
       <c r="R390" s="13"/>
       <c r="S390" s="13"/>
     </row>
-    <row r="391" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="1"/>
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
@@ -9043,7 +9142,7 @@
       <c r="R391" s="13"/>
       <c r="S391" s="13"/>
     </row>
-    <row r="392" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="1"/>
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
@@ -9063,7 +9162,7 @@
       <c r="R392" s="13"/>
       <c r="S392" s="13"/>
     </row>
-    <row r="393" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="1"/>
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
@@ -9083,7 +9182,7 @@
       <c r="R393" s="13"/>
       <c r="S393" s="13"/>
     </row>
-    <row r="394" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="1"/>
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
@@ -9103,7 +9202,7 @@
       <c r="R394" s="13"/>
       <c r="S394" s="13"/>
     </row>
-    <row r="395" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="1"/>
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
@@ -9123,7 +9222,7 @@
       <c r="R395" s="13"/>
       <c r="S395" s="13"/>
     </row>
-    <row r="396" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="1"/>
       <c r="C396" s="11"/>
       <c r="D396" s="11"/>
@@ -9143,7 +9242,7 @@
       <c r="R396" s="13"/>
       <c r="S396" s="13"/>
     </row>
-    <row r="397" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="1"/>
       <c r="C397" s="11"/>
       <c r="D397" s="11"/>
@@ -9163,7 +9262,7 @@
       <c r="R397" s="13"/>
       <c r="S397" s="13"/>
     </row>
-    <row r="398" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="1"/>
       <c r="C398" s="11"/>
       <c r="D398" s="11"/>
@@ -9183,7 +9282,7 @@
       <c r="R398" s="13"/>
       <c r="S398" s="13"/>
     </row>
-    <row r="399" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="1"/>
       <c r="C399" s="11"/>
       <c r="D399" s="11"/>
@@ -9203,7 +9302,7 @@
       <c r="R399" s="13"/>
       <c r="S399" s="13"/>
     </row>
-    <row r="400" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="1"/>
       <c r="C400" s="11"/>
       <c r="D400" s="11"/>
@@ -9223,7 +9322,7 @@
       <c r="R400" s="13"/>
       <c r="S400" s="13"/>
     </row>
-    <row r="401" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="1"/>
       <c r="C401" s="11"/>
       <c r="D401" s="11"/>
@@ -9243,7 +9342,7 @@
       <c r="R401" s="13"/>
       <c r="S401" s="13"/>
     </row>
-    <row r="402" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="1"/>
       <c r="C402" s="11"/>
       <c r="D402" s="11"/>
@@ -9263,7 +9362,7 @@
       <c r="R402" s="13"/>
       <c r="S402" s="13"/>
     </row>
-    <row r="403" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="1"/>
       <c r="C403" s="11"/>
       <c r="D403" s="11"/>
@@ -9283,7 +9382,7 @@
       <c r="R403" s="13"/>
       <c r="S403" s="13"/>
     </row>
-    <row r="404" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B404" s="1"/>
       <c r="C404" s="11"/>
       <c r="D404" s="11"/>
@@ -9303,7 +9402,7 @@
       <c r="R404" s="13"/>
       <c r="S404" s="13"/>
     </row>
-    <row r="405" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" s="1"/>
       <c r="C405" s="11"/>
       <c r="D405" s="11"/>
@@ -9323,7 +9422,7 @@
       <c r="R405" s="13"/>
       <c r="S405" s="13"/>
     </row>
-    <row r="406" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B406" s="1"/>
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
@@ -9343,7 +9442,7 @@
       <c r="R406" s="13"/>
       <c r="S406" s="13"/>
     </row>
-    <row r="407" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B407" s="1"/>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
@@ -9363,7 +9462,7 @@
       <c r="R407" s="13"/>
       <c r="S407" s="13"/>
     </row>
-    <row r="408" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B408" s="1"/>
       <c r="C408" s="11"/>
       <c r="D408" s="11"/>
@@ -9383,7 +9482,7 @@
       <c r="R408" s="13"/>
       <c r="S408" s="13"/>
     </row>
-    <row r="409" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B409" s="1"/>
       <c r="C409" s="11"/>
       <c r="D409" s="11"/>
@@ -9403,7 +9502,7 @@
       <c r="R409" s="13"/>
       <c r="S409" s="13"/>
     </row>
-    <row r="410" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B410" s="1"/>
       <c r="C410" s="11"/>
       <c r="D410" s="11"/>
@@ -9423,7 +9522,7 @@
       <c r="R410" s="13"/>
       <c r="S410" s="13"/>
     </row>
-    <row r="411" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B411" s="1"/>
       <c r="C411" s="11"/>
       <c r="D411" s="11"/>
@@ -9443,7 +9542,7 @@
       <c r="R411" s="13"/>
       <c r="S411" s="13"/>
     </row>
-    <row r="412" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B412" s="1"/>
       <c r="C412" s="11"/>
       <c r="D412" s="11"/>
@@ -9463,7 +9562,7 @@
       <c r="R412" s="13"/>
       <c r="S412" s="13"/>
     </row>
-    <row r="413" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B413" s="1"/>
       <c r="C413" s="11"/>
       <c r="D413" s="11"/>
@@ -9483,7 +9582,7 @@
       <c r="R413" s="13"/>
       <c r="S413" s="13"/>
     </row>
-    <row r="414" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B414" s="1"/>
       <c r="C414" s="11"/>
       <c r="D414" s="11"/>
@@ -9503,7 +9602,7 @@
       <c r="R414" s="13"/>
       <c r="S414" s="13"/>
     </row>
-    <row r="415" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B415" s="1"/>
       <c r="C415" s="11"/>
       <c r="D415" s="11"/>
@@ -9523,7 +9622,7 @@
       <c r="R415" s="13"/>
       <c r="S415" s="13"/>
     </row>
-    <row r="416" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B416" s="1"/>
       <c r="C416" s="11"/>
       <c r="D416" s="11"/>
@@ -9543,7 +9642,7 @@
       <c r="R416" s="13"/>
       <c r="S416" s="13"/>
     </row>
-    <row r="417" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B417" s="1"/>
       <c r="C417" s="11"/>
       <c r="D417" s="11"/>
@@ -9563,7 +9662,7 @@
       <c r="R417" s="13"/>
       <c r="S417" s="13"/>
     </row>
-    <row r="418" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B418" s="1"/>
       <c r="C418" s="11"/>
       <c r="D418" s="11"/>
@@ -9583,7 +9682,7 @@
       <c r="R418" s="13"/>
       <c r="S418" s="13"/>
     </row>
-    <row r="419" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B419" s="1"/>
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
@@ -9603,7 +9702,7 @@
       <c r="R419" s="13"/>
       <c r="S419" s="13"/>
     </row>
-    <row r="420" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B420" s="1"/>
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
@@ -9623,7 +9722,7 @@
       <c r="R420" s="13"/>
       <c r="S420" s="13"/>
     </row>
-    <row r="421" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B421" s="1"/>
       <c r="C421" s="11"/>
       <c r="D421" s="11"/>
@@ -9643,7 +9742,7 @@
       <c r="R421" s="13"/>
       <c r="S421" s="13"/>
     </row>
-    <row r="422" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B422" s="1"/>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
@@ -9663,7 +9762,7 @@
       <c r="R422" s="13"/>
       <c r="S422" s="13"/>
     </row>
-    <row r="423" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B423" s="1"/>
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
@@ -9683,7 +9782,7 @@
       <c r="R423" s="13"/>
       <c r="S423" s="13"/>
     </row>
-    <row r="424" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B424" s="1"/>
       <c r="C424" s="11"/>
       <c r="D424" s="11"/>
@@ -9703,7 +9802,7 @@
       <c r="R424" s="13"/>
       <c r="S424" s="13"/>
     </row>
-    <row r="425" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B425" s="1"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
@@ -9723,7 +9822,7 @@
       <c r="R425" s="13"/>
       <c r="S425" s="13"/>
     </row>
-    <row r="426" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B426" s="1"/>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
@@ -9743,7 +9842,7 @@
       <c r="R426" s="13"/>
       <c r="S426" s="13"/>
     </row>
-    <row r="427" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B427" s="1"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
@@ -9763,7 +9862,7 @@
       <c r="R427" s="13"/>
       <c r="S427" s="13"/>
     </row>
-    <row r="428" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B428" s="1"/>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
@@ -9783,7 +9882,7 @@
       <c r="R428" s="13"/>
       <c r="S428" s="13"/>
     </row>
-    <row r="429" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B429" s="1"/>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
@@ -9803,7 +9902,7 @@
       <c r="R429" s="13"/>
       <c r="S429" s="13"/>
     </row>
-    <row r="430" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B430" s="1"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
@@ -9823,7 +9922,7 @@
       <c r="R430" s="13"/>
       <c r="S430" s="13"/>
     </row>
-    <row r="431" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B431" s="1"/>
       <c r="C431" s="11"/>
       <c r="D431" s="11"/>
@@ -9843,7 +9942,7 @@
       <c r="R431" s="13"/>
       <c r="S431" s="13"/>
     </row>
-    <row r="432" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B432" s="1"/>
       <c r="C432" s="11"/>
       <c r="D432" s="11"/>
@@ -9863,7 +9962,7 @@
       <c r="R432" s="13"/>
       <c r="S432" s="13"/>
     </row>
-    <row r="433" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B433" s="1"/>
       <c r="C433" s="11"/>
       <c r="D433" s="11"/>
@@ -9883,7 +9982,7 @@
       <c r="R433" s="13"/>
       <c r="S433" s="13"/>
     </row>
-    <row r="434" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B434" s="1"/>
       <c r="C434" s="11"/>
       <c r="D434" s="11"/>
@@ -9903,7 +10002,7 @@
       <c r="R434" s="13"/>
       <c r="S434" s="13"/>
     </row>
-    <row r="435" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B435" s="1"/>
       <c r="C435" s="11"/>
       <c r="D435" s="11"/>
@@ -9923,7 +10022,7 @@
       <c r="R435" s="13"/>
       <c r="S435" s="13"/>
     </row>
-    <row r="436" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B436" s="1"/>
       <c r="C436" s="11"/>
       <c r="D436" s="11"/>
@@ -9943,7 +10042,7 @@
       <c r="R436" s="13"/>
       <c r="S436" s="13"/>
     </row>
-    <row r="437" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B437" s="1"/>
       <c r="C437" s="11"/>
       <c r="D437" s="11"/>
@@ -9963,7 +10062,7 @@
       <c r="R437" s="13"/>
       <c r="S437" s="13"/>
     </row>
-    <row r="438" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B438" s="1"/>
       <c r="C438" s="11"/>
       <c r="D438" s="11"/>
@@ -9983,7 +10082,7 @@
       <c r="R438" s="13"/>
       <c r="S438" s="13"/>
     </row>
-    <row r="439" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B439" s="1"/>
       <c r="C439" s="11"/>
       <c r="D439" s="11"/>
@@ -10003,7 +10102,7 @@
       <c r="R439" s="13"/>
       <c r="S439" s="13"/>
     </row>
-    <row r="440" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B440" s="1"/>
       <c r="C440" s="11"/>
       <c r="D440" s="11"/>
@@ -10023,7 +10122,7 @@
       <c r="R440" s="13"/>
       <c r="S440" s="13"/>
     </row>
-    <row r="441" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B441" s="1"/>
       <c r="C441" s="11"/>
       <c r="D441" s="11"/>
@@ -10043,7 +10142,7 @@
       <c r="R441" s="13"/>
       <c r="S441" s="13"/>
     </row>
-    <row r="442" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B442" s="1"/>
       <c r="C442" s="11"/>
       <c r="D442" s="11"/>
@@ -10063,7 +10162,7 @@
       <c r="R442" s="13"/>
       <c r="S442" s="13"/>
     </row>
-    <row r="443" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B443" s="1"/>
       <c r="C443" s="11"/>
       <c r="D443" s="11"/>
@@ -10083,7 +10182,7 @@
       <c r="R443" s="13"/>
       <c r="S443" s="13"/>
     </row>
-    <row r="444" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B444" s="1"/>
       <c r="C444" s="11"/>
       <c r="D444" s="11"/>
@@ -10103,7 +10202,7 @@
       <c r="R444" s="13"/>
       <c r="S444" s="13"/>
     </row>
-    <row r="445" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B445" s="1"/>
       <c r="C445" s="11"/>
       <c r="D445" s="11"/>
@@ -10123,7 +10222,7 @@
       <c r="R445" s="13"/>
       <c r="S445" s="13"/>
     </row>
-    <row r="446" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B446" s="1"/>
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
@@ -10143,7 +10242,7 @@
       <c r="R446" s="13"/>
       <c r="S446" s="13"/>
     </row>
-    <row r="447" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B447" s="1"/>
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
@@ -10163,7 +10262,7 @@
       <c r="R447" s="13"/>
       <c r="S447" s="13"/>
     </row>
-    <row r="448" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B448" s="1"/>
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
@@ -10183,7 +10282,7 @@
       <c r="R448" s="13"/>
       <c r="S448" s="13"/>
     </row>
-    <row r="449" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B449" s="1"/>
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
@@ -10203,7 +10302,7 @@
       <c r="R449" s="13"/>
       <c r="S449" s="13"/>
     </row>
-    <row r="450" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B450" s="1"/>
       <c r="C450" s="11"/>
       <c r="D450" s="11"/>
@@ -10223,7 +10322,7 @@
       <c r="R450" s="13"/>
       <c r="S450" s="13"/>
     </row>
-    <row r="451" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B451" s="1"/>
       <c r="C451" s="11"/>
       <c r="D451" s="11"/>
@@ -10243,7 +10342,7 @@
       <c r="R451" s="13"/>
       <c r="S451" s="13"/>
     </row>
-    <row r="452" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B452" s="1"/>
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
@@ -10263,7 +10362,7 @@
       <c r="R452" s="13"/>
       <c r="S452" s="13"/>
     </row>
-    <row r="453" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B453" s="1"/>
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
@@ -10283,7 +10382,7 @@
       <c r="R453" s="13"/>
       <c r="S453" s="13"/>
     </row>
-    <row r="454" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B454" s="1"/>
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
@@ -10303,7 +10402,7 @@
       <c r="R454" s="13"/>
       <c r="S454" s="13"/>
     </row>
-    <row r="455" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B455" s="1"/>
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
@@ -10323,7 +10422,7 @@
       <c r="R455" s="13"/>
       <c r="S455" s="13"/>
     </row>
-    <row r="456" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B456" s="1"/>
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
@@ -10343,7 +10442,7 @@
       <c r="R456" s="13"/>
       <c r="S456" s="13"/>
     </row>
-    <row r="457" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B457" s="1"/>
       <c r="C457" s="11"/>
       <c r="D457" s="11"/>
@@ -10363,7 +10462,7 @@
       <c r="R457" s="13"/>
       <c r="S457" s="13"/>
     </row>
-    <row r="458" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B458" s="1"/>
       <c r="C458" s="11"/>
       <c r="D458" s="11"/>
@@ -10383,7 +10482,7 @@
       <c r="R458" s="13"/>
       <c r="S458" s="13"/>
     </row>
-    <row r="459" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B459" s="1"/>
       <c r="C459" s="11"/>
       <c r="D459" s="11"/>
@@ -10403,7 +10502,7 @@
       <c r="R459" s="13"/>
       <c r="S459" s="13"/>
     </row>
-    <row r="460" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B460" s="1"/>
       <c r="C460" s="11"/>
       <c r="D460" s="11"/>
@@ -10423,7 +10522,7 @@
       <c r="R460" s="13"/>
       <c r="S460" s="13"/>
     </row>
-    <row r="461" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B461" s="1"/>
       <c r="C461" s="11"/>
       <c r="D461" s="11"/>
@@ -10443,7 +10542,7 @@
       <c r="R461" s="13"/>
       <c r="S461" s="13"/>
     </row>
-    <row r="462" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B462" s="1"/>
       <c r="C462" s="11"/>
       <c r="D462" s="11"/>
@@ -10463,7 +10562,7 @@
       <c r="R462" s="13"/>
       <c r="S462" s="13"/>
     </row>
-    <row r="463" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B463" s="1"/>
       <c r="C463" s="11"/>
       <c r="D463" s="11"/>
@@ -10483,7 +10582,7 @@
       <c r="R463" s="13"/>
       <c r="S463" s="13"/>
     </row>
-    <row r="464" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B464" s="1"/>
       <c r="C464" s="11"/>
       <c r="D464" s="11"/>
@@ -10503,7 +10602,7 @@
       <c r="R464" s="13"/>
       <c r="S464" s="13"/>
     </row>
-    <row r="465" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B465" s="1"/>
       <c r="C465" s="11"/>
       <c r="D465" s="11"/>
@@ -10523,7 +10622,7 @@
       <c r="R465" s="13"/>
       <c r="S465" s="13"/>
     </row>
-    <row r="466" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B466" s="1"/>
       <c r="C466" s="11"/>
       <c r="D466" s="11"/>
@@ -10543,7 +10642,7 @@
       <c r="R466" s="13"/>
       <c r="S466" s="13"/>
     </row>
-    <row r="467" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B467" s="1"/>
       <c r="C467" s="11"/>
       <c r="D467" s="11"/>
@@ -10563,7 +10662,7 @@
       <c r="R467" s="13"/>
       <c r="S467" s="13"/>
     </row>
-    <row r="468" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B468" s="1"/>
       <c r="C468" s="11"/>
       <c r="D468" s="11"/>
@@ -10583,7 +10682,7 @@
       <c r="R468" s="13"/>
       <c r="S468" s="13"/>
     </row>
-    <row r="469" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B469" s="1"/>
       <c r="C469" s="11"/>
       <c r="D469" s="11"/>
@@ -10603,7 +10702,7 @@
       <c r="R469" s="13"/>
       <c r="S469" s="13"/>
     </row>
-    <row r="470" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B470" s="1"/>
       <c r="C470" s="11"/>
       <c r="D470" s="11"/>
@@ -10623,7 +10722,7 @@
       <c r="R470" s="13"/>
       <c r="S470" s="13"/>
     </row>
-    <row r="471" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B471" s="1"/>
       <c r="C471" s="11"/>
       <c r="D471" s="11"/>
@@ -10643,7 +10742,7 @@
       <c r="R471" s="13"/>
       <c r="S471" s="13"/>
     </row>
-    <row r="472" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B472" s="1"/>
       <c r="C472" s="11"/>
       <c r="D472" s="11"/>
@@ -10663,7 +10762,7 @@
       <c r="R472" s="13"/>
       <c r="S472" s="13"/>
     </row>
-    <row r="473" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B473" s="1"/>
       <c r="C473" s="11"/>
       <c r="D473" s="11"/>
@@ -10683,7 +10782,7 @@
       <c r="R473" s="13"/>
       <c r="S473" s="13"/>
     </row>
-    <row r="474" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B474" s="1"/>
       <c r="C474" s="11"/>
       <c r="D474" s="11"/>
@@ -10703,7 +10802,7 @@
       <c r="R474" s="13"/>
       <c r="S474" s="13"/>
     </row>
-    <row r="475" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B475" s="1"/>
       <c r="C475" s="11"/>
       <c r="D475" s="11"/>
@@ -10723,7 +10822,7 @@
       <c r="R475" s="13"/>
       <c r="S475" s="13"/>
     </row>
-    <row r="476" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B476" s="1"/>
       <c r="C476" s="11"/>
       <c r="D476" s="11"/>
@@ -10743,7 +10842,7 @@
       <c r="R476" s="13"/>
       <c r="S476" s="13"/>
     </row>
-    <row r="477" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B477" s="1"/>
       <c r="C477" s="11"/>
       <c r="D477" s="11"/>
@@ -10763,7 +10862,7 @@
       <c r="R477" s="13"/>
       <c r="S477" s="13"/>
     </row>
-    <row r="478" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B478" s="1"/>
       <c r="C478" s="11"/>
       <c r="D478" s="11"/>
@@ -10783,7 +10882,7 @@
       <c r="R478" s="13"/>
       <c r="S478" s="13"/>
     </row>
-    <row r="479" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B479" s="1"/>
       <c r="C479" s="11"/>
       <c r="D479" s="11"/>
@@ -10803,7 +10902,7 @@
       <c r="R479" s="13"/>
       <c r="S479" s="13"/>
     </row>
-    <row r="480" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B480" s="1"/>
       <c r="C480" s="11"/>
       <c r="D480" s="11"/>
@@ -10823,7 +10922,7 @@
       <c r="R480" s="13"/>
       <c r="S480" s="13"/>
     </row>
-    <row r="481" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B481" s="1"/>
       <c r="C481" s="11"/>
       <c r="D481" s="11"/>
@@ -10843,7 +10942,7 @@
       <c r="R481" s="13"/>
       <c r="S481" s="13"/>
     </row>
-    <row r="482" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B482" s="1"/>
       <c r="C482" s="11"/>
       <c r="D482" s="11"/>
@@ -10863,7 +10962,7 @@
       <c r="R482" s="13"/>
       <c r="S482" s="13"/>
     </row>
-    <row r="483" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B483" s="1"/>
       <c r="C483" s="11"/>
       <c r="D483" s="11"/>
@@ -10883,7 +10982,7 @@
       <c r="R483" s="13"/>
       <c r="S483" s="13"/>
     </row>
-    <row r="484" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B484" s="1"/>
       <c r="C484" s="11"/>
       <c r="D484" s="11"/>
@@ -10903,7 +11002,7 @@
       <c r="R484" s="13"/>
       <c r="S484" s="13"/>
     </row>
-    <row r="485" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B485" s="1"/>
       <c r="C485" s="11"/>
       <c r="D485" s="11"/>
@@ -10923,7 +11022,7 @@
       <c r="R485" s="13"/>
       <c r="S485" s="13"/>
     </row>
-    <row r="486" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B486" s="1"/>
       <c r="C486" s="11"/>
       <c r="D486" s="11"/>
@@ -10943,7 +11042,7 @@
       <c r="R486" s="13"/>
       <c r="S486" s="13"/>
     </row>
-    <row r="487" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B487" s="1"/>
       <c r="C487" s="11"/>
       <c r="D487" s="11"/>
@@ -10963,7 +11062,7 @@
       <c r="R487" s="13"/>
       <c r="S487" s="13"/>
     </row>
-    <row r="488" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B488" s="1"/>
       <c r="C488" s="11"/>
       <c r="D488" s="11"/>
@@ -10983,7 +11082,7 @@
       <c r="R488" s="13"/>
       <c r="S488" s="13"/>
     </row>
-    <row r="489" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B489" s="1"/>
       <c r="C489" s="11"/>
       <c r="D489" s="11"/>
@@ -11003,7 +11102,7 @@
       <c r="R489" s="13"/>
       <c r="S489" s="13"/>
     </row>
-    <row r="490" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B490" s="1"/>
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
@@ -11023,7 +11122,7 @@
       <c r="R490" s="13"/>
       <c r="S490" s="13"/>
     </row>
-    <row r="491" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B491" s="1"/>
       <c r="C491" s="11"/>
       <c r="D491" s="11"/>
@@ -11043,7 +11142,7 @@
       <c r="R491" s="13"/>
       <c r="S491" s="13"/>
     </row>
-    <row r="492" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B492" s="1"/>
       <c r="C492" s="11"/>
       <c r="D492" s="11"/>
@@ -11063,7 +11162,7 @@
       <c r="R492" s="13"/>
       <c r="S492" s="13"/>
     </row>
-    <row r="493" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B493" s="1"/>
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
@@ -11083,7 +11182,7 @@
       <c r="R493" s="13"/>
       <c r="S493" s="13"/>
     </row>
-    <row r="494" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B494" s="1"/>
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
@@ -11103,7 +11202,7 @@
       <c r="R494" s="13"/>
       <c r="S494" s="13"/>
     </row>
-    <row r="495" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B495" s="1"/>
       <c r="C495" s="11"/>
       <c r="D495" s="11"/>
@@ -11123,7 +11222,7 @@
       <c r="R495" s="13"/>
       <c r="S495" s="13"/>
     </row>
-    <row r="496" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="1"/>
       <c r="C496" s="11"/>
       <c r="D496" s="11"/>
@@ -11143,7 +11242,7 @@
       <c r="R496" s="13"/>
       <c r="S496" s="13"/>
     </row>
-    <row r="497" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B497" s="1"/>
       <c r="C497" s="11"/>
       <c r="D497" s="11"/>
@@ -11163,7 +11262,7 @@
       <c r="R497" s="13"/>
       <c r="S497" s="13"/>
     </row>
-    <row r="498" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B498" s="1"/>
       <c r="C498" s="11"/>
       <c r="D498" s="11"/>
@@ -11183,7 +11282,7 @@
       <c r="R498" s="13"/>
       <c r="S498" s="13"/>
     </row>
-    <row r="499" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B499" s="1"/>
       <c r="C499" s="11"/>
       <c r="D499" s="11"/>
@@ -11203,7 +11302,7 @@
       <c r="R499" s="13"/>
       <c r="S499" s="13"/>
     </row>
-    <row r="500" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B500" s="1"/>
       <c r="C500" s="11"/>
       <c r="D500" s="11"/>
@@ -11223,7 +11322,7 @@
       <c r="R500" s="13"/>
       <c r="S500" s="13"/>
     </row>
-    <row r="501" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B501" s="1"/>
       <c r="C501" s="11"/>
       <c r="D501" s="11"/>
@@ -11243,7 +11342,7 @@
       <c r="R501" s="13"/>
       <c r="S501" s="13"/>
     </row>
-    <row r="502" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B502" s="1"/>
       <c r="C502" s="11"/>
       <c r="D502" s="11"/>
@@ -11263,7 +11362,7 @@
       <c r="R502" s="13"/>
       <c r="S502" s="13"/>
     </row>
-    <row r="503" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B503" s="1"/>
       <c r="C503" s="11"/>
       <c r="D503" s="11"/>
@@ -11283,7 +11382,7 @@
       <c r="R503" s="13"/>
       <c r="S503" s="13"/>
     </row>
-    <row r="504" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B504" s="1"/>
       <c r="C504" s="11"/>
       <c r="D504" s="11"/>
@@ -11303,7 +11402,7 @@
       <c r="R504" s="13"/>
       <c r="S504" s="13"/>
     </row>
-    <row r="505" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B505" s="1"/>
       <c r="C505" s="11"/>
       <c r="D505" s="11"/>
@@ -11323,7 +11422,7 @@
       <c r="R505" s="13"/>
       <c r="S505" s="13"/>
     </row>
-    <row r="506" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B506" s="1"/>
       <c r="C506" s="11"/>
       <c r="D506" s="11"/>
@@ -11343,7 +11442,7 @@
       <c r="R506" s="13"/>
       <c r="S506" s="13"/>
     </row>
-    <row r="507" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B507" s="1"/>
       <c r="C507" s="11"/>
       <c r="D507" s="11"/>
@@ -11363,7 +11462,7 @@
       <c r="R507" s="13"/>
       <c r="S507" s="13"/>
     </row>
-    <row r="508" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B508" s="1"/>
       <c r="C508" s="11"/>
       <c r="D508" s="11"/>
@@ -11383,7 +11482,7 @@
       <c r="R508" s="13"/>
       <c r="S508" s="13"/>
     </row>
-    <row r="509" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B509" s="1"/>
       <c r="C509" s="11"/>
       <c r="D509" s="11"/>
@@ -11403,7 +11502,7 @@
       <c r="R509" s="13"/>
       <c r="S509" s="13"/>
     </row>
-    <row r="510" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B510" s="1"/>
       <c r="C510" s="11"/>
       <c r="D510" s="11"/>
@@ -11423,7 +11522,7 @@
       <c r="R510" s="13"/>
       <c r="S510" s="13"/>
     </row>
-    <row r="511" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="1"/>
       <c r="C511" s="11"/>
       <c r="D511" s="11"/>
@@ -11443,7 +11542,7 @@
       <c r="R511" s="13"/>
       <c r="S511" s="13"/>
     </row>
-    <row r="512" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B512" s="1"/>
       <c r="C512" s="11"/>
       <c r="D512" s="11"/>
@@ -11463,7 +11562,7 @@
       <c r="R512" s="13"/>
       <c r="S512" s="13"/>
     </row>
-    <row r="513" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B513" s="1"/>
       <c r="C513" s="11"/>
       <c r="D513" s="11"/>
@@ -11483,7 +11582,7 @@
       <c r="R513" s="13"/>
       <c r="S513" s="13"/>
     </row>
-    <row r="514" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B514" s="1"/>
       <c r="C514" s="11"/>
       <c r="D514" s="11"/>
@@ -11503,7 +11602,7 @@
       <c r="R514" s="13"/>
       <c r="S514" s="13"/>
     </row>
-    <row r="515" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B515" s="1"/>
       <c r="C515" s="11"/>
       <c r="D515" s="11"/>
@@ -11523,7 +11622,7 @@
       <c r="R515" s="13"/>
       <c r="S515" s="13"/>
     </row>
-    <row r="516" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B516" s="1"/>
       <c r="C516" s="11"/>
       <c r="D516" s="11"/>
@@ -11543,7 +11642,7 @@
       <c r="R516" s="13"/>
       <c r="S516" s="13"/>
     </row>
-    <row r="517" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B517" s="1"/>
       <c r="C517" s="11"/>
       <c r="D517" s="11"/>
@@ -11563,7 +11662,7 @@
       <c r="R517" s="13"/>
       <c r="S517" s="13"/>
     </row>
-    <row r="518" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B518" s="1"/>
       <c r="C518" s="11"/>
       <c r="D518" s="11"/>
@@ -11583,7 +11682,7 @@
       <c r="R518" s="13"/>
       <c r="S518" s="13"/>
     </row>
-    <row r="519" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B519" s="1"/>
       <c r="C519" s="11"/>
       <c r="D519" s="11"/>
@@ -11603,7 +11702,7 @@
       <c r="R519" s="13"/>
       <c r="S519" s="13"/>
     </row>
-    <row r="520" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B520" s="1"/>
       <c r="C520" s="11"/>
       <c r="D520" s="11"/>
@@ -11623,7 +11722,7 @@
       <c r="R520" s="13"/>
       <c r="S520" s="13"/>
     </row>
-    <row r="521" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B521" s="1"/>
       <c r="C521" s="11"/>
       <c r="D521" s="11"/>
@@ -11643,7 +11742,7 @@
       <c r="R521" s="13"/>
       <c r="S521" s="13"/>
     </row>
-    <row r="522" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B522" s="1"/>
       <c r="C522" s="11"/>
       <c r="D522" s="11"/>
@@ -11663,7 +11762,7 @@
       <c r="R522" s="13"/>
       <c r="S522" s="13"/>
     </row>
-    <row r="523" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B523" s="1"/>
       <c r="C523" s="11"/>
       <c r="D523" s="11"/>
@@ -11683,7 +11782,7 @@
       <c r="R523" s="13"/>
       <c r="S523" s="13"/>
     </row>
-    <row r="524" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B524" s="1"/>
       <c r="C524" s="11"/>
       <c r="D524" s="11"/>
@@ -11703,7 +11802,7 @@
       <c r="R524" s="13"/>
       <c r="S524" s="13"/>
     </row>
-    <row r="525" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B525" s="1"/>
       <c r="C525" s="11"/>
       <c r="D525" s="11"/>
@@ -11723,7 +11822,7 @@
       <c r="R525" s="13"/>
       <c r="S525" s="13"/>
     </row>
-    <row r="526" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B526" s="1"/>
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
@@ -11743,7 +11842,7 @@
       <c r="R526" s="13"/>
       <c r="S526" s="13"/>
     </row>
-    <row r="527" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B527" s="1"/>
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
@@ -11763,7 +11862,7 @@
       <c r="R527" s="13"/>
       <c r="S527" s="13"/>
     </row>
-    <row r="528" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B528" s="1"/>
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
@@ -11783,7 +11882,7 @@
       <c r="R528" s="13"/>
       <c r="S528" s="13"/>
     </row>
-    <row r="529" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B529" s="1"/>
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
@@ -11803,7 +11902,7 @@
       <c r="R529" s="13"/>
       <c r="S529" s="13"/>
     </row>
-    <row r="530" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B530" s="1"/>
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
@@ -11823,7 +11922,7 @@
       <c r="R530" s="13"/>
       <c r="S530" s="13"/>
     </row>
-    <row r="531" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B531" s="1"/>
       <c r="C531" s="11"/>
       <c r="D531" s="11"/>
@@ -11843,7 +11942,7 @@
       <c r="R531" s="13"/>
       <c r="S531" s="13"/>
     </row>
-    <row r="532" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B532" s="1"/>
       <c r="C532" s="11"/>
       <c r="D532" s="11"/>
@@ -11863,7 +11962,7 @@
       <c r="R532" s="13"/>
       <c r="S532" s="13"/>
     </row>
-    <row r="533" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B533" s="1"/>
       <c r="C533" s="11"/>
       <c r="D533" s="11"/>
@@ -11883,7 +11982,7 @@
       <c r="R533" s="13"/>
       <c r="S533" s="13"/>
     </row>
-    <row r="534" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B534" s="1"/>
       <c r="C534" s="11"/>
       <c r="D534" s="11"/>
@@ -11903,7 +12002,7 @@
       <c r="R534" s="13"/>
       <c r="S534" s="13"/>
     </row>
-    <row r="535" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B535" s="1"/>
       <c r="C535" s="11"/>
       <c r="D535" s="11"/>
@@ -11923,7 +12022,7 @@
       <c r="R535" s="13"/>
       <c r="S535" s="13"/>
     </row>
-    <row r="536" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B536" s="1"/>
       <c r="C536" s="11"/>
       <c r="D536" s="11"/>
@@ -11943,7 +12042,7 @@
       <c r="R536" s="13"/>
       <c r="S536" s="13"/>
     </row>
-    <row r="537" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B537" s="1"/>
       <c r="C537" s="11"/>
       <c r="D537" s="11"/>
@@ -11963,7 +12062,7 @@
       <c r="R537" s="13"/>
       <c r="S537" s="13"/>
     </row>
-    <row r="538" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B538" s="1"/>
       <c r="C538" s="11"/>
       <c r="D538" s="11"/>
@@ -11983,7 +12082,7 @@
       <c r="R538" s="13"/>
       <c r="S538" s="13"/>
     </row>
-    <row r="539" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B539" s="1"/>
       <c r="C539" s="11"/>
       <c r="D539" s="11"/>
@@ -12003,7 +12102,7 @@
       <c r="R539" s="13"/>
       <c r="S539" s="13"/>
     </row>
-    <row r="540" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B540" s="1"/>
       <c r="C540" s="11"/>
       <c r="D540" s="11"/>
@@ -12023,7 +12122,7 @@
       <c r="R540" s="13"/>
       <c r="S540" s="13"/>
     </row>
-    <row r="541" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B541" s="1"/>
       <c r="C541" s="11"/>
       <c r="D541" s="11"/>
@@ -12043,7 +12142,7 @@
       <c r="R541" s="13"/>
       <c r="S541" s="13"/>
     </row>
-    <row r="542" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B542" s="1"/>
       <c r="C542" s="11"/>
       <c r="D542" s="11"/>
@@ -12063,7 +12162,7 @@
       <c r="R542" s="13"/>
       <c r="S542" s="13"/>
     </row>
-    <row r="543" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B543" s="1"/>
       <c r="C543" s="11"/>
       <c r="D543" s="11"/>
@@ -12083,7 +12182,7 @@
       <c r="R543" s="13"/>
       <c r="S543" s="13"/>
     </row>
-    <row r="544" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B544" s="1"/>
       <c r="C544" s="11"/>
       <c r="D544" s="11"/>
@@ -12103,7 +12202,7 @@
       <c r="R544" s="13"/>
       <c r="S544" s="13"/>
     </row>
-    <row r="545" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B545" s="1"/>
       <c r="C545" s="11"/>
       <c r="D545" s="11"/>
@@ -12123,7 +12222,7 @@
       <c r="R545" s="13"/>
       <c r="S545" s="13"/>
     </row>
-    <row r="546" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B546" s="1"/>
       <c r="C546" s="11"/>
       <c r="D546" s="11"/>
@@ -12143,7 +12242,7 @@
       <c r="R546" s="13"/>
       <c r="S546" s="13"/>
     </row>
-    <row r="547" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B547" s="1"/>
       <c r="C547" s="11"/>
       <c r="D547" s="11"/>
@@ -12163,7 +12262,7 @@
       <c r="R547" s="13"/>
       <c r="S547" s="13"/>
     </row>
-    <row r="548" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B548" s="1"/>
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
@@ -12183,7 +12282,7 @@
       <c r="R548" s="13"/>
       <c r="S548" s="13"/>
     </row>
-    <row r="549" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B549" s="1"/>
       <c r="C549" s="11"/>
       <c r="D549" s="11"/>
@@ -12203,7 +12302,7 @@
       <c r="R549" s="13"/>
       <c r="S549" s="13"/>
     </row>
-    <row r="550" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B550" s="1"/>
       <c r="C550" s="11"/>
       <c r="D550" s="11"/>
@@ -12223,7 +12322,7 @@
       <c r="R550" s="13"/>
       <c r="S550" s="13"/>
     </row>
-    <row r="551" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B551" s="1"/>
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
@@ -12243,7 +12342,7 @@
       <c r="R551" s="13"/>
       <c r="S551" s="13"/>
     </row>
-    <row r="552" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B552" s="1"/>
       <c r="C552" s="11"/>
       <c r="D552" s="11"/>
@@ -12263,7 +12362,7 @@
       <c r="R552" s="13"/>
       <c r="S552" s="13"/>
     </row>
-    <row r="553" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B553" s="1"/>
       <c r="C553" s="11"/>
       <c r="D553" s="11"/>
@@ -12283,7 +12382,7 @@
       <c r="R553" s="13"/>
       <c r="S553" s="13"/>
     </row>
-    <row r="554" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B554" s="1"/>
       <c r="C554" s="11"/>
       <c r="D554" s="11"/>
@@ -12303,7 +12402,7 @@
       <c r="R554" s="13"/>
       <c r="S554" s="13"/>
     </row>
-    <row r="555" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B555" s="1"/>
       <c r="C555" s="11"/>
       <c r="D555" s="11"/>
@@ -12323,7 +12422,7 @@
       <c r="R555" s="13"/>
       <c r="S555" s="13"/>
     </row>
-    <row r="556" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B556" s="1"/>
       <c r="C556" s="11"/>
       <c r="D556" s="11"/>
@@ -12343,7 +12442,7 @@
       <c r="R556" s="13"/>
       <c r="S556" s="13"/>
     </row>
-    <row r="557" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B557" s="1"/>
       <c r="C557" s="11"/>
       <c r="D557" s="11"/>
@@ -12363,7 +12462,7 @@
       <c r="R557" s="13"/>
       <c r="S557" s="13"/>
     </row>
-    <row r="558" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B558" s="1"/>
       <c r="C558" s="11"/>
       <c r="D558" s="11"/>
@@ -12383,7 +12482,7 @@
       <c r="R558" s="13"/>
       <c r="S558" s="13"/>
     </row>
-    <row r="559" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B559" s="1"/>
       <c r="C559" s="11"/>
       <c r="D559" s="11"/>
@@ -12403,7 +12502,7 @@
       <c r="R559" s="13"/>
       <c r="S559" s="13"/>
     </row>
-    <row r="560" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B560" s="1"/>
       <c r="C560" s="11"/>
       <c r="D560" s="11"/>
@@ -12423,7 +12522,7 @@
       <c r="R560" s="13"/>
       <c r="S560" s="13"/>
     </row>
-    <row r="561" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B561" s="1"/>
       <c r="C561" s="11"/>
       <c r="D561" s="11"/>
@@ -12443,7 +12542,7 @@
       <c r="R561" s="13"/>
       <c r="S561" s="13"/>
     </row>
-    <row r="562" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B562" s="1"/>
       <c r="C562" s="11"/>
       <c r="D562" s="11"/>
@@ -12463,7 +12562,7 @@
       <c r="R562" s="13"/>
       <c r="S562" s="13"/>
     </row>
-    <row r="563" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B563" s="1"/>
       <c r="C563" s="11"/>
       <c r="D563" s="11"/>
@@ -12483,7 +12582,7 @@
       <c r="R563" s="13"/>
       <c r="S563" s="13"/>
     </row>
-    <row r="564" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B564" s="1"/>
       <c r="C564" s="11"/>
       <c r="D564" s="11"/>
@@ -12503,7 +12602,7 @@
       <c r="R564" s="13"/>
       <c r="S564" s="13"/>
     </row>
-    <row r="565" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B565" s="1"/>
       <c r="C565" s="11"/>
       <c r="D565" s="11"/>
@@ -12523,7 +12622,7 @@
       <c r="R565" s="13"/>
       <c r="S565" s="13"/>
     </row>
-    <row r="566" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B566" s="1"/>
       <c r="C566" s="11"/>
       <c r="D566" s="11"/>
@@ -12543,7 +12642,7 @@
       <c r="R566" s="13"/>
       <c r="S566" s="13"/>
     </row>
-    <row r="567" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B567" s="1"/>
       <c r="C567" s="11"/>
       <c r="D567" s="11"/>
@@ -12563,7 +12662,7 @@
       <c r="R567" s="13"/>
       <c r="S567" s="13"/>
     </row>
-    <row r="568" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B568" s="1"/>
       <c r="C568" s="11"/>
       <c r="D568" s="11"/>
@@ -12583,7 +12682,7 @@
       <c r="R568" s="13"/>
       <c r="S568" s="13"/>
     </row>
-    <row r="569" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B569" s="1"/>
       <c r="C569" s="11"/>
       <c r="D569" s="11"/>
@@ -12603,7 +12702,7 @@
       <c r="R569" s="13"/>
       <c r="S569" s="13"/>
     </row>
-    <row r="570" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B570" s="1"/>
       <c r="C570" s="11"/>
       <c r="D570" s="11"/>
@@ -12623,7 +12722,7 @@
       <c r="R570" s="13"/>
       <c r="S570" s="13"/>
     </row>
-    <row r="571" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B571" s="1"/>
       <c r="C571" s="11"/>
       <c r="D571" s="11"/>
@@ -12643,7 +12742,7 @@
       <c r="R571" s="13"/>
       <c r="S571" s="13"/>
     </row>
-    <row r="572" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B572" s="1"/>
       <c r="C572" s="11"/>
       <c r="D572" s="11"/>
@@ -12663,7 +12762,7 @@
       <c r="R572" s="13"/>
       <c r="S572" s="13"/>
     </row>
-    <row r="573" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B573" s="1"/>
       <c r="C573" s="11"/>
       <c r="D573" s="11"/>
@@ -12683,7 +12782,7 @@
       <c r="R573" s="13"/>
       <c r="S573" s="13"/>
     </row>
-    <row r="574" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B574" s="1"/>
       <c r="C574" s="11"/>
       <c r="D574" s="11"/>
@@ -12703,7 +12802,7 @@
       <c r="R574" s="13"/>
       <c r="S574" s="13"/>
     </row>
-    <row r="575" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B575" s="1"/>
       <c r="C575" s="11"/>
       <c r="D575" s="11"/>
@@ -12723,7 +12822,7 @@
       <c r="R575" s="13"/>
       <c r="S575" s="13"/>
     </row>
-    <row r="576" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B576" s="1"/>
       <c r="C576" s="11"/>
       <c r="D576" s="11"/>
@@ -12743,7 +12842,7 @@
       <c r="R576" s="13"/>
       <c r="S576" s="13"/>
     </row>
-    <row r="577" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B577" s="1"/>
       <c r="C577" s="11"/>
       <c r="D577" s="11"/>
@@ -12763,7 +12862,7 @@
       <c r="R577" s="13"/>
       <c r="S577" s="13"/>
     </row>
-    <row r="578" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B578" s="1"/>
       <c r="C578" s="11"/>
       <c r="D578" s="11"/>
@@ -12783,7 +12882,7 @@
       <c r="R578" s="13"/>
       <c r="S578" s="13"/>
     </row>
-    <row r="579" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B579" s="1"/>
       <c r="C579" s="11"/>
       <c r="D579" s="11"/>
@@ -12803,7 +12902,7 @@
       <c r="R579" s="13"/>
       <c r="S579" s="13"/>
     </row>
-    <row r="580" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B580" s="1"/>
       <c r="C580" s="11"/>
       <c r="D580" s="11"/>
@@ -12823,7 +12922,7 @@
       <c r="R580" s="13"/>
       <c r="S580" s="13"/>
     </row>
-    <row r="581" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B581" s="1"/>
       <c r="C581" s="11"/>
       <c r="D581" s="11"/>
@@ -12843,7 +12942,7 @@
       <c r="R581" s="13"/>
       <c r="S581" s="13"/>
     </row>
-    <row r="582" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B582" s="1"/>
       <c r="C582" s="11"/>
       <c r="D582" s="11"/>
@@ -12863,7 +12962,7 @@
       <c r="R582" s="13"/>
       <c r="S582" s="13"/>
     </row>
-    <row r="583" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B583" s="1"/>
       <c r="C583" s="11"/>
       <c r="D583" s="11"/>
@@ -12883,7 +12982,7 @@
       <c r="R583" s="13"/>
       <c r="S583" s="13"/>
     </row>
-    <row r="584" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B584" s="1"/>
       <c r="C584" s="11"/>
       <c r="D584" s="11"/>
@@ -12903,7 +13002,7 @@
       <c r="R584" s="13"/>
       <c r="S584" s="13"/>
     </row>
-    <row r="585" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B585" s="1"/>
       <c r="C585" s="11"/>
       <c r="D585" s="11"/>
@@ -12923,7 +13022,7 @@
       <c r="R585" s="13"/>
       <c r="S585" s="13"/>
     </row>
-    <row r="586" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B586" s="1"/>
       <c r="C586" s="11"/>
       <c r="D586" s="11"/>
@@ -12943,7 +13042,7 @@
       <c r="R586" s="13"/>
       <c r="S586" s="13"/>
     </row>
-    <row r="587" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B587" s="1"/>
       <c r="C587" s="11"/>
       <c r="D587" s="11"/>
@@ -12963,7 +13062,7 @@
       <c r="R587" s="13"/>
       <c r="S587" s="13"/>
     </row>
-    <row r="588" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B588" s="1"/>
       <c r="C588" s="11"/>
       <c r="D588" s="11"/>
@@ -12983,7 +13082,7 @@
       <c r="R588" s="13"/>
       <c r="S588" s="13"/>
     </row>
-    <row r="589" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B589" s="1"/>
       <c r="C589" s="11"/>
       <c r="D589" s="11"/>
@@ -13003,7 +13102,7 @@
       <c r="R589" s="13"/>
       <c r="S589" s="13"/>
     </row>
-    <row r="590" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B590" s="1"/>
       <c r="C590" s="11"/>
       <c r="D590" s="11"/>
@@ -13023,7 +13122,7 @@
       <c r="R590" s="13"/>
       <c r="S590" s="13"/>
     </row>
-    <row r="591" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B591" s="1"/>
       <c r="C591" s="11"/>
       <c r="D591" s="11"/>
@@ -13043,7 +13142,7 @@
       <c r="R591" s="13"/>
       <c r="S591" s="13"/>
     </row>
-    <row r="592" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B592" s="1"/>
       <c r="C592" s="11"/>
       <c r="D592" s="11"/>
@@ -13063,7 +13162,7 @@
       <c r="R592" s="13"/>
       <c r="S592" s="13"/>
     </row>
-    <row r="593" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B593" s="1"/>
       <c r="C593" s="11"/>
       <c r="D593" s="11"/>
@@ -13083,7 +13182,7 @@
       <c r="R593" s="13"/>
       <c r="S593" s="13"/>
     </row>
-    <row r="594" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B594" s="1"/>
       <c r="C594" s="11"/>
       <c r="D594" s="11"/>
@@ -13103,7 +13202,7 @@
       <c r="R594" s="13"/>
       <c r="S594" s="13"/>
     </row>
-    <row r="595" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B595" s="1"/>
       <c r="C595" s="11"/>
       <c r="D595" s="11"/>
@@ -13123,7 +13222,7 @@
       <c r="R595" s="13"/>
       <c r="S595" s="13"/>
     </row>
-    <row r="596" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B596" s="1"/>
       <c r="C596" s="11"/>
       <c r="D596" s="11"/>
@@ -13143,7 +13242,7 @@
       <c r="R596" s="13"/>
       <c r="S596" s="13"/>
     </row>
-    <row r="597" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B597" s="1"/>
       <c r="C597" s="11"/>
       <c r="D597" s="11"/>
@@ -13163,7 +13262,7 @@
       <c r="R597" s="13"/>
       <c r="S597" s="13"/>
     </row>
-    <row r="598" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B598" s="1"/>
       <c r="C598" s="11"/>
       <c r="D598" s="11"/>
@@ -13183,7 +13282,7 @@
       <c r="R598" s="13"/>
       <c r="S598" s="13"/>
     </row>
-    <row r="599" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B599" s="1"/>
       <c r="C599" s="11"/>
       <c r="D599" s="11"/>
@@ -13203,7 +13302,7 @@
       <c r="R599" s="13"/>
       <c r="S599" s="13"/>
     </row>
-    <row r="600" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B600" s="1"/>
       <c r="C600" s="11"/>
       <c r="D600" s="11"/>
@@ -13223,7 +13322,7 @@
       <c r="R600" s="13"/>
       <c r="S600" s="13"/>
     </row>
-    <row r="601" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B601" s="1"/>
       <c r="C601" s="11"/>
       <c r="D601" s="11"/>
@@ -13243,7 +13342,7 @@
       <c r="R601" s="13"/>
       <c r="S601" s="13"/>
     </row>
-    <row r="602" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B602" s="1"/>
       <c r="C602" s="11"/>
       <c r="D602" s="11"/>
@@ -13263,7 +13362,7 @@
       <c r="R602" s="13"/>
       <c r="S602" s="13"/>
     </row>
-    <row r="603" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B603" s="1"/>
       <c r="C603" s="11"/>
       <c r="D603" s="11"/>
@@ -13283,7 +13382,7 @@
       <c r="R603" s="13"/>
       <c r="S603" s="13"/>
     </row>
-    <row r="604" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B604" s="1"/>
       <c r="C604" s="11"/>
       <c r="D604" s="11"/>
@@ -13303,7 +13402,7 @@
       <c r="R604" s="13"/>
       <c r="S604" s="13"/>
     </row>
-    <row r="605" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B605" s="1"/>
       <c r="C605" s="11"/>
       <c r="D605" s="11"/>
@@ -13323,7 +13422,7 @@
       <c r="R605" s="13"/>
       <c r="S605" s="13"/>
     </row>
-    <row r="606" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B606" s="1"/>
       <c r="C606" s="11"/>
       <c r="D606" s="11"/>
@@ -13343,7 +13442,7 @@
       <c r="R606" s="13"/>
       <c r="S606" s="13"/>
     </row>
-    <row r="607" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B607" s="1"/>
       <c r="C607" s="11"/>
       <c r="D607" s="11"/>
@@ -13363,7 +13462,7 @@
       <c r="R607" s="13"/>
       <c r="S607" s="13"/>
     </row>
-    <row r="608" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B608" s="1"/>
       <c r="C608" s="11"/>
       <c r="D608" s="11"/>
@@ -13383,7 +13482,7 @@
       <c r="R608" s="13"/>
       <c r="S608" s="13"/>
     </row>
-    <row r="609" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B609" s="1"/>
       <c r="C609" s="11"/>
       <c r="D609" s="11"/>
@@ -13403,7 +13502,7 @@
       <c r="R609" s="13"/>
       <c r="S609" s="13"/>
     </row>
-    <row r="610" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B610" s="1"/>
       <c r="C610" s="11"/>
       <c r="D610" s="11"/>
@@ -13423,7 +13522,7 @@
       <c r="R610" s="13"/>
       <c r="S610" s="13"/>
     </row>
-    <row r="611" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B611" s="1"/>
       <c r="C611" s="11"/>
       <c r="D611" s="11"/>
@@ -13443,7 +13542,7 @@
       <c r="R611" s="13"/>
       <c r="S611" s="13"/>
     </row>
-    <row r="612" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B612" s="1"/>
       <c r="C612" s="11"/>
       <c r="D612" s="11"/>
@@ -13463,7 +13562,7 @@
       <c r="R612" s="13"/>
       <c r="S612" s="13"/>
     </row>
-    <row r="613" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B613" s="1"/>
       <c r="C613" s="11"/>
       <c r="D613" s="11"/>
@@ -13483,7 +13582,7 @@
       <c r="R613" s="13"/>
       <c r="S613" s="13"/>
     </row>
-    <row r="614" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B614" s="1"/>
       <c r="C614" s="11"/>
       <c r="D614" s="11"/>
@@ -13503,7 +13602,7 @@
       <c r="R614" s="13"/>
       <c r="S614" s="13"/>
     </row>
-    <row r="615" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B615" s="1"/>
       <c r="C615" s="11"/>
       <c r="D615" s="11"/>
@@ -13523,7 +13622,7 @@
       <c r="R615" s="13"/>
       <c r="S615" s="13"/>
     </row>
-    <row r="616" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B616" s="1"/>
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
@@ -13543,7 +13642,7 @@
       <c r="R616" s="13"/>
       <c r="S616" s="13"/>
     </row>
-    <row r="617" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B617" s="1"/>
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
@@ -13563,7 +13662,7 @@
       <c r="R617" s="13"/>
       <c r="S617" s="13"/>
     </row>
-    <row r="618" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B618" s="1"/>
       <c r="C618" s="11"/>
       <c r="D618" s="11"/>
@@ -13583,7 +13682,7 @@
       <c r="R618" s="13"/>
       <c r="S618" s="13"/>
     </row>
-    <row r="619" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B619" s="1"/>
       <c r="C619" s="11"/>
       <c r="D619" s="11"/>
@@ -13603,7 +13702,7 @@
       <c r="R619" s="13"/>
       <c r="S619" s="13"/>
     </row>
-    <row r="620" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B620" s="1"/>
       <c r="C620" s="11"/>
       <c r="D620" s="11"/>
@@ -13623,7 +13722,7 @@
       <c r="R620" s="13"/>
       <c r="S620" s="13"/>
     </row>
-    <row r="621" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B621" s="1"/>
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
@@ -13643,7 +13742,7 @@
       <c r="R621" s="13"/>
       <c r="S621" s="13"/>
     </row>
-    <row r="622" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B622" s="1"/>
       <c r="C622" s="11"/>
       <c r="D622" s="11"/>
@@ -13663,7 +13762,7 @@
       <c r="R622" s="13"/>
       <c r="S622" s="13"/>
     </row>
-    <row r="623" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B623" s="1"/>
       <c r="C623" s="11"/>
       <c r="D623" s="11"/>
@@ -13683,7 +13782,7 @@
       <c r="R623" s="13"/>
       <c r="S623" s="13"/>
     </row>
-    <row r="624" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B624" s="1"/>
       <c r="C624" s="11"/>
       <c r="D624" s="11"/>
@@ -13703,7 +13802,7 @@
       <c r="R624" s="13"/>
       <c r="S624" s="13"/>
     </row>
-    <row r="625" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B625" s="1"/>
       <c r="C625" s="11"/>
       <c r="D625" s="11"/>
@@ -13723,7 +13822,7 @@
       <c r="R625" s="13"/>
       <c r="S625" s="13"/>
     </row>
-    <row r="626" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B626" s="1"/>
       <c r="C626" s="11"/>
       <c r="D626" s="11"/>
@@ -13743,7 +13842,7 @@
       <c r="R626" s="13"/>
       <c r="S626" s="13"/>
     </row>
-    <row r="627" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B627" s="1"/>
       <c r="C627" s="11"/>
       <c r="D627" s="11"/>
@@ -13763,7 +13862,7 @@
       <c r="R627" s="13"/>
       <c r="S627" s="13"/>
     </row>
-    <row r="628" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B628" s="1"/>
       <c r="C628" s="11"/>
       <c r="D628" s="11"/>
@@ -13783,7 +13882,7 @@
       <c r="R628" s="13"/>
       <c r="S628" s="13"/>
     </row>
-    <row r="629" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B629" s="1"/>
       <c r="C629" s="11"/>
       <c r="D629" s="11"/>
@@ -13803,7 +13902,7 @@
       <c r="R629" s="13"/>
       <c r="S629" s="13"/>
     </row>
-    <row r="630" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B630" s="1"/>
       <c r="C630" s="11"/>
       <c r="D630" s="11"/>
@@ -13823,7 +13922,7 @@
       <c r="R630" s="13"/>
       <c r="S630" s="13"/>
     </row>
-    <row r="631" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B631" s="1"/>
       <c r="C631" s="11"/>
       <c r="D631" s="11"/>
@@ -13843,7 +13942,7 @@
       <c r="R631" s="13"/>
       <c r="S631" s="13"/>
     </row>
-    <row r="632" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B632" s="1"/>
       <c r="C632" s="11"/>
       <c r="D632" s="11"/>
@@ -13863,7 +13962,7 @@
       <c r="R632" s="13"/>
       <c r="S632" s="13"/>
     </row>
-    <row r="633" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B633" s="1"/>
       <c r="C633" s="11"/>
       <c r="D633" s="11"/>
@@ -13883,7 +13982,7 @@
       <c r="R633" s="13"/>
       <c r="S633" s="13"/>
     </row>
-    <row r="634" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B634" s="1"/>
       <c r="C634" s="11"/>
       <c r="D634" s="11"/>
@@ -13903,7 +14002,7 @@
       <c r="R634" s="13"/>
       <c r="S634" s="13"/>
     </row>
-    <row r="635" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B635" s="1"/>
       <c r="C635" s="11"/>
       <c r="D635" s="11"/>
@@ -13923,7 +14022,7 @@
       <c r="R635" s="13"/>
       <c r="S635" s="13"/>
     </row>
-    <row r="636" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B636" s="1"/>
       <c r="C636" s="11"/>
       <c r="D636" s="11"/>
@@ -13943,7 +14042,7 @@
       <c r="R636" s="13"/>
       <c r="S636" s="13"/>
     </row>
-    <row r="637" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B637" s="1"/>
       <c r="C637" s="11"/>
       <c r="D637" s="11"/>
@@ -13963,7 +14062,7 @@
       <c r="R637" s="13"/>
       <c r="S637" s="13"/>
     </row>
-    <row r="638" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B638" s="1"/>
       <c r="C638" s="11"/>
       <c r="D638" s="11"/>
@@ -13983,7 +14082,7 @@
       <c r="R638" s="13"/>
       <c r="S638" s="13"/>
     </row>
-    <row r="639" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B639" s="1"/>
       <c r="C639" s="11"/>
       <c r="D639" s="11"/>
@@ -14003,7 +14102,7 @@
       <c r="R639" s="13"/>
       <c r="S639" s="13"/>
     </row>
-    <row r="640" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B640" s="1"/>
       <c r="C640" s="11"/>
       <c r="D640" s="11"/>
@@ -14023,7 +14122,7 @@
       <c r="R640" s="13"/>
       <c r="S640" s="13"/>
     </row>
-    <row r="641" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B641" s="1"/>
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
@@ -14043,7 +14142,7 @@
       <c r="R641" s="13"/>
       <c r="S641" s="13"/>
     </row>
-    <row r="642" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B642" s="1"/>
       <c r="C642" s="11"/>
       <c r="D642" s="11"/>
@@ -14063,7 +14162,7 @@
       <c r="R642" s="13"/>
       <c r="S642" s="13"/>
     </row>
-    <row r="643" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B643" s="1"/>
       <c r="C643" s="11"/>
       <c r="D643" s="11"/>
@@ -14083,7 +14182,7 @@
       <c r="R643" s="13"/>
       <c r="S643" s="13"/>
     </row>
-    <row r="644" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B644" s="1"/>
       <c r="C644" s="11"/>
       <c r="D644" s="11"/>
@@ -14103,7 +14202,7 @@
       <c r="R644" s="13"/>
       <c r="S644" s="13"/>
     </row>
-    <row r="645" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B645" s="1"/>
       <c r="C645" s="11"/>
       <c r="D645" s="11"/>
@@ -14123,7 +14222,7 @@
       <c r="R645" s="13"/>
       <c r="S645" s="13"/>
     </row>
-    <row r="646" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B646" s="1"/>
       <c r="C646" s="11"/>
       <c r="D646" s="11"/>
@@ -14143,7 +14242,7 @@
       <c r="R646" s="13"/>
       <c r="S646" s="13"/>
     </row>
-    <row r="647" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B647" s="1"/>
       <c r="C647" s="11"/>
       <c r="D647" s="11"/>
@@ -14163,7 +14262,7 @@
       <c r="R647" s="13"/>
       <c r="S647" s="13"/>
     </row>
-    <row r="648" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B648" s="1"/>
       <c r="C648" s="11"/>
       <c r="D648" s="11"/>
@@ -14183,7 +14282,7 @@
       <c r="R648" s="13"/>
       <c r="S648" s="13"/>
     </row>
-    <row r="649" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B649" s="1"/>
       <c r="C649" s="11"/>
       <c r="D649" s="11"/>
@@ -14203,7 +14302,7 @@
       <c r="R649" s="13"/>
       <c r="S649" s="13"/>
     </row>
-    <row r="650" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B650" s="1"/>
       <c r="C650" s="11"/>
       <c r="D650" s="11"/>
@@ -14223,7 +14322,7 @@
       <c r="R650" s="13"/>
       <c r="S650" s="13"/>
     </row>
-    <row r="651" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B651" s="1"/>
       <c r="C651" s="11"/>
       <c r="D651" s="11"/>
@@ -14243,7 +14342,7 @@
       <c r="R651" s="13"/>
       <c r="S651" s="13"/>
     </row>
-    <row r="652" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B652" s="1"/>
       <c r="C652" s="11"/>
       <c r="D652" s="11"/>
@@ -14263,7 +14362,7 @@
       <c r="R652" s="13"/>
       <c r="S652" s="13"/>
     </row>
-    <row r="653" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B653" s="1"/>
       <c r="C653" s="11"/>
       <c r="D653" s="11"/>
@@ -14283,7 +14382,7 @@
       <c r="R653" s="13"/>
       <c r="S653" s="13"/>
     </row>
-    <row r="654" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B654" s="1"/>
       <c r="C654" s="11"/>
       <c r="D654" s="11"/>
@@ -14303,7 +14402,7 @@
       <c r="R654" s="13"/>
       <c r="S654" s="13"/>
     </row>
-    <row r="655" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B655" s="1"/>
       <c r="C655" s="11"/>
       <c r="D655" s="11"/>
@@ -14323,7 +14422,7 @@
       <c r="R655" s="13"/>
       <c r="S655" s="13"/>
     </row>
-    <row r="656" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B656" s="1"/>
       <c r="C656" s="11"/>
       <c r="D656" s="11"/>
@@ -14343,7 +14442,7 @@
       <c r="R656" s="13"/>
       <c r="S656" s="13"/>
     </row>
-    <row r="657" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B657" s="1"/>
       <c r="C657" s="11"/>
       <c r="D657" s="11"/>
@@ -14363,7 +14462,7 @@
       <c r="R657" s="13"/>
       <c r="S657" s="13"/>
     </row>
-    <row r="658" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B658" s="1"/>
       <c r="C658" s="11"/>
       <c r="D658" s="11"/>
@@ -14383,7 +14482,7 @@
       <c r="R658" s="13"/>
       <c r="S658" s="13"/>
     </row>
-    <row r="659" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" s="1"/>
       <c r="C659" s="11"/>
       <c r="D659" s="11"/>
@@ -14403,7 +14502,7 @@
       <c r="R659" s="13"/>
       <c r="S659" s="13"/>
     </row>
-    <row r="660" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B660" s="1"/>
       <c r="C660" s="11"/>
       <c r="D660" s="11"/>
@@ -14423,7 +14522,7 @@
       <c r="R660" s="13"/>
       <c r="S660" s="13"/>
     </row>
-    <row r="661" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B661" s="1"/>
       <c r="C661" s="11"/>
       <c r="D661" s="11"/>
@@ -14443,7 +14542,7 @@
       <c r="R661" s="13"/>
       <c r="S661" s="13"/>
     </row>
-    <row r="662" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B662" s="1"/>
       <c r="C662" s="11"/>
       <c r="D662" s="11"/>
@@ -14463,7 +14562,7 @@
       <c r="R662" s="13"/>
       <c r="S662" s="13"/>
     </row>
-    <row r="663" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B663" s="1"/>
       <c r="C663" s="11"/>
       <c r="D663" s="11"/>
@@ -14483,7 +14582,7 @@
       <c r="R663" s="13"/>
       <c r="S663" s="13"/>
     </row>
-    <row r="664" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B664" s="1"/>
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
@@ -14503,7 +14602,7 @@
       <c r="R664" s="13"/>
       <c r="S664" s="13"/>
     </row>
-    <row r="665" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B665" s="1"/>
       <c r="C665" s="11"/>
       <c r="D665" s="11"/>
@@ -14523,7 +14622,7 @@
       <c r="R665" s="13"/>
       <c r="S665" s="13"/>
     </row>
-    <row r="666" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B666" s="1"/>
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
@@ -14543,7 +14642,7 @@
       <c r="R666" s="13"/>
       <c r="S666" s="13"/>
     </row>
-    <row r="667" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B667" s="1"/>
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
@@ -14563,7 +14662,7 @@
       <c r="R667" s="13"/>
       <c r="S667" s="13"/>
     </row>
-    <row r="668" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B668" s="1"/>
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
@@ -14583,7 +14682,7 @@
       <c r="R668" s="13"/>
       <c r="S668" s="13"/>
     </row>
-    <row r="669" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B669" s="1"/>
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
@@ -14603,7 +14702,7 @@
       <c r="R669" s="13"/>
       <c r="S669" s="13"/>
     </row>
-    <row r="670" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B670" s="1"/>
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
@@ -14623,7 +14722,7 @@
       <c r="R670" s="13"/>
       <c r="S670" s="13"/>
     </row>
-    <row r="671" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B671" s="1"/>
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
@@ -14643,7 +14742,7 @@
       <c r="R671" s="13"/>
       <c r="S671" s="13"/>
     </row>
-    <row r="672" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B672" s="1"/>
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
@@ -14663,7 +14762,7 @@
       <c r="R672" s="13"/>
       <c r="S672" s="13"/>
     </row>
-    <row r="673" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B673" s="1"/>
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
@@ -14683,7 +14782,7 @@
       <c r="R673" s="13"/>
       <c r="S673" s="13"/>
     </row>
-    <row r="674" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B674" s="1"/>
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
@@ -14703,7 +14802,7 @@
       <c r="R674" s="13"/>
       <c r="S674" s="13"/>
     </row>
-    <row r="675" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B675" s="1"/>
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
@@ -14723,7 +14822,7 @@
       <c r="R675" s="13"/>
       <c r="S675" s="13"/>
     </row>
-    <row r="676" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B676" s="1"/>
       <c r="C676" s="11"/>
       <c r="D676" s="11"/>
@@ -14743,7 +14842,7 @@
       <c r="R676" s="13"/>
       <c r="S676" s="13"/>
     </row>
-    <row r="677" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B677" s="1"/>
       <c r="C677" s="11"/>
       <c r="D677" s="11"/>
@@ -14763,7 +14862,7 @@
       <c r="R677" s="13"/>
       <c r="S677" s="13"/>
     </row>
-    <row r="678" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B678" s="1"/>
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
@@ -14783,7 +14882,7 @@
       <c r="R678" s="13"/>
       <c r="S678" s="13"/>
     </row>
-    <row r="679" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B679" s="1"/>
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
@@ -14803,7 +14902,7 @@
       <c r="R679" s="13"/>
       <c r="S679" s="13"/>
     </row>
-    <row r="680" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B680" s="1"/>
       <c r="C680" s="11"/>
       <c r="D680" s="11"/>
@@ -14823,7 +14922,7 @@
       <c r="R680" s="13"/>
       <c r="S680" s="13"/>
     </row>
-    <row r="681" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B681" s="1"/>
       <c r="C681" s="11"/>
       <c r="D681" s="11"/>
@@ -14843,7 +14942,7 @@
       <c r="R681" s="13"/>
       <c r="S681" s="13"/>
     </row>
-    <row r="682" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B682" s="1"/>
       <c r="C682" s="11"/>
       <c r="D682" s="11"/>
@@ -14863,7 +14962,7 @@
       <c r="R682" s="13"/>
       <c r="S682" s="13"/>
     </row>
-    <row r="683" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B683" s="1"/>
       <c r="C683" s="11"/>
       <c r="D683" s="11"/>
@@ -14883,7 +14982,7 @@
       <c r="R683" s="13"/>
       <c r="S683" s="13"/>
     </row>
-    <row r="684" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B684" s="1"/>
       <c r="C684" s="11"/>
       <c r="D684" s="11"/>
@@ -14903,7 +15002,7 @@
       <c r="R684" s="13"/>
       <c r="S684" s="13"/>
     </row>
-    <row r="685" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B685" s="1"/>
       <c r="C685" s="11"/>
       <c r="D685" s="11"/>
@@ -14923,7 +15022,7 @@
       <c r="R685" s="13"/>
       <c r="S685" s="13"/>
     </row>
-    <row r="686" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B686" s="1"/>
       <c r="C686" s="11"/>
       <c r="D686" s="11"/>
@@ -14943,7 +15042,7 @@
       <c r="R686" s="13"/>
       <c r="S686" s="13"/>
     </row>
-    <row r="687" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B687" s="1"/>
       <c r="C687" s="11"/>
       <c r="D687" s="11"/>
@@ -14963,7 +15062,7 @@
       <c r="R687" s="13"/>
       <c r="S687" s="13"/>
     </row>
-    <row r="688" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B688" s="1"/>
       <c r="C688" s="11"/>
       <c r="D688" s="11"/>
@@ -14983,7 +15082,7 @@
       <c r="R688" s="13"/>
       <c r="S688" s="13"/>
     </row>
-    <row r="689" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B689" s="1"/>
       <c r="C689" s="11"/>
       <c r="D689" s="11"/>
@@ -15003,7 +15102,7 @@
       <c r="R689" s="13"/>
       <c r="S689" s="13"/>
     </row>
-    <row r="690" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B690" s="1"/>
       <c r="C690" s="11"/>
       <c r="D690" s="11"/>
@@ -15023,7 +15122,7 @@
       <c r="R690" s="13"/>
       <c r="S690" s="13"/>
     </row>
-    <row r="691" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B691" s="1"/>
       <c r="C691" s="11"/>
       <c r="D691" s="11"/>
@@ -15043,7 +15142,7 @@
       <c r="R691" s="13"/>
       <c r="S691" s="13"/>
     </row>
-    <row r="692" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B692" s="1"/>
       <c r="C692" s="11"/>
       <c r="D692" s="11"/>
@@ -15063,7 +15162,7 @@
       <c r="R692" s="13"/>
       <c r="S692" s="13"/>
     </row>
-    <row r="693" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B693" s="1"/>
       <c r="C693" s="11"/>
       <c r="D693" s="11"/>
@@ -15083,7 +15182,7 @@
       <c r="R693" s="13"/>
       <c r="S693" s="13"/>
     </row>
-    <row r="694" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B694" s="1"/>
       <c r="C694" s="11"/>
       <c r="D694" s="11"/>
@@ -15103,7 +15202,7 @@
       <c r="R694" s="13"/>
       <c r="S694" s="13"/>
     </row>
-    <row r="695" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B695" s="1"/>
       <c r="C695" s="11"/>
       <c r="D695" s="11"/>
@@ -15123,7 +15222,7 @@
       <c r="R695" s="13"/>
       <c r="S695" s="13"/>
     </row>
-    <row r="696" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B696" s="1"/>
       <c r="C696" s="11"/>
       <c r="D696" s="11"/>
@@ -15143,7 +15242,7 @@
       <c r="R696" s="13"/>
       <c r="S696" s="13"/>
     </row>
-    <row r="697" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B697" s="1"/>
       <c r="C697" s="11"/>
       <c r="D697" s="11"/>
@@ -15163,7 +15262,7 @@
       <c r="R697" s="13"/>
       <c r="S697" s="13"/>
     </row>
-    <row r="698" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B698" s="1"/>
       <c r="C698" s="11"/>
       <c r="D698" s="11"/>
@@ -15183,7 +15282,7 @@
       <c r="R698" s="13"/>
       <c r="S698" s="13"/>
     </row>
-    <row r="699" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B699" s="1"/>
       <c r="C699" s="11"/>
       <c r="D699" s="11"/>
@@ -15203,7 +15302,7 @@
       <c r="R699" s="13"/>
       <c r="S699" s="13"/>
     </row>
-    <row r="700" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B700" s="1"/>
       <c r="C700" s="11"/>
       <c r="D700" s="11"/>
@@ -15223,7 +15322,7 @@
       <c r="R700" s="13"/>
       <c r="S700" s="13"/>
     </row>
-    <row r="701" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B701" s="1"/>
       <c r="C701" s="11"/>
       <c r="D701" s="11"/>
@@ -15243,7 +15342,7 @@
       <c r="R701" s="13"/>
       <c r="S701" s="13"/>
     </row>
-    <row r="702" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B702" s="1"/>
       <c r="C702" s="11"/>
       <c r="D702" s="11"/>
@@ -15263,7 +15362,7 @@
       <c r="R702" s="13"/>
       <c r="S702" s="13"/>
     </row>
-    <row r="703" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B703" s="1"/>
       <c r="C703" s="11"/>
       <c r="D703" s="11"/>
@@ -15283,7 +15382,7 @@
       <c r="R703" s="13"/>
       <c r="S703" s="13"/>
     </row>
-    <row r="704" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B704" s="1"/>
       <c r="C704" s="11"/>
       <c r="D704" s="11"/>
@@ -15303,7 +15402,7 @@
       <c r="R704" s="13"/>
       <c r="S704" s="13"/>
     </row>
-    <row r="705" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B705" s="1"/>
       <c r="C705" s="11"/>
       <c r="D705" s="11"/>
@@ -15323,7 +15422,7 @@
       <c r="R705" s="13"/>
       <c r="S705" s="13"/>
     </row>
-    <row r="706" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B706" s="1"/>
       <c r="C706" s="11"/>
       <c r="D706" s="11"/>
@@ -15343,7 +15442,7 @@
       <c r="R706" s="13"/>
       <c r="S706" s="13"/>
     </row>
-    <row r="707" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B707" s="1"/>
       <c r="C707" s="11"/>
       <c r="D707" s="11"/>
@@ -15363,7 +15462,7 @@
       <c r="R707" s="13"/>
       <c r="S707" s="13"/>
     </row>
-    <row r="708" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B708" s="1"/>
       <c r="C708" s="11"/>
       <c r="D708" s="11"/>
@@ -15383,7 +15482,7 @@
       <c r="R708" s="13"/>
       <c r="S708" s="13"/>
     </row>
-    <row r="709" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B709" s="1"/>
       <c r="C709" s="11"/>
       <c r="D709" s="11"/>
@@ -15403,7 +15502,7 @@
       <c r="R709" s="13"/>
       <c r="S709" s="13"/>
     </row>
-    <row r="710" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B710" s="1"/>
       <c r="C710" s="11"/>
       <c r="D710" s="11"/>
@@ -15423,7 +15522,7 @@
       <c r="R710" s="13"/>
       <c r="S710" s="13"/>
     </row>
-    <row r="711" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B711" s="1"/>
       <c r="C711" s="11"/>
       <c r="D711" s="11"/>
@@ -15443,7 +15542,7 @@
       <c r="R711" s="13"/>
       <c r="S711" s="13"/>
     </row>
-    <row r="712" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B712" s="1"/>
       <c r="C712" s="11"/>
       <c r="D712" s="11"/>
@@ -15463,7 +15562,7 @@
       <c r="R712" s="13"/>
       <c r="S712" s="13"/>
     </row>
-    <row r="713" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B713" s="1"/>
       <c r="C713" s="11"/>
       <c r="D713" s="11"/>
@@ -15483,7 +15582,7 @@
       <c r="R713" s="13"/>
       <c r="S713" s="13"/>
     </row>
-    <row r="714" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B714" s="1"/>
       <c r="C714" s="11"/>
       <c r="D714" s="11"/>
@@ -15503,7 +15602,7 @@
       <c r="R714" s="13"/>
       <c r="S714" s="13"/>
     </row>
-    <row r="715" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B715" s="1"/>
       <c r="C715" s="11"/>
       <c r="D715" s="11"/>
@@ -15523,7 +15622,7 @@
       <c r="R715" s="13"/>
       <c r="S715" s="13"/>
     </row>
-    <row r="716" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B716" s="1"/>
       <c r="C716" s="11"/>
       <c r="D716" s="11"/>
@@ -15543,7 +15642,7 @@
       <c r="R716" s="13"/>
       <c r="S716" s="13"/>
     </row>
-    <row r="717" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B717" s="1"/>
       <c r="C717" s="11"/>
       <c r="D717" s="11"/>
@@ -15563,7 +15662,7 @@
       <c r="R717" s="13"/>
       <c r="S717" s="13"/>
     </row>
-    <row r="718" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B718" s="1"/>
       <c r="C718" s="11"/>
       <c r="D718" s="11"/>
@@ -15583,7 +15682,7 @@
       <c r="R718" s="13"/>
       <c r="S718" s="13"/>
     </row>
-    <row r="719" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B719" s="1"/>
       <c r="C719" s="11"/>
       <c r="D719" s="11"/>
@@ -15603,7 +15702,7 @@
       <c r="R719" s="13"/>
       <c r="S719" s="13"/>
     </row>
-    <row r="720" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B720" s="1"/>
       <c r="C720" s="11"/>
       <c r="D720" s="11"/>
@@ -15623,7 +15722,7 @@
       <c r="R720" s="13"/>
       <c r="S720" s="13"/>
     </row>
-    <row r="721" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B721" s="1"/>
       <c r="C721" s="11"/>
       <c r="D721" s="11"/>
@@ -15643,7 +15742,7 @@
       <c r="R721" s="13"/>
       <c r="S721" s="13"/>
     </row>
-    <row r="722" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B722" s="1"/>
       <c r="C722" s="11"/>
       <c r="D722" s="11"/>
@@ -15663,7 +15762,7 @@
       <c r="R722" s="13"/>
       <c r="S722" s="13"/>
     </row>
-    <row r="723" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B723" s="1"/>
       <c r="C723" s="11"/>
       <c r="D723" s="11"/>
@@ -15683,7 +15782,7 @@
       <c r="R723" s="13"/>
       <c r="S723" s="13"/>
     </row>
-    <row r="724" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B724" s="1"/>
       <c r="C724" s="11"/>
       <c r="D724" s="11"/>
@@ -15703,7 +15802,7 @@
       <c r="R724" s="13"/>
       <c r="S724" s="13"/>
     </row>
-    <row r="725" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B725" s="1"/>
       <c r="C725" s="11"/>
       <c r="D725" s="11"/>
@@ -15723,7 +15822,7 @@
       <c r="R725" s="13"/>
       <c r="S725" s="13"/>
     </row>
-    <row r="726" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B726" s="1"/>
       <c r="C726" s="11"/>
       <c r="D726" s="11"/>
@@ -15743,7 +15842,7 @@
       <c r="R726" s="13"/>
       <c r="S726" s="13"/>
     </row>
-    <row r="727" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B727" s="1"/>
       <c r="C727" s="11"/>
       <c r="D727" s="11"/>
@@ -15763,7 +15862,7 @@
       <c r="R727" s="13"/>
       <c r="S727" s="13"/>
     </row>
-    <row r="728" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B728" s="1"/>
       <c r="C728" s="11"/>
       <c r="D728" s="11"/>
@@ -15783,7 +15882,7 @@
       <c r="R728" s="13"/>
       <c r="S728" s="13"/>
     </row>
-    <row r="729" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B729" s="1"/>
       <c r="C729" s="11"/>
       <c r="D729" s="11"/>
@@ -15803,7 +15902,7 @@
       <c r="R729" s="13"/>
       <c r="S729" s="13"/>
     </row>
-    <row r="730" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B730" s="1"/>
       <c r="C730" s="11"/>
       <c r="D730" s="11"/>
@@ -15823,7 +15922,7 @@
       <c r="R730" s="13"/>
       <c r="S730" s="13"/>
     </row>
-    <row r="731" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B731" s="1"/>
       <c r="C731" s="11"/>
       <c r="D731" s="11"/>
@@ -15843,7 +15942,7 @@
       <c r="R731" s="13"/>
       <c r="S731" s="13"/>
     </row>
-    <row r="732" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B732" s="1"/>
       <c r="C732" s="11"/>
       <c r="D732" s="11"/>
@@ -15863,7 +15962,7 @@
       <c r="R732" s="13"/>
       <c r="S732" s="13"/>
     </row>
-    <row r="733" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B733" s="1"/>
       <c r="C733" s="11"/>
       <c r="D733" s="11"/>
@@ -15883,7 +15982,7 @@
       <c r="R733" s="13"/>
       <c r="S733" s="13"/>
     </row>
-    <row r="734" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B734" s="1"/>
       <c r="C734" s="11"/>
       <c r="D734" s="11"/>
@@ -15903,7 +16002,7 @@
       <c r="R734" s="13"/>
       <c r="S734" s="13"/>
     </row>
-    <row r="735" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B735" s="1"/>
       <c r="C735" s="11"/>
       <c r="D735" s="11"/>
@@ -15923,7 +16022,7 @@
       <c r="R735" s="13"/>
       <c r="S735" s="13"/>
     </row>
-    <row r="736" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B736" s="1"/>
       <c r="C736" s="11"/>
       <c r="D736" s="11"/>
@@ -15943,7 +16042,7 @@
       <c r="R736" s="13"/>
       <c r="S736" s="13"/>
     </row>
-    <row r="737" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B737" s="1"/>
       <c r="C737" s="11"/>
       <c r="D737" s="11"/>
@@ -15963,7 +16062,7 @@
       <c r="R737" s="13"/>
       <c r="S737" s="13"/>
     </row>
-    <row r="738" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B738" s="1"/>
       <c r="C738" s="11"/>
       <c r="D738" s="11"/>
@@ -15983,7 +16082,7 @@
       <c r="R738" s="13"/>
       <c r="S738" s="13"/>
     </row>
-    <row r="739" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B739" s="1"/>
       <c r="C739" s="11"/>
       <c r="D739" s="11"/>
@@ -16003,7 +16102,7 @@
       <c r="R739" s="13"/>
       <c r="S739" s="13"/>
     </row>
-    <row r="740" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B740" s="1"/>
       <c r="C740" s="11"/>
       <c r="D740" s="11"/>
@@ -16023,7 +16122,7 @@
       <c r="R740" s="13"/>
       <c r="S740" s="13"/>
     </row>
-    <row r="741" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B741" s="1"/>
       <c r="C741" s="11"/>
       <c r="D741" s="11"/>
@@ -16043,7 +16142,7 @@
       <c r="R741" s="13"/>
       <c r="S741" s="13"/>
     </row>
-    <row r="742" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B742" s="1"/>
       <c r="C742" s="11"/>
       <c r="D742" s="11"/>
@@ -16063,7 +16162,7 @@
       <c r="R742" s="13"/>
       <c r="S742" s="13"/>
     </row>
-    <row r="743" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B743" s="1"/>
       <c r="C743" s="11"/>
       <c r="D743" s="11"/>
@@ -16083,7 +16182,7 @@
       <c r="R743" s="13"/>
       <c r="S743" s="13"/>
     </row>
-    <row r="744" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B744" s="1"/>
       <c r="C744" s="11"/>
       <c r="D744" s="11"/>
@@ -16103,7 +16202,7 @@
       <c r="R744" s="13"/>
       <c r="S744" s="13"/>
     </row>
-    <row r="745" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B745" s="1"/>
       <c r="C745" s="11"/>
       <c r="D745" s="11"/>
@@ -16123,7 +16222,7 @@
       <c r="R745" s="13"/>
       <c r="S745" s="13"/>
     </row>
-    <row r="746" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B746" s="1"/>
       <c r="C746" s="11"/>
       <c r="D746" s="11"/>
@@ -16143,7 +16242,7 @@
       <c r="R746" s="13"/>
       <c r="S746" s="13"/>
     </row>
-    <row r="747" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B747" s="1"/>
       <c r="C747" s="11"/>
       <c r="D747" s="11"/>
@@ -16163,7 +16262,7 @@
       <c r="R747" s="13"/>
       <c r="S747" s="13"/>
     </row>
-    <row r="748" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B748" s="1"/>
       <c r="C748" s="11"/>
       <c r="D748" s="11"/>
@@ -16183,7 +16282,7 @@
       <c r="R748" s="13"/>
       <c r="S748" s="13"/>
     </row>
-    <row r="749" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B749" s="1"/>
       <c r="C749" s="11"/>
       <c r="D749" s="11"/>
@@ -16203,7 +16302,7 @@
       <c r="R749" s="13"/>
       <c r="S749" s="13"/>
     </row>
-    <row r="750" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B750" s="1"/>
       <c r="C750" s="11"/>
       <c r="D750" s="11"/>
@@ -16223,7 +16322,7 @@
       <c r="R750" s="13"/>
       <c r="S750" s="13"/>
     </row>
-    <row r="751" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B751" s="1"/>
       <c r="C751" s="11"/>
       <c r="D751" s="11"/>
@@ -16243,7 +16342,7 @@
       <c r="R751" s="13"/>
       <c r="S751" s="13"/>
     </row>
-    <row r="752" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B752" s="1"/>
       <c r="C752" s="11"/>
       <c r="D752" s="11"/>
@@ -16263,7 +16362,7 @@
       <c r="R752" s="13"/>
       <c r="S752" s="13"/>
     </row>
-    <row r="753" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B753" s="1"/>
       <c r="C753" s="11"/>
       <c r="D753" s="11"/>
@@ -16283,7 +16382,7 @@
       <c r="R753" s="13"/>
       <c r="S753" s="13"/>
     </row>
-    <row r="754" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B754" s="1"/>
       <c r="C754" s="11"/>
       <c r="D754" s="11"/>
@@ -16303,7 +16402,7 @@
       <c r="R754" s="13"/>
       <c r="S754" s="13"/>
     </row>
-    <row r="755" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B755" s="1"/>
       <c r="C755" s="11"/>
       <c r="D755" s="11"/>
@@ -16323,7 +16422,7 @@
       <c r="R755" s="13"/>
       <c r="S755" s="13"/>
     </row>
-    <row r="756" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B756" s="1"/>
       <c r="C756" s="11"/>
       <c r="D756" s="11"/>
@@ -16343,7 +16442,7 @@
       <c r="R756" s="13"/>
       <c r="S756" s="13"/>
     </row>
-    <row r="757" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B757" s="1"/>
       <c r="C757" s="11"/>
       <c r="D757" s="11"/>
@@ -16363,7 +16462,7 @@
       <c r="R757" s="13"/>
       <c r="S757" s="13"/>
     </row>
-    <row r="758" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B758" s="1"/>
       <c r="C758" s="11"/>
       <c r="D758" s="11"/>
@@ -16383,7 +16482,7 @@
       <c r="R758" s="13"/>
       <c r="S758" s="13"/>
     </row>
-    <row r="759" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B759" s="1"/>
       <c r="C759" s="11"/>
       <c r="D759" s="11"/>
@@ -16403,7 +16502,7 @@
       <c r="R759" s="13"/>
       <c r="S759" s="13"/>
     </row>
-    <row r="760" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B760" s="1"/>
       <c r="C760" s="11"/>
       <c r="D760" s="11"/>
@@ -16423,7 +16522,7 @@
       <c r="R760" s="13"/>
       <c r="S760" s="13"/>
     </row>
-    <row r="761" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B761" s="1"/>
       <c r="C761" s="11"/>
       <c r="D761" s="11"/>
@@ -16443,7 +16542,7 @@
       <c r="R761" s="13"/>
       <c r="S761" s="13"/>
     </row>
-    <row r="762" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B762" s="1"/>
       <c r="C762" s="11"/>
       <c r="D762" s="11"/>
@@ -16463,7 +16562,7 @@
       <c r="R762" s="13"/>
       <c r="S762" s="13"/>
     </row>
-    <row r="763" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B763" s="1"/>
       <c r="C763" s="11"/>
       <c r="D763" s="11"/>
@@ -16483,7 +16582,7 @@
       <c r="R763" s="13"/>
       <c r="S763" s="13"/>
     </row>
-    <row r="764" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B764" s="1"/>
       <c r="C764" s="11"/>
       <c r="D764" s="11"/>
@@ -16503,7 +16602,7 @@
       <c r="R764" s="13"/>
       <c r="S764" s="13"/>
     </row>
-    <row r="765" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B765" s="1"/>
       <c r="C765" s="11"/>
       <c r="D765" s="11"/>
@@ -16523,7 +16622,7 @@
       <c r="R765" s="13"/>
       <c r="S765" s="13"/>
     </row>
-    <row r="766" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B766" s="1"/>
       <c r="C766" s="11"/>
       <c r="D766" s="11"/>
@@ -16543,7 +16642,7 @@
       <c r="R766" s="13"/>
       <c r="S766" s="13"/>
     </row>
-    <row r="767" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B767" s="1"/>
       <c r="C767" s="11"/>
       <c r="D767" s="11"/>
@@ -16563,7 +16662,7 @@
       <c r="R767" s="13"/>
       <c r="S767" s="13"/>
     </row>
-    <row r="768" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B768" s="1"/>
       <c r="C768" s="11"/>
       <c r="D768" s="11"/>
@@ -16583,7 +16682,7 @@
       <c r="R768" s="13"/>
       <c r="S768" s="13"/>
     </row>
-    <row r="769" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B769" s="1"/>
       <c r="C769" s="11"/>
       <c r="D769" s="11"/>
@@ -16603,7 +16702,7 @@
       <c r="R769" s="13"/>
       <c r="S769" s="13"/>
     </row>
-    <row r="770" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B770" s="1"/>
       <c r="C770" s="11"/>
       <c r="D770" s="11"/>
@@ -16623,7 +16722,7 @@
       <c r="R770" s="13"/>
       <c r="S770" s="13"/>
     </row>
-    <row r="771" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B771" s="1"/>
       <c r="C771" s="11"/>
       <c r="D771" s="11"/>
@@ -16643,7 +16742,7 @@
       <c r="R771" s="13"/>
       <c r="S771" s="13"/>
     </row>
-    <row r="772" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B772" s="1"/>
       <c r="C772" s="11"/>
       <c r="D772" s="11"/>
@@ -16663,7 +16762,7 @@
       <c r="R772" s="13"/>
       <c r="S772" s="13"/>
     </row>
-    <row r="773" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B773" s="1"/>
       <c r="C773" s="11"/>
       <c r="D773" s="11"/>
@@ -16683,7 +16782,7 @@
       <c r="R773" s="13"/>
       <c r="S773" s="13"/>
     </row>
-    <row r="774" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B774" s="1"/>
       <c r="C774" s="11"/>
       <c r="D774" s="11"/>
@@ -16703,7 +16802,7 @@
       <c r="R774" s="13"/>
       <c r="S774" s="13"/>
     </row>
-    <row r="775" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B775" s="1"/>
       <c r="C775" s="11"/>
       <c r="D775" s="11"/>
@@ -16723,7 +16822,7 @@
       <c r="R775" s="13"/>
       <c r="S775" s="13"/>
     </row>
-    <row r="776" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B776" s="1"/>
       <c r="C776" s="11"/>
       <c r="D776" s="11"/>
@@ -16743,7 +16842,7 @@
       <c r="R776" s="13"/>
       <c r="S776" s="13"/>
     </row>
-    <row r="777" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B777" s="1"/>
       <c r="C777" s="11"/>
       <c r="D777" s="11"/>
@@ -16763,7 +16862,7 @@
       <c r="R777" s="13"/>
       <c r="S777" s="13"/>
     </row>
-    <row r="778" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B778" s="1"/>
       <c r="C778" s="11"/>
       <c r="D778" s="11"/>
@@ -16783,7 +16882,7 @@
       <c r="R778" s="13"/>
       <c r="S778" s="13"/>
     </row>
-    <row r="779" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B779" s="1"/>
       <c r="C779" s="11"/>
       <c r="D779" s="11"/>
@@ -16803,7 +16902,7 @@
       <c r="R779" s="13"/>
       <c r="S779" s="13"/>
     </row>
-    <row r="780" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B780" s="1"/>
       <c r="C780" s="11"/>
       <c r="D780" s="11"/>
@@ -16823,7 +16922,7 @@
       <c r="R780" s="13"/>
       <c r="S780" s="13"/>
     </row>
-    <row r="781" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B781" s="1"/>
       <c r="C781" s="11"/>
       <c r="D781" s="11"/>
@@ -16843,7 +16942,7 @@
       <c r="R781" s="13"/>
       <c r="S781" s="13"/>
     </row>
-    <row r="782" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B782" s="1"/>
       <c r="C782" s="11"/>
       <c r="D782" s="11"/>
@@ -16863,7 +16962,7 @@
       <c r="R782" s="13"/>
       <c r="S782" s="13"/>
     </row>
-    <row r="783" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B783" s="1"/>
       <c r="C783" s="11"/>
       <c r="D783" s="11"/>
@@ -16883,7 +16982,7 @@
       <c r="R783" s="13"/>
       <c r="S783" s="13"/>
     </row>
-    <row r="784" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B784" s="1"/>
       <c r="C784" s="11"/>
       <c r="D784" s="11"/>
@@ -16903,7 +17002,7 @@
       <c r="R784" s="13"/>
       <c r="S784" s="13"/>
     </row>
-    <row r="785" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B785" s="1"/>
       <c r="C785" s="11"/>
       <c r="D785" s="11"/>
@@ -16923,7 +17022,7 @@
       <c r="R785" s="13"/>
       <c r="S785" s="13"/>
     </row>
-    <row r="786" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B786" s="1"/>
       <c r="C786" s="11"/>
       <c r="D786" s="11"/>
@@ -16943,7 +17042,7 @@
       <c r="R786" s="13"/>
       <c r="S786" s="13"/>
     </row>
-    <row r="787" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B787" s="1"/>
       <c r="C787" s="11"/>
       <c r="D787" s="11"/>
@@ -16963,7 +17062,7 @@
       <c r="R787" s="13"/>
       <c r="S787" s="13"/>
     </row>
-    <row r="788" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B788" s="1"/>
       <c r="C788" s="11"/>
       <c r="D788" s="11"/>
@@ -16983,7 +17082,7 @@
       <c r="R788" s="13"/>
       <c r="S788" s="13"/>
     </row>
-    <row r="789" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B789" s="1"/>
       <c r="C789" s="11"/>
       <c r="D789" s="11"/>
@@ -17003,7 +17102,7 @@
       <c r="R789" s="13"/>
       <c r="S789" s="13"/>
     </row>
-    <row r="790" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B790" s="1"/>
       <c r="C790" s="11"/>
       <c r="D790" s="11"/>
@@ -17023,7 +17122,7 @@
       <c r="R790" s="13"/>
       <c r="S790" s="13"/>
     </row>
-    <row r="791" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B791" s="1"/>
       <c r="C791" s="11"/>
       <c r="D791" s="11"/>
@@ -17043,7 +17142,7 @@
       <c r="R791" s="13"/>
       <c r="S791" s="13"/>
     </row>
-    <row r="792" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B792" s="1"/>
       <c r="C792" s="11"/>
       <c r="D792" s="11"/>
@@ -17063,7 +17162,7 @@
       <c r="R792" s="13"/>
       <c r="S792" s="13"/>
     </row>
-    <row r="793" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B793" s="1"/>
       <c r="C793" s="11"/>
       <c r="D793" s="11"/>
@@ -17083,7 +17182,7 @@
       <c r="R793" s="13"/>
       <c r="S793" s="13"/>
     </row>
-    <row r="794" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B794" s="1"/>
       <c r="C794" s="11"/>
       <c r="D794" s="11"/>
@@ -17103,7 +17202,7 @@
       <c r="R794" s="13"/>
       <c r="S794" s="13"/>
     </row>
-    <row r="795" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B795" s="1"/>
       <c r="C795" s="11"/>
       <c r="D795" s="11"/>
@@ -17123,7 +17222,7 @@
       <c r="R795" s="13"/>
       <c r="S795" s="13"/>
     </row>
-    <row r="796" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B796" s="1"/>
       <c r="C796" s="11"/>
       <c r="D796" s="11"/>
@@ -17143,7 +17242,7 @@
       <c r="R796" s="13"/>
       <c r="S796" s="13"/>
     </row>
-    <row r="797" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B797" s="1"/>
       <c r="C797" s="11"/>
       <c r="D797" s="11"/>
@@ -17163,7 +17262,7 @@
       <c r="R797" s="13"/>
       <c r="S797" s="13"/>
     </row>
-    <row r="798" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B798" s="1"/>
       <c r="C798" s="11"/>
       <c r="D798" s="11"/>
@@ -17183,7 +17282,7 @@
       <c r="R798" s="13"/>
       <c r="S798" s="13"/>
     </row>
-    <row r="799" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B799" s="1"/>
       <c r="C799" s="11"/>
       <c r="D799" s="11"/>
@@ -17203,7 +17302,7 @@
       <c r="R799" s="13"/>
       <c r="S799" s="13"/>
     </row>
-    <row r="800" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B800" s="1"/>
       <c r="C800" s="11"/>
       <c r="D800" s="11"/>
@@ -17223,7 +17322,7 @@
       <c r="R800" s="13"/>
       <c r="S800" s="13"/>
     </row>
-    <row r="801" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B801" s="1"/>
       <c r="C801" s="11"/>
       <c r="D801" s="11"/>
@@ -17243,7 +17342,7 @@
       <c r="R801" s="13"/>
       <c r="S801" s="13"/>
     </row>
-    <row r="802" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B802" s="1"/>
       <c r="C802" s="11"/>
       <c r="D802" s="11"/>
@@ -17263,7 +17362,7 @@
       <c r="R802" s="13"/>
       <c r="S802" s="13"/>
     </row>
-    <row r="803" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B803" s="1"/>
       <c r="C803" s="11"/>
       <c r="D803" s="11"/>
@@ -17283,7 +17382,7 @@
       <c r="R803" s="13"/>
       <c r="S803" s="13"/>
     </row>
-    <row r="804" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B804" s="1"/>
       <c r="C804" s="11"/>
       <c r="D804" s="11"/>
@@ -17303,7 +17402,7 @@
       <c r="R804" s="13"/>
       <c r="S804" s="13"/>
     </row>
-    <row r="805" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B805" s="1"/>
       <c r="C805" s="11"/>
       <c r="D805" s="11"/>
@@ -17323,7 +17422,7 @@
       <c r="R805" s="13"/>
       <c r="S805" s="13"/>
     </row>
-    <row r="806" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B806" s="1"/>
       <c r="C806" s="11"/>
       <c r="D806" s="11"/>
@@ -17343,7 +17442,7 @@
       <c r="R806" s="13"/>
       <c r="S806" s="13"/>
     </row>
-    <row r="807" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B807" s="1"/>
       <c r="C807" s="11"/>
       <c r="D807" s="11"/>
@@ -17363,7 +17462,7 @@
       <c r="R807" s="13"/>
       <c r="S807" s="13"/>
     </row>
-    <row r="808" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B808" s="1"/>
       <c r="C808" s="11"/>
       <c r="D808" s="11"/>
@@ -17383,7 +17482,7 @@
       <c r="R808" s="13"/>
       <c r="S808" s="13"/>
     </row>
-    <row r="809" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B809" s="1"/>
       <c r="C809" s="11"/>
       <c r="D809" s="11"/>
@@ -17403,7 +17502,7 @@
       <c r="R809" s="13"/>
       <c r="S809" s="13"/>
     </row>
-    <row r="810" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B810" s="1"/>
       <c r="C810" s="11"/>
       <c r="D810" s="11"/>
@@ -17423,7 +17522,7 @@
       <c r="R810" s="13"/>
       <c r="S810" s="13"/>
     </row>
-    <row r="811" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B811" s="1"/>
       <c r="C811" s="11"/>
       <c r="D811" s="11"/>
@@ -17443,7 +17542,7 @@
       <c r="R811" s="13"/>
       <c r="S811" s="13"/>
     </row>
-    <row r="812" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B812" s="1"/>
       <c r="C812" s="11"/>
       <c r="D812" s="11"/>
@@ -17463,7 +17562,7 @@
       <c r="R812" s="13"/>
       <c r="S812" s="13"/>
     </row>
-    <row r="813" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B813" s="1"/>
       <c r="C813" s="11"/>
       <c r="D813" s="11"/>
@@ -17483,7 +17582,7 @@
       <c r="R813" s="13"/>
       <c r="S813" s="13"/>
     </row>
-    <row r="814" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B814" s="1"/>
       <c r="C814" s="11"/>
       <c r="D814" s="11"/>
@@ -17503,7 +17602,7 @@
       <c r="R814" s="13"/>
       <c r="S814" s="13"/>
     </row>
-    <row r="815" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B815" s="1"/>
       <c r="C815" s="11"/>
       <c r="D815" s="11"/>
@@ -17523,7 +17622,7 @@
       <c r="R815" s="13"/>
       <c r="S815" s="13"/>
     </row>
-    <row r="816" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B816" s="1"/>
       <c r="C816" s="11"/>
       <c r="D816" s="11"/>
@@ -17543,7 +17642,7 @@
       <c r="R816" s="13"/>
       <c r="S816" s="13"/>
     </row>
-    <row r="817" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B817" s="1"/>
       <c r="C817" s="11"/>
       <c r="D817" s="11"/>
@@ -17563,7 +17662,7 @@
       <c r="R817" s="13"/>
       <c r="S817" s="13"/>
     </row>
-    <row r="818" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B818" s="1"/>
       <c r="C818" s="11"/>
       <c r="D818" s="11"/>
@@ -17583,7 +17682,7 @@
       <c r="R818" s="13"/>
       <c r="S818" s="13"/>
     </row>
-    <row r="819" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B819" s="1"/>
       <c r="C819" s="11"/>
       <c r="D819" s="11"/>
@@ -17603,7 +17702,7 @@
       <c r="R819" s="13"/>
       <c r="S819" s="13"/>
     </row>
-    <row r="820" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B820" s="1"/>
       <c r="C820" s="11"/>
       <c r="D820" s="11"/>
@@ -17623,7 +17722,7 @@
       <c r="R820" s="13"/>
       <c r="S820" s="13"/>
     </row>
-    <row r="821" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B821" s="1"/>
       <c r="C821" s="11"/>
       <c r="D821" s="11"/>
@@ -17643,7 +17742,7 @@
       <c r="R821" s="13"/>
       <c r="S821" s="13"/>
     </row>
-    <row r="822" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B822" s="1"/>
       <c r="C822" s="11"/>
       <c r="D822" s="11"/>
@@ -17663,7 +17762,7 @@
       <c r="R822" s="13"/>
       <c r="S822" s="13"/>
     </row>
-    <row r="823" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B823" s="1"/>
       <c r="C823" s="11"/>
       <c r="D823" s="11"/>
@@ -17683,7 +17782,7 @@
       <c r="R823" s="13"/>
       <c r="S823" s="13"/>
     </row>
-    <row r="824" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B824" s="1"/>
       <c r="C824" s="11"/>
       <c r="D824" s="11"/>
@@ -17703,7 +17802,7 @@
       <c r="R824" s="13"/>
       <c r="S824" s="13"/>
     </row>
-    <row r="825" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B825" s="1"/>
       <c r="C825" s="11"/>
       <c r="D825" s="11"/>
@@ -17723,7 +17822,7 @@
       <c r="R825" s="13"/>
       <c r="S825" s="13"/>
     </row>
-    <row r="826" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B826" s="1"/>
       <c r="C826" s="11"/>
       <c r="D826" s="11"/>
@@ -17743,7 +17842,7 @@
       <c r="R826" s="13"/>
       <c r="S826" s="13"/>
     </row>
-    <row r="827" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B827" s="1"/>
       <c r="C827" s="11"/>
       <c r="D827" s="11"/>
@@ -17763,7 +17862,7 @@
       <c r="R827" s="13"/>
       <c r="S827" s="13"/>
     </row>
-    <row r="828" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B828" s="1"/>
       <c r="C828" s="11"/>
       <c r="D828" s="11"/>
@@ -17783,7 +17882,7 @@
       <c r="R828" s="13"/>
       <c r="S828" s="13"/>
     </row>
-    <row r="829" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B829" s="1"/>
       <c r="C829" s="11"/>
       <c r="D829" s="11"/>
@@ -17803,7 +17902,7 @@
       <c r="R829" s="13"/>
       <c r="S829" s="13"/>
     </row>
-    <row r="830" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B830" s="1"/>
       <c r="C830" s="11"/>
       <c r="D830" s="11"/>
@@ -17823,7 +17922,7 @@
       <c r="R830" s="13"/>
       <c r="S830" s="13"/>
     </row>
-    <row r="831" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B831" s="1"/>
       <c r="C831" s="11"/>
       <c r="D831" s="11"/>
@@ -17843,7 +17942,7 @@
       <c r="R831" s="13"/>
       <c r="S831" s="13"/>
     </row>
-    <row r="832" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B832" s="1"/>
       <c r="C832" s="11"/>
       <c r="D832" s="11"/>
@@ -17863,7 +17962,7 @@
       <c r="R832" s="13"/>
       <c r="S832" s="13"/>
     </row>
-    <row r="833" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B833" s="1"/>
       <c r="C833" s="11"/>
       <c r="D833" s="11"/>
@@ -17883,7 +17982,7 @@
       <c r="R833" s="13"/>
       <c r="S833" s="13"/>
     </row>
-    <row r="834" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B834" s="1"/>
       <c r="C834" s="11"/>
       <c r="D834" s="11"/>
@@ -17903,7 +18002,7 @@
       <c r="R834" s="13"/>
       <c r="S834" s="13"/>
     </row>
-    <row r="835" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B835" s="1"/>
       <c r="C835" s="11"/>
       <c r="D835" s="11"/>
@@ -17923,7 +18022,7 @@
       <c r="R835" s="13"/>
       <c r="S835" s="13"/>
     </row>
-    <row r="836" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B836" s="1"/>
       <c r="C836" s="11"/>
       <c r="D836" s="11"/>
@@ -17943,7 +18042,7 @@
       <c r="R836" s="13"/>
       <c r="S836" s="13"/>
     </row>
-    <row r="837" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B837" s="1"/>
       <c r="C837" s="11"/>
       <c r="D837" s="11"/>
@@ -17963,7 +18062,7 @@
       <c r="R837" s="13"/>
       <c r="S837" s="13"/>
     </row>
-    <row r="838" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B838" s="1"/>
       <c r="C838" s="11"/>
       <c r="D838" s="11"/>
@@ -17983,7 +18082,7 @@
       <c r="R838" s="13"/>
       <c r="S838" s="13"/>
     </row>
-    <row r="839" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B839" s="1"/>
       <c r="C839" s="11"/>
       <c r="D839" s="11"/>
@@ -18003,7 +18102,7 @@
       <c r="R839" s="13"/>
       <c r="S839" s="13"/>
     </row>
-    <row r="840" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B840" s="1"/>
       <c r="C840" s="11"/>
       <c r="D840" s="11"/>
@@ -18023,7 +18122,7 @@
       <c r="R840" s="13"/>
       <c r="S840" s="13"/>
     </row>
-    <row r="841" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B841" s="1"/>
       <c r="C841" s="11"/>
       <c r="D841" s="11"/>
@@ -18043,7 +18142,7 @@
       <c r="R841" s="13"/>
       <c r="S841" s="13"/>
     </row>
-    <row r="842" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B842" s="1"/>
       <c r="C842" s="11"/>
       <c r="D842" s="11"/>
@@ -18063,7 +18162,7 @@
       <c r="R842" s="13"/>
       <c r="S842" s="13"/>
     </row>
-    <row r="843" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B843" s="1"/>
       <c r="C843" s="11"/>
       <c r="D843" s="11"/>
@@ -18083,7 +18182,7 @@
       <c r="R843" s="13"/>
       <c r="S843" s="13"/>
     </row>
-    <row r="844" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B844" s="1"/>
       <c r="C844" s="11"/>
       <c r="D844" s="11"/>
@@ -18103,7 +18202,7 @@
       <c r="R844" s="13"/>
       <c r="S844" s="13"/>
     </row>
-    <row r="845" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B845" s="1"/>
       <c r="C845" s="11"/>
       <c r="D845" s="11"/>
@@ -18123,7 +18222,7 @@
       <c r="R845" s="13"/>
       <c r="S845" s="13"/>
     </row>
-    <row r="846" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B846" s="1"/>
       <c r="C846" s="11"/>
       <c r="D846" s="11"/>
@@ -18143,7 +18242,7 @@
       <c r="R846" s="13"/>
       <c r="S846" s="13"/>
     </row>
-    <row r="847" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B847" s="1"/>
       <c r="C847" s="11"/>
       <c r="D847" s="11"/>
@@ -18163,7 +18262,7 @@
       <c r="R847" s="13"/>
       <c r="S847" s="13"/>
     </row>
-    <row r="848" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B848" s="1"/>
       <c r="C848" s="11"/>
       <c r="D848" s="11"/>
@@ -18183,7 +18282,7 @@
       <c r="R848" s="13"/>
       <c r="S848" s="13"/>
     </row>
-    <row r="849" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B849" s="1"/>
       <c r="C849" s="11"/>
       <c r="D849" s="11"/>
@@ -18203,7 +18302,7 @@
       <c r="R849" s="13"/>
       <c r="S849" s="13"/>
     </row>
-    <row r="850" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B850" s="1"/>
       <c r="C850" s="11"/>
       <c r="D850" s="11"/>
@@ -18223,7 +18322,7 @@
       <c r="R850" s="13"/>
       <c r="S850" s="13"/>
     </row>
-    <row r="851" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B851" s="1"/>
       <c r="C851" s="11"/>
       <c r="D851" s="11"/>
@@ -18243,7 +18342,7 @@
       <c r="R851" s="13"/>
       <c r="S851" s="13"/>
     </row>
-    <row r="852" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B852" s="1"/>
       <c r="C852" s="11"/>
       <c r="D852" s="11"/>
@@ -18263,7 +18362,7 @@
       <c r="R852" s="13"/>
       <c r="S852" s="13"/>
     </row>
-    <row r="853" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B853" s="1"/>
       <c r="C853" s="11"/>
       <c r="D853" s="11"/>
@@ -18283,7 +18382,7 @@
       <c r="R853" s="13"/>
       <c r="S853" s="13"/>
     </row>
-    <row r="854" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B854" s="1"/>
       <c r="C854" s="11"/>
       <c r="D854" s="11"/>
@@ -18303,7 +18402,7 @@
       <c r="R854" s="13"/>
       <c r="S854" s="13"/>
     </row>
-    <row r="855" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B855" s="1"/>
       <c r="C855" s="11"/>
       <c r="D855" s="11"/>
@@ -18323,7 +18422,7 @@
       <c r="R855" s="13"/>
       <c r="S855" s="13"/>
     </row>
-    <row r="856" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B856" s="1"/>
       <c r="C856" s="11"/>
       <c r="D856" s="11"/>
@@ -18343,7 +18442,7 @@
       <c r="R856" s="13"/>
       <c r="S856" s="13"/>
     </row>
-    <row r="857" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B857" s="1"/>
       <c r="C857" s="11"/>
       <c r="D857" s="11"/>
@@ -18363,7 +18462,7 @@
       <c r="R857" s="13"/>
       <c r="S857" s="13"/>
     </row>
-    <row r="858" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B858" s="1"/>
       <c r="C858" s="11"/>
       <c r="D858" s="11"/>
@@ -18383,7 +18482,7 @@
       <c r="R858" s="13"/>
       <c r="S858" s="13"/>
     </row>
-    <row r="859" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B859" s="1"/>
       <c r="C859" s="11"/>
       <c r="D859" s="11"/>
@@ -18403,7 +18502,7 @@
       <c r="R859" s="13"/>
       <c r="S859" s="13"/>
     </row>
-    <row r="860" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B860" s="1"/>
       <c r="C860" s="11"/>
       <c r="D860" s="11"/>
@@ -18423,7 +18522,7 @@
       <c r="R860" s="13"/>
       <c r="S860" s="13"/>
     </row>
-    <row r="861" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B861" s="1"/>
       <c r="C861" s="11"/>
       <c r="D861" s="11"/>
@@ -18443,7 +18542,7 @@
       <c r="R861" s="13"/>
       <c r="S861" s="13"/>
     </row>
-    <row r="862" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B862" s="1"/>
       <c r="C862" s="11"/>
       <c r="D862" s="11"/>
@@ -18463,7 +18562,7 @@
       <c r="R862" s="13"/>
       <c r="S862" s="13"/>
     </row>
-    <row r="863" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B863" s="1"/>
       <c r="C863" s="11"/>
       <c r="D863" s="11"/>
@@ -18483,7 +18582,7 @@
       <c r="R863" s="13"/>
       <c r="S863" s="13"/>
     </row>
-    <row r="864" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B864" s="1"/>
       <c r="C864" s="11"/>
       <c r="D864" s="11"/>
@@ -18503,7 +18602,7 @@
       <c r="R864" s="13"/>
       <c r="S864" s="13"/>
     </row>
-    <row r="865" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B865" s="1"/>
       <c r="C865" s="11"/>
       <c r="D865" s="11"/>
@@ -18523,7 +18622,7 @@
       <c r="R865" s="13"/>
       <c r="S865" s="13"/>
     </row>
-    <row r="866" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B866" s="1"/>
       <c r="C866" s="11"/>
       <c r="D866" s="11"/>
@@ -18543,7 +18642,7 @@
       <c r="R866" s="13"/>
       <c r="S866" s="13"/>
     </row>
-    <row r="867" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B867" s="1"/>
       <c r="C867" s="11"/>
       <c r="D867" s="11"/>
@@ -18563,7 +18662,7 @@
       <c r="R867" s="13"/>
       <c r="S867" s="13"/>
     </row>
-    <row r="868" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B868" s="1"/>
       <c r="C868" s="11"/>
       <c r="D868" s="11"/>
@@ -18583,7 +18682,7 @@
       <c r="R868" s="13"/>
       <c r="S868" s="13"/>
     </row>
-    <row r="869" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B869" s="1"/>
       <c r="C869" s="11"/>
       <c r="D869" s="11"/>
@@ -18603,7 +18702,7 @@
       <c r="R869" s="13"/>
       <c r="S869" s="13"/>
     </row>
-    <row r="870" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B870" s="1"/>
       <c r="C870" s="11"/>
       <c r="D870" s="11"/>
@@ -18623,7 +18722,7 @@
       <c r="R870" s="13"/>
       <c r="S870" s="13"/>
     </row>
-    <row r="871" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B871" s="1"/>
       <c r="C871" s="11"/>
       <c r="D871" s="11"/>
@@ -18643,7 +18742,7 @@
       <c r="R871" s="13"/>
       <c r="S871" s="13"/>
     </row>
-    <row r="872" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B872" s="1"/>
       <c r="C872" s="11"/>
       <c r="D872" s="11"/>
@@ -18663,7 +18762,7 @@
       <c r="R872" s="13"/>
       <c r="S872" s="13"/>
     </row>
-    <row r="873" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B873" s="1"/>
       <c r="C873" s="11"/>
       <c r="D873" s="11"/>
@@ -18683,7 +18782,7 @@
       <c r="R873" s="13"/>
       <c r="S873" s="13"/>
     </row>
-    <row r="874" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B874" s="1"/>
       <c r="C874" s="11"/>
       <c r="D874" s="11"/>
@@ -18703,7 +18802,7 @@
       <c r="R874" s="13"/>
       <c r="S874" s="13"/>
     </row>
-    <row r="875" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B875" s="1"/>
       <c r="C875" s="11"/>
       <c r="D875" s="11"/>
@@ -18723,7 +18822,7 @@
       <c r="R875" s="13"/>
       <c r="S875" s="13"/>
     </row>
-    <row r="876" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B876" s="1"/>
       <c r="C876" s="11"/>
       <c r="D876" s="11"/>
@@ -18743,7 +18842,7 @@
       <c r="R876" s="13"/>
       <c r="S876" s="13"/>
     </row>
-    <row r="877" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B877" s="1"/>
       <c r="C877" s="11"/>
       <c r="D877" s="11"/>
@@ -18763,7 +18862,7 @@
       <c r="R877" s="13"/>
       <c r="S877" s="13"/>
     </row>
-    <row r="878" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B878" s="1"/>
       <c r="C878" s="11"/>
       <c r="D878" s="11"/>
@@ -18783,7 +18882,7 @@
       <c r="R878" s="13"/>
       <c r="S878" s="13"/>
     </row>
-    <row r="879" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B879" s="1"/>
       <c r="C879" s="11"/>
       <c r="D879" s="11"/>
@@ -18803,7 +18902,7 @@
       <c r="R879" s="13"/>
       <c r="S879" s="13"/>
     </row>
-    <row r="880" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B880" s="1"/>
       <c r="C880" s="11"/>
       <c r="D880" s="11"/>
@@ -18823,7 +18922,7 @@
       <c r="R880" s="13"/>
       <c r="S880" s="13"/>
     </row>
-    <row r="881" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B881" s="1"/>
       <c r="C881" s="11"/>
       <c r="D881" s="11"/>
@@ -18843,7 +18942,7 @@
       <c r="R881" s="13"/>
       <c r="S881" s="13"/>
     </row>
-    <row r="882" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B882" s="1"/>
       <c r="C882" s="11"/>
       <c r="D882" s="11"/>
@@ -18863,7 +18962,7 @@
       <c r="R882" s="13"/>
       <c r="S882" s="13"/>
     </row>
-    <row r="883" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B883" s="1"/>
       <c r="C883" s="11"/>
       <c r="D883" s="11"/>
@@ -18883,7 +18982,7 @@
       <c r="R883" s="13"/>
       <c r="S883" s="13"/>
     </row>
-    <row r="884" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B884" s="1"/>
       <c r="C884" s="11"/>
       <c r="D884" s="11"/>
@@ -18903,7 +19002,7 @@
       <c r="R884" s="13"/>
       <c r="S884" s="13"/>
     </row>
-    <row r="885" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B885" s="1"/>
       <c r="C885" s="11"/>
       <c r="D885" s="11"/>
@@ -18923,7 +19022,7 @@
       <c r="R885" s="13"/>
       <c r="S885" s="13"/>
     </row>
-    <row r="886" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B886" s="1"/>
       <c r="C886" s="11"/>
       <c r="D886" s="11"/>
@@ -18943,7 +19042,7 @@
       <c r="R886" s="13"/>
       <c r="S886" s="13"/>
     </row>
-    <row r="887" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B887" s="1"/>
       <c r="C887" s="11"/>
       <c r="D887" s="11"/>
@@ -18963,7 +19062,7 @@
       <c r="R887" s="13"/>
       <c r="S887" s="13"/>
     </row>
-    <row r="888" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B888" s="1"/>
       <c r="C888" s="11"/>
       <c r="D888" s="11"/>
@@ -18983,7 +19082,7 @@
       <c r="R888" s="13"/>
       <c r="S888" s="13"/>
     </row>
-    <row r="889" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B889" s="1"/>
       <c r="C889" s="11"/>
       <c r="D889" s="11"/>
@@ -19003,7 +19102,7 @@
       <c r="R889" s="13"/>
       <c r="S889" s="13"/>
     </row>
-    <row r="890" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B890" s="1"/>
       <c r="C890" s="11"/>
       <c r="D890" s="11"/>
@@ -19023,7 +19122,7 @@
       <c r="R890" s="13"/>
       <c r="S890" s="13"/>
     </row>
-    <row r="891" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B891" s="1"/>
       <c r="C891" s="11"/>
       <c r="D891" s="11"/>
@@ -19043,7 +19142,7 @@
       <c r="R891" s="13"/>
       <c r="S891" s="13"/>
     </row>
-    <row r="892" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B892" s="1"/>
       <c r="C892" s="11"/>
       <c r="D892" s="11"/>
@@ -19063,7 +19162,7 @@
       <c r="R892" s="13"/>
       <c r="S892" s="13"/>
     </row>
-    <row r="893" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B893" s="1"/>
       <c r="C893" s="11"/>
       <c r="D893" s="11"/>
@@ -19083,7 +19182,7 @@
       <c r="R893" s="13"/>
       <c r="S893" s="13"/>
     </row>
-    <row r="894" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B894" s="1"/>
       <c r="C894" s="11"/>
       <c r="D894" s="11"/>
@@ -19103,7 +19202,7 @@
       <c r="R894" s="13"/>
       <c r="S894" s="13"/>
     </row>
-    <row r="895" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B895" s="1"/>
       <c r="C895" s="11"/>
       <c r="D895" s="11"/>
@@ -19123,7 +19222,7 @@
       <c r="R895" s="13"/>
       <c r="S895" s="13"/>
     </row>
-    <row r="896" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B896" s="1"/>
       <c r="C896" s="11"/>
       <c r="D896" s="11"/>
@@ -19143,7 +19242,7 @@
       <c r="R896" s="13"/>
       <c r="S896" s="13"/>
     </row>
-    <row r="897" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B897" s="1"/>
       <c r="C897" s="11"/>
       <c r="D897" s="11"/>
@@ -19163,7 +19262,7 @@
       <c r="R897" s="13"/>
       <c r="S897" s="13"/>
     </row>
-    <row r="898" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B898" s="1"/>
       <c r="C898" s="11"/>
       <c r="D898" s="11"/>
@@ -19183,7 +19282,7 @@
       <c r="R898" s="13"/>
       <c r="S898" s="13"/>
     </row>
-    <row r="899" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B899" s="1"/>
       <c r="C899" s="11"/>
       <c r="D899" s="11"/>
@@ -19203,7 +19302,7 @@
       <c r="R899" s="13"/>
       <c r="S899" s="13"/>
     </row>
-    <row r="900" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B900" s="1"/>
       <c r="C900" s="11"/>
       <c r="D900" s="11"/>
@@ -19223,7 +19322,7 @@
       <c r="R900" s="13"/>
       <c r="S900" s="13"/>
     </row>
-    <row r="901" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B901" s="1"/>
       <c r="C901" s="11"/>
       <c r="D901" s="11"/>
@@ -19243,7 +19342,7 @@
       <c r="R901" s="13"/>
       <c r="S901" s="13"/>
     </row>
-    <row r="902" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B902" s="1"/>
       <c r="C902" s="11"/>
       <c r="D902" s="11"/>
@@ -19263,7 +19362,7 @@
       <c r="R902" s="13"/>
       <c r="S902" s="13"/>
     </row>
-    <row r="903" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B903" s="1"/>
       <c r="C903" s="11"/>
       <c r="D903" s="11"/>
@@ -19283,7 +19382,7 @@
       <c r="R903" s="13"/>
       <c r="S903" s="13"/>
     </row>
-    <row r="904" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B904" s="1"/>
       <c r="C904" s="11"/>
       <c r="D904" s="11"/>
@@ -19303,7 +19402,7 @@
       <c r="R904" s="13"/>
       <c r="S904" s="13"/>
     </row>
-    <row r="905" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B905" s="1"/>
       <c r="C905" s="11"/>
       <c r="D905" s="11"/>
@@ -19323,7 +19422,7 @@
       <c r="R905" s="13"/>
       <c r="S905" s="13"/>
     </row>
-    <row r="906" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B906" s="1"/>
       <c r="C906" s="11"/>
       <c r="D906" s="11"/>
@@ -19343,7 +19442,7 @@
       <c r="R906" s="13"/>
       <c r="S906" s="13"/>
     </row>
-    <row r="907" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B907" s="1"/>
       <c r="C907" s="11"/>
       <c r="D907" s="11"/>
@@ -19363,7 +19462,7 @@
       <c r="R907" s="13"/>
       <c r="S907" s="13"/>
     </row>
-    <row r="908" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B908" s="1"/>
       <c r="C908" s="11"/>
       <c r="D908" s="11"/>
@@ -19383,7 +19482,7 @@
       <c r="R908" s="13"/>
       <c r="S908" s="13"/>
     </row>
-    <row r="909" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B909" s="1"/>
       <c r="C909" s="11"/>
       <c r="D909" s="11"/>
@@ -19403,7 +19502,7 @@
       <c r="R909" s="13"/>
       <c r="S909" s="13"/>
     </row>
-    <row r="910" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B910" s="1"/>
       <c r="C910" s="11"/>
       <c r="D910" s="11"/>
@@ -19423,7 +19522,7 @@
       <c r="R910" s="13"/>
       <c r="S910" s="13"/>
     </row>
-    <row r="911" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B911" s="1"/>
       <c r="C911" s="11"/>
       <c r="D911" s="11"/>
@@ -19443,7 +19542,7 @@
       <c r="R911" s="13"/>
       <c r="S911" s="13"/>
     </row>
-    <row r="912" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B912" s="1"/>
       <c r="C912" s="11"/>
       <c r="D912" s="11"/>
@@ -19463,7 +19562,7 @@
       <c r="R912" s="13"/>
       <c r="S912" s="13"/>
     </row>
-    <row r="913" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B913" s="1"/>
       <c r="C913" s="11"/>
       <c r="D913" s="11"/>
@@ -19483,7 +19582,7 @@
       <c r="R913" s="13"/>
       <c r="S913" s="13"/>
     </row>
-    <row r="914" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B914" s="1"/>
       <c r="C914" s="11"/>
       <c r="D914" s="11"/>
@@ -19503,7 +19602,7 @@
       <c r="R914" s="13"/>
       <c r="S914" s="13"/>
     </row>
-    <row r="915" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B915" s="1"/>
       <c r="C915" s="11"/>
       <c r="D915" s="11"/>
@@ -19523,7 +19622,7 @@
       <c r="R915" s="13"/>
       <c r="S915" s="13"/>
     </row>
-    <row r="916" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B916" s="1"/>
       <c r="C916" s="11"/>
       <c r="D916" s="11"/>
@@ -19543,7 +19642,7 @@
       <c r="R916" s="13"/>
       <c r="S916" s="13"/>
     </row>
-    <row r="917" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B917" s="1"/>
       <c r="C917" s="11"/>
       <c r="D917" s="11"/>
@@ -19563,7 +19662,7 @@
       <c r="R917" s="13"/>
       <c r="S917" s="13"/>
     </row>
-    <row r="918" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B918" s="1"/>
       <c r="C918" s="11"/>
       <c r="D918" s="11"/>
@@ -19583,7 +19682,7 @@
       <c r="R918" s="13"/>
       <c r="S918" s="13"/>
     </row>
-    <row r="919" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B919" s="1"/>
       <c r="C919" s="11"/>
       <c r="D919" s="11"/>
@@ -19603,7 +19702,7 @@
       <c r="R919" s="13"/>
       <c r="S919" s="13"/>
     </row>
-    <row r="920" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B920" s="1"/>
       <c r="C920" s="11"/>
       <c r="D920" s="11"/>
@@ -19623,7 +19722,7 @@
       <c r="R920" s="13"/>
       <c r="S920" s="13"/>
     </row>
-    <row r="921" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B921" s="1"/>
       <c r="C921" s="11"/>
       <c r="D921" s="11"/>
@@ -19643,7 +19742,7 @@
       <c r="R921" s="13"/>
       <c r="S921" s="13"/>
     </row>
-    <row r="922" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B922" s="1"/>
       <c r="C922" s="11"/>
       <c r="D922" s="11"/>
@@ -19663,7 +19762,7 @@
       <c r="R922" s="13"/>
       <c r="S922" s="13"/>
     </row>
-    <row r="923" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B923" s="1"/>
       <c r="C923" s="11"/>
       <c r="D923" s="11"/>
@@ -19683,7 +19782,7 @@
       <c r="R923" s="13"/>
       <c r="S923" s="13"/>
     </row>
-    <row r="924" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B924" s="1"/>
       <c r="C924" s="11"/>
       <c r="D924" s="11"/>
@@ -19703,7 +19802,7 @@
       <c r="R924" s="13"/>
       <c r="S924" s="13"/>
     </row>
-    <row r="925" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B925" s="1"/>
       <c r="C925" s="11"/>
       <c r="D925" s="11"/>
@@ -19723,7 +19822,7 @@
       <c r="R925" s="13"/>
       <c r="S925" s="13"/>
     </row>
-    <row r="926" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B926" s="1"/>
       <c r="C926" s="11"/>
       <c r="D926" s="11"/>
@@ -19743,7 +19842,7 @@
       <c r="R926" s="13"/>
       <c r="S926" s="13"/>
     </row>
-    <row r="927" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B927" s="1"/>
       <c r="C927" s="11"/>
       <c r="D927" s="11"/>
@@ -19763,7 +19862,7 @@
       <c r="R927" s="13"/>
       <c r="S927" s="13"/>
     </row>
-    <row r="928" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B928" s="1"/>
       <c r="C928" s="11"/>
       <c r="D928" s="11"/>
@@ -19783,7 +19882,7 @@
       <c r="R928" s="13"/>
       <c r="S928" s="13"/>
     </row>
-    <row r="929" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B929" s="1"/>
       <c r="C929" s="11"/>
       <c r="D929" s="11"/>
@@ -19803,7 +19902,7 @@
       <c r="R929" s="13"/>
       <c r="S929" s="13"/>
     </row>
-    <row r="930" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B930" s="1"/>
       <c r="C930" s="11"/>
       <c r="D930" s="11"/>
@@ -19823,7 +19922,7 @@
       <c r="R930" s="13"/>
       <c r="S930" s="13"/>
     </row>
-    <row r="931" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B931" s="1"/>
       <c r="C931" s="11"/>
       <c r="D931" s="11"/>
@@ -19843,7 +19942,7 @@
       <c r="R931" s="13"/>
       <c r="S931" s="13"/>
     </row>
-    <row r="932" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B932" s="1"/>
       <c r="C932" s="11"/>
       <c r="D932" s="11"/>
@@ -19863,7 +19962,7 @@
       <c r="R932" s="13"/>
       <c r="S932" s="13"/>
     </row>
-    <row r="933" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B933" s="1"/>
       <c r="C933" s="11"/>
       <c r="D933" s="11"/>
@@ -19883,7 +19982,7 @@
       <c r="R933" s="13"/>
       <c r="S933" s="13"/>
     </row>
-    <row r="934" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B934" s="1"/>
       <c r="C934" s="11"/>
       <c r="D934" s="11"/>
@@ -19903,7 +20002,7 @@
       <c r="R934" s="13"/>
       <c r="S934" s="13"/>
     </row>
-    <row r="935" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B935" s="1"/>
       <c r="C935" s="11"/>
       <c r="D935" s="11"/>
@@ -19923,7 +20022,7 @@
       <c r="R935" s="13"/>
       <c r="S935" s="13"/>
     </row>
-    <row r="936" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B936" s="1"/>
       <c r="C936" s="11"/>
       <c r="D936" s="11"/>
@@ -19943,7 +20042,7 @@
       <c r="R936" s="13"/>
       <c r="S936" s="13"/>
     </row>
-    <row r="937" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B937" s="1"/>
       <c r="C937" s="11"/>
       <c r="D937" s="11"/>
@@ -19963,7 +20062,7 @@
       <c r="R937" s="13"/>
       <c r="S937" s="13"/>
     </row>
-    <row r="938" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B938" s="1"/>
       <c r="C938" s="11"/>
       <c r="D938" s="11"/>
@@ -19983,7 +20082,7 @@
       <c r="R938" s="13"/>
       <c r="S938" s="13"/>
     </row>
-    <row r="939" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B939" s="1"/>
       <c r="C939" s="11"/>
       <c r="D939" s="11"/>
@@ -20003,7 +20102,7 @@
       <c r="R939" s="13"/>
       <c r="S939" s="13"/>
     </row>
-    <row r="940" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B940" s="1"/>
       <c r="C940" s="11"/>
       <c r="D940" s="11"/>
@@ -20023,7 +20122,7 @@
       <c r="R940" s="13"/>
       <c r="S940" s="13"/>
     </row>
-    <row r="941" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B941" s="1"/>
       <c r="C941" s="11"/>
       <c r="D941" s="11"/>
@@ -20043,7 +20142,7 @@
       <c r="R941" s="13"/>
       <c r="S941" s="13"/>
     </row>
-    <row r="942" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B942" s="1"/>
       <c r="C942" s="11"/>
       <c r="D942" s="11"/>
@@ -20063,7 +20162,7 @@
       <c r="R942" s="13"/>
       <c r="S942" s="13"/>
     </row>
-    <row r="943" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B943" s="1"/>
       <c r="C943" s="11"/>
       <c r="D943" s="11"/>
@@ -20083,7 +20182,7 @@
       <c r="R943" s="13"/>
       <c r="S943" s="13"/>
     </row>
-    <row r="944" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B944" s="1"/>
       <c r="C944" s="11"/>
       <c r="D944" s="11"/>
@@ -20103,7 +20202,7 @@
       <c r="R944" s="13"/>
       <c r="S944" s="13"/>
     </row>
-    <row r="945" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B945" s="1"/>
       <c r="C945" s="11"/>
       <c r="D945" s="11"/>
@@ -20123,7 +20222,7 @@
       <c r="R945" s="13"/>
       <c r="S945" s="13"/>
     </row>
-    <row r="946" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B946" s="1"/>
       <c r="C946" s="11"/>
       <c r="D946" s="11"/>
@@ -20143,7 +20242,7 @@
       <c r="R946" s="13"/>
       <c r="S946" s="13"/>
     </row>
-    <row r="947" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B947" s="1"/>
       <c r="C947" s="11"/>
       <c r="D947" s="11"/>
@@ -20163,7 +20262,7 @@
       <c r="R947" s="13"/>
       <c r="S947" s="13"/>
     </row>
-    <row r="948" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B948" s="1"/>
       <c r="C948" s="11"/>
       <c r="D948" s="11"/>
@@ -20183,7 +20282,7 @@
       <c r="R948" s="13"/>
       <c r="S948" s="13"/>
     </row>
-    <row r="949" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B949" s="1"/>
       <c r="C949" s="11"/>
       <c r="D949" s="11"/>
@@ -20203,7 +20302,7 @@
       <c r="R949" s="13"/>
       <c r="S949" s="13"/>
     </row>
-    <row r="950" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B950" s="1"/>
       <c r="C950" s="11"/>
       <c r="D950" s="11"/>
@@ -20223,7 +20322,7 @@
       <c r="R950" s="13"/>
       <c r="S950" s="13"/>
     </row>
-    <row r="951" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B951" s="1"/>
       <c r="C951" s="11"/>
       <c r="D951" s="11"/>
@@ -20243,7 +20342,7 @@
       <c r="R951" s="13"/>
       <c r="S951" s="13"/>
     </row>
-    <row r="952" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B952" s="1"/>
       <c r="C952" s="11"/>
       <c r="D952" s="11"/>
@@ -20263,7 +20362,7 @@
       <c r="R952" s="13"/>
       <c r="S952" s="13"/>
     </row>
-    <row r="953" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B953" s="1"/>
       <c r="C953" s="11"/>
       <c r="D953" s="11"/>
@@ -20283,7 +20382,7 @@
       <c r="R953" s="13"/>
       <c r="S953" s="13"/>
     </row>
-    <row r="954" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B954" s="1"/>
       <c r="C954" s="11"/>
       <c r="D954" s="11"/>
@@ -20303,7 +20402,7 @@
       <c r="R954" s="13"/>
       <c r="S954" s="13"/>
     </row>
-    <row r="955" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B955" s="1"/>
       <c r="C955" s="11"/>
       <c r="D955" s="11"/>
@@ -20323,7 +20422,7 @@
       <c r="R955" s="13"/>
       <c r="S955" s="13"/>
     </row>
-    <row r="956" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B956" s="1"/>
       <c r="C956" s="11"/>
       <c r="D956" s="11"/>
@@ -20343,7 +20442,7 @@
       <c r="R956" s="13"/>
       <c r="S956" s="13"/>
     </row>
-    <row r="957" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B957" s="1"/>
       <c r="C957" s="11"/>
       <c r="D957" s="11"/>
@@ -20363,7 +20462,7 @@
       <c r="R957" s="13"/>
       <c r="S957" s="13"/>
     </row>
-    <row r="958" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B958" s="1"/>
       <c r="C958" s="11"/>
       <c r="D958" s="11"/>
@@ -20383,7 +20482,7 @@
       <c r="R958" s="13"/>
       <c r="S958" s="13"/>
     </row>
-    <row r="959" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B959" s="1"/>
       <c r="C959" s="11"/>
       <c r="D959" s="11"/>
@@ -20403,7 +20502,7 @@
       <c r="R959" s="13"/>
       <c r="S959" s="13"/>
     </row>
-    <row r="960" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B960" s="1"/>
       <c r="C960" s="11"/>
       <c r="D960" s="11"/>
@@ -20423,7 +20522,7 @@
       <c r="R960" s="13"/>
       <c r="S960" s="13"/>
     </row>
-    <row r="961" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B961" s="1"/>
       <c r="C961" s="11"/>
       <c r="D961" s="11"/>
@@ -20443,7 +20542,7 @@
       <c r="R961" s="13"/>
       <c r="S961" s="13"/>
     </row>
-    <row r="962" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B962" s="1"/>
       <c r="C962" s="11"/>
       <c r="D962" s="11"/>
@@ -20463,7 +20562,7 @@
       <c r="R962" s="13"/>
       <c r="S962" s="13"/>
     </row>
-    <row r="963" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B963" s="1"/>
       <c r="C963" s="11"/>
       <c r="D963" s="11"/>
@@ -20483,7 +20582,7 @@
       <c r="R963" s="13"/>
       <c r="S963" s="13"/>
     </row>
-    <row r="964" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B964" s="1"/>
       <c r="C964" s="11"/>
       <c r="D964" s="11"/>
@@ -20503,7 +20602,7 @@
       <c r="R964" s="13"/>
       <c r="S964" s="13"/>
     </row>
-    <row r="965" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B965" s="1"/>
       <c r="C965" s="11"/>
       <c r="D965" s="11"/>
@@ -20523,7 +20622,7 @@
       <c r="R965" s="13"/>
       <c r="S965" s="13"/>
     </row>
-    <row r="966" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B966" s="1"/>
       <c r="C966" s="11"/>
       <c r="D966" s="11"/>
@@ -20543,7 +20642,7 @@
       <c r="R966" s="13"/>
       <c r="S966" s="13"/>
     </row>
-    <row r="967" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B967" s="1"/>
       <c r="C967" s="11"/>
       <c r="D967" s="11"/>
@@ -20563,7 +20662,7 @@
       <c r="R967" s="13"/>
       <c r="S967" s="13"/>
     </row>
-    <row r="968" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B968" s="1"/>
       <c r="C968" s="11"/>
       <c r="D968" s="11"/>
@@ -20583,7 +20682,7 @@
       <c r="R968" s="13"/>
       <c r="S968" s="13"/>
     </row>
-    <row r="969" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B969" s="1"/>
       <c r="C969" s="11"/>
       <c r="D969" s="11"/>
@@ -20603,7 +20702,7 @@
       <c r="R969" s="13"/>
       <c r="S969" s="13"/>
     </row>
-    <row r="970" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B970" s="1"/>
       <c r="C970" s="11"/>
       <c r="D970" s="11"/>
@@ -20623,7 +20722,7 @@
       <c r="R970" s="13"/>
       <c r="S970" s="13"/>
     </row>
-    <row r="971" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B971" s="1"/>
       <c r="C971" s="11"/>
       <c r="D971" s="11"/>
@@ -20643,7 +20742,7 @@
       <c r="R971" s="13"/>
       <c r="S971" s="13"/>
     </row>
-    <row r="972" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B972" s="1"/>
       <c r="C972" s="11"/>
       <c r="D972" s="11"/>
@@ -20663,7 +20762,7 @@
       <c r="R972" s="13"/>
       <c r="S972" s="13"/>
     </row>
-    <row r="973" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B973" s="1"/>
       <c r="C973" s="11"/>
       <c r="D973" s="11"/>
@@ -20683,7 +20782,7 @@
       <c r="R973" s="13"/>
       <c r="S973" s="13"/>
     </row>
-    <row r="974" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B974" s="1"/>
       <c r="C974" s="11"/>
       <c r="D974" s="11"/>
@@ -20703,7 +20802,7 @@
       <c r="R974" s="13"/>
       <c r="S974" s="13"/>
     </row>
-    <row r="975" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B975" s="1"/>
       <c r="C975" s="11"/>
       <c r="D975" s="11"/>
@@ -20723,7 +20822,7 @@
       <c r="R975" s="13"/>
       <c r="S975" s="13"/>
     </row>
-    <row r="976" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B976" s="1"/>
       <c r="C976" s="11"/>
       <c r="D976" s="11"/>
@@ -20743,7 +20842,7 @@
       <c r="R976" s="13"/>
       <c r="S976" s="13"/>
     </row>
-    <row r="977" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B977" s="1"/>
       <c r="C977" s="11"/>
       <c r="D977" s="11"/>
@@ -20763,7 +20862,7 @@
       <c r="R977" s="13"/>
       <c r="S977" s="13"/>
     </row>
-    <row r="978" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B978" s="1"/>
       <c r="C978" s="11"/>
       <c r="D978" s="11"/>
@@ -20783,7 +20882,7 @@
       <c r="R978" s="13"/>
       <c r="S978" s="13"/>
     </row>
-    <row r="979" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B979" s="1"/>
       <c r="C979" s="11"/>
       <c r="D979" s="11"/>
@@ -20803,7 +20902,7 @@
       <c r="R979" s="13"/>
       <c r="S979" s="13"/>
     </row>
-    <row r="980" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B980" s="1"/>
       <c r="C980" s="11"/>
       <c r="D980" s="11"/>
@@ -20823,7 +20922,7 @@
       <c r="R980" s="13"/>
       <c r="S980" s="13"/>
     </row>
-    <row r="981" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B981" s="1"/>
       <c r="C981" s="11"/>
       <c r="D981" s="11"/>
@@ -20843,7 +20942,7 @@
       <c r="R981" s="13"/>
       <c r="S981" s="13"/>
     </row>
-    <row r="982" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B982" s="1"/>
       <c r="C982" s="11"/>
       <c r="D982" s="11"/>
@@ -20863,7 +20962,7 @@
       <c r="R982" s="13"/>
       <c r="S982" s="13"/>
     </row>
-    <row r="983" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B983" s="1"/>
       <c r="C983" s="11"/>
       <c r="D983" s="11"/>
@@ -20883,7 +20982,7 @@
       <c r="R983" s="13"/>
       <c r="S983" s="13"/>
     </row>
-    <row r="984" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B984" s="1"/>
       <c r="C984" s="11"/>
       <c r="D984" s="11"/>
@@ -20903,7 +21002,7 @@
       <c r="R984" s="13"/>
       <c r="S984" s="13"/>
     </row>
-    <row r="985" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B985" s="1"/>
       <c r="C985" s="11"/>
       <c r="D985" s="11"/>
@@ -20923,7 +21022,7 @@
       <c r="R985" s="13"/>
       <c r="S985" s="13"/>
     </row>
-    <row r="986" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B986" s="1"/>
       <c r="C986" s="11"/>
       <c r="D986" s="11"/>
@@ -20943,7 +21042,7 @@
       <c r="R986" s="13"/>
       <c r="S986" s="13"/>
     </row>
-    <row r="987" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B987" s="1"/>
       <c r="C987" s="11"/>
       <c r="D987" s="11"/>
@@ -20963,7 +21062,7 @@
       <c r="R987" s="13"/>
       <c r="S987" s="13"/>
     </row>
-    <row r="988" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B988" s="1"/>
       <c r="C988" s="11"/>
       <c r="D988" s="11"/>
@@ -20983,7 +21082,7 @@
       <c r="R988" s="13"/>
       <c r="S988" s="13"/>
     </row>
-    <row r="989" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B989" s="1"/>
       <c r="C989" s="11"/>
       <c r="D989" s="11"/>
@@ -21003,7 +21102,7 @@
       <c r="R989" s="13"/>
       <c r="S989" s="13"/>
     </row>
-    <row r="990" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B990" s="1"/>
       <c r="C990" s="11"/>
       <c r="D990" s="11"/>
@@ -21023,7 +21122,7 @@
       <c r="R990" s="13"/>
       <c r="S990" s="13"/>
     </row>
-    <row r="991" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B991" s="1"/>
       <c r="C991" s="11"/>
       <c r="D991" s="11"/>
@@ -21043,7 +21142,7 @@
       <c r="R991" s="13"/>
       <c r="S991" s="13"/>
     </row>
-    <row r="992" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B992" s="1"/>
       <c r="C992" s="11"/>
       <c r="D992" s="11"/>
@@ -21063,7 +21162,7 @@
       <c r="R992" s="13"/>
       <c r="S992" s="13"/>
     </row>
-    <row r="993" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B993" s="1"/>
       <c r="C993" s="11"/>
       <c r="D993" s="11"/>
@@ -21083,7 +21182,7 @@
       <c r="R993" s="13"/>
       <c r="S993" s="13"/>
     </row>
-    <row r="994" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B994" s="1"/>
       <c r="C994" s="11"/>
       <c r="D994" s="11"/>
@@ -21103,7 +21202,7 @@
       <c r="R994" s="13"/>
       <c r="S994" s="13"/>
     </row>
-    <row r="995" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B995" s="1"/>
       <c r="C995" s="11"/>
       <c r="D995" s="11"/>
@@ -21123,7 +21222,7 @@
       <c r="R995" s="13"/>
       <c r="S995" s="13"/>
     </row>
-    <row r="996" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B996" s="1"/>
       <c r="C996" s="11"/>
       <c r="D996" s="11"/>
@@ -21143,7 +21242,7 @@
       <c r="R996" s="13"/>
       <c r="S996" s="13"/>
     </row>
-    <row r="997" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B997" s="1"/>
       <c r="C997" s="11"/>
       <c r="D997" s="11"/>
@@ -21163,7 +21262,7 @@
       <c r="R997" s="13"/>
       <c r="S997" s="13"/>
     </row>
-    <row r="998" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B998" s="1"/>
       <c r="C998" s="11"/>
       <c r="D998" s="11"/>
@@ -21183,7 +21282,7 @@
       <c r="R998" s="13"/>
       <c r="S998" s="13"/>
     </row>
-    <row r="999" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B999" s="1"/>
       <c r="C999" s="11"/>
       <c r="D999" s="11"/>
@@ -21203,7 +21302,7 @@
       <c r="R999" s="13"/>
       <c r="S999" s="13"/>
     </row>
-    <row r="1000" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1000" s="1"/>
       <c r="C1000" s="11"/>
       <c r="D1000" s="11"/>
@@ -21223,7 +21322,7 @@
       <c r="R1000" s="13"/>
       <c r="S1000" s="13"/>
     </row>
-    <row r="1001" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1001" s="1"/>
       <c r="C1001" s="11"/>
       <c r="D1001" s="11"/>
@@ -21243,7 +21342,7 @@
       <c r="R1001" s="13"/>
       <c r="S1001" s="13"/>
     </row>
-    <row r="1002" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1002" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1002" s="1"/>
       <c r="C1002" s="11"/>
       <c r="D1002" s="11"/>
@@ -21263,7 +21362,7 @@
       <c r="R1002" s="13"/>
       <c r="S1002" s="13"/>
     </row>
-    <row r="1003" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1003" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1003" s="1"/>
       <c r="C1003" s="11"/>
       <c r="D1003" s="11"/>
@@ -21283,7 +21382,7 @@
       <c r="R1003" s="13"/>
       <c r="S1003" s="13"/>
     </row>
-    <row r="1004" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1004" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1004" s="1"/>
       <c r="C1004" s="11"/>
       <c r="D1004" s="11"/>
@@ -21303,7 +21402,7 @@
       <c r="R1004" s="13"/>
       <c r="S1004" s="13"/>
     </row>
-    <row r="1005" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1005" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1005" s="1"/>
       <c r="C1005" s="11"/>
       <c r="D1005" s="11"/>
@@ -21323,7 +21422,7 @@
       <c r="R1005" s="13"/>
       <c r="S1005" s="13"/>
     </row>
-    <row r="1006" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1006" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1006" s="1"/>
       <c r="C1006" s="11"/>
       <c r="D1006" s="11"/>
@@ -21343,7 +21442,7 @@
       <c r="R1006" s="13"/>
       <c r="S1006" s="13"/>
     </row>
-    <row r="1007" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1007" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1007" s="1"/>
       <c r="C1007" s="11"/>
       <c r="D1007" s="11"/>
